--- a/2017沉迷收肾-排谷-新.xlsx
+++ b/2017沉迷收肾-排谷-新.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="9520" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="9520" tabRatio="500" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="3月" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10103" uniqueCount="808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10237" uniqueCount="842">
   <si>
     <t>3.8亚克力school days Vol3</t>
   </si>
@@ -2537,6 +2537,139 @@
   </si>
   <si>
     <t>阿染</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>firo</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次cafe</t>
+  </si>
+  <si>
+    <t>亚克力立牌</t>
+  </si>
+  <si>
+    <t>tb已出</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>狗奈</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>吧唧</t>
+  </si>
+  <si>
+    <t>阿染</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>muri</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>补退款</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>七海</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>yui</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>子晴</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>muri</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>aimer</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>花花</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙子</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>小珠</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>木慕</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>kuma</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>猞猁</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>徵言</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>竿</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>醋萄</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏亚</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>wonder</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>希</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛总</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>久瑟</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>总数</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>已肾</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>差</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>本体补退</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>二贝</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -2763,7 +2896,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -2851,11 +2984,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2946,7 +3159,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2976,6 +3188,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3248,10 +3468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y315"/>
+  <dimension ref="A1:Y340"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R60" sqref="R60"/>
+    <sheetView topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L163" sqref="L163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.23046875" defaultRowHeight="15.5"/>
@@ -4251,7 +4471,7 @@
       <c r="A42" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B42" s="103" t="s">
+      <c r="B42" s="102" t="s">
         <v>801</v>
       </c>
       <c r="C42" s="7" t="s">
@@ -5474,7 +5694,7 @@
       <c r="A80" t="s">
         <v>152</v>
       </c>
-      <c r="B80" s="104" t="s">
+      <c r="B80" s="103" t="s">
         <v>802</v>
       </c>
       <c r="C80" t="s">
@@ -6518,7 +6738,7 @@
       <c r="H129" s="4"/>
       <c r="I129" s="4"/>
       <c r="J129" s="4"/>
-      <c r="K129" s="89"/>
+      <c r="K129" s="88"/>
       <c r="L129" t="s">
         <v>187</v>
       </c>
@@ -6554,7 +6774,7 @@
       <c r="J130" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="K130" s="89"/>
+      <c r="K130" s="88"/>
       <c r="M130" t="s">
         <v>80</v>
       </c>
@@ -6589,7 +6809,7 @@
       <c r="J131" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="K131" s="89"/>
+      <c r="K131" s="88"/>
       <c r="L131" t="s">
         <v>188</v>
       </c>
@@ -6627,7 +6847,7 @@
       <c r="J132" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="K132" s="89"/>
+      <c r="K132" s="88"/>
       <c r="M132" t="s">
         <v>52</v>
       </c>
@@ -6662,7 +6882,7 @@
       <c r="J133" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="K133" s="89"/>
+      <c r="K133" s="88"/>
       <c r="M133" t="s">
         <v>80</v>
       </c>
@@ -6695,7 +6915,7 @@
         <v>189</v>
       </c>
       <c r="J134" s="4"/>
-      <c r="K134" s="89"/>
+      <c r="K134" s="88"/>
     </row>
     <row r="135" spans="1:14">
       <c r="A135" s="82" t="s">
@@ -6722,7 +6942,7 @@
       <c r="J135" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="K135" s="89"/>
+      <c r="K135" s="88"/>
     </row>
     <row r="136" spans="1:14">
       <c r="A136" s="82" t="s">
@@ -6751,7 +6971,7 @@
       <c r="J136" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="K136" s="89"/>
+      <c r="K136" s="88"/>
     </row>
     <row r="137" spans="1:14">
       <c r="A137" s="82" t="s">
@@ -6778,7 +6998,7 @@
       <c r="J137" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="K137" s="89"/>
+      <c r="K137" s="88"/>
     </row>
     <row r="138" spans="1:14">
       <c r="A138" s="82" t="s">
@@ -6796,8 +7016,12 @@
       <c r="G138" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H138" s="83"/>
-      <c r="I138" s="84"/>
+      <c r="H138" s="17" t="s">
+        <v>825</v>
+      </c>
+      <c r="I138" s="17" t="s">
+        <v>825</v>
+      </c>
       <c r="J138" s="83"/>
       <c r="K138" s="56" t="s">
         <v>189</v>
@@ -6859,7 +7083,7 @@
       <c r="J140" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="K140" s="89"/>
+      <c r="K140" s="88"/>
     </row>
     <row r="141" spans="1:14">
       <c r="A141" s="82" t="s">
@@ -6886,7 +7110,7 @@
         <v>189</v>
       </c>
       <c r="J141" s="4"/>
-      <c r="K141" s="89"/>
+      <c r="K141" s="88"/>
     </row>
     <row r="142" spans="1:14">
       <c r="A142" s="82" t="s">
@@ -6915,14 +7139,18 @@
       <c r="J142" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="K142" s="89"/>
+      <c r="K142" s="88"/>
     </row>
     <row r="143" spans="1:14">
       <c r="A143" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="B143" s="83"/>
-      <c r="C143" s="84"/>
+      <c r="B143" s="17" t="s">
+        <v>819</v>
+      </c>
+      <c r="C143" s="17" t="s">
+        <v>823</v>
+      </c>
       <c r="D143" s="6" t="s">
         <v>189</v>
       </c>
@@ -6931,12 +7159,16 @@
       <c r="G143" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H143" s="83"/>
-      <c r="I143" s="83"/>
+      <c r="H143" s="17" t="s">
+        <v>819</v>
+      </c>
+      <c r="I143" s="17" t="s">
+        <v>823</v>
+      </c>
       <c r="J143" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="K143" s="89"/>
+      <c r="K143" s="88"/>
       <c r="L143" s="3"/>
       <c r="M143" s="3"/>
     </row>
@@ -6964,7 +7196,7 @@
       <c r="I144" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="J144" s="85" t="s">
+      <c r="J144" s="84" t="s">
         <v>45</v>
       </c>
       <c r="K144" s="56" t="s">
@@ -6996,7 +7228,7 @@
       <c r="I145" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J145" s="85" t="s">
+      <c r="J145" s="84" t="s">
         <v>41</v>
       </c>
       <c r="K145" s="56" t="s">
@@ -7031,7 +7263,7 @@
       <c r="J146" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="K146" s="89"/>
+      <c r="K146" s="88"/>
       <c r="N146" s="3"/>
     </row>
     <row r="147" spans="1:14">
@@ -7059,7 +7291,7 @@
       <c r="J147" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="K147" s="89"/>
+      <c r="K147" s="88"/>
       <c r="N147" s="3"/>
     </row>
     <row r="148" spans="1:14">
@@ -7072,7 +7304,7 @@
       <c r="C148" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="D148" s="85" t="s">
+      <c r="D148" s="84" t="s">
         <v>177</v>
       </c>
       <c r="E148" s="6" t="s">
@@ -7089,7 +7321,7 @@
         <v>189</v>
       </c>
       <c r="J148" s="4"/>
-      <c r="K148" s="89"/>
+      <c r="K148" s="88"/>
       <c r="N148" s="3"/>
     </row>
     <row r="149" spans="1:14">
@@ -7102,7 +7334,7 @@
       <c r="C149" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D149" s="85" t="s">
+      <c r="D149" s="84" t="s">
         <v>45</v>
       </c>
       <c r="E149" s="6" t="s">
@@ -7121,14 +7353,16 @@
       <c r="J149" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="K149" s="89"/>
+      <c r="K149" s="88"/>
       <c r="N149" s="3"/>
     </row>
     <row r="150" spans="1:14">
       <c r="A150" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="B150" s="83"/>
+      <c r="B150" s="17" t="s">
+        <v>818</v>
+      </c>
       <c r="C150" s="6" t="s">
         <v>189</v>
       </c>
@@ -7138,12 +7372,16 @@
       <c r="G150" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="H150" s="83"/>
-      <c r="I150" s="83"/>
+      <c r="H150" s="17" t="s">
+        <v>822</v>
+      </c>
+      <c r="I150" s="17" t="s">
+        <v>818</v>
+      </c>
       <c r="J150" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="K150" s="89"/>
+      <c r="K150" s="88"/>
       <c r="N150" s="3"/>
     </row>
     <row r="151" spans="1:14">
@@ -7173,7 +7411,7 @@
       <c r="J151" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="K151" s="89"/>
+      <c r="K151" s="88"/>
       <c r="N151" s="3"/>
     </row>
     <row r="152" spans="1:14">
@@ -7196,7 +7434,7 @@
       <c r="G152" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H152" s="86" t="s">
+      <c r="H152" s="85" t="s">
         <v>21</v>
       </c>
       <c r="I152" s="4" t="s">
@@ -7205,7 +7443,7 @@
       <c r="J152" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="K152" s="89"/>
+      <c r="K152" s="88"/>
       <c r="N152" s="3"/>
     </row>
     <row r="153" spans="1:14">
@@ -7234,7 +7472,7 @@
       <c r="I153" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J153" s="85" t="s">
+      <c r="J153" s="84" t="s">
         <v>8</v>
       </c>
       <c r="K153" s="56" t="s">
@@ -7267,7 +7505,7 @@
         <v>189</v>
       </c>
       <c r="J154" s="4"/>
-      <c r="K154" s="89"/>
+      <c r="K154" s="88"/>
       <c r="N154" s="3"/>
     </row>
     <row r="155" spans="1:14">
@@ -7295,7 +7533,7 @@
         <v>189</v>
       </c>
       <c r="J155" s="4"/>
-      <c r="K155" s="89"/>
+      <c r="K155" s="88"/>
       <c r="N155" s="3"/>
     </row>
     <row r="156" spans="1:14">
@@ -7323,7 +7561,7 @@
       <c r="J156" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="K156" s="89"/>
+      <c r="K156" s="88"/>
       <c r="N156" s="3"/>
     </row>
     <row r="157" spans="1:14">
@@ -7383,7 +7621,7 @@
       <c r="J158" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="K158" s="89"/>
+      <c r="K158" s="88"/>
       <c r="N158" s="3"/>
     </row>
     <row r="159" spans="1:14">
@@ -7413,7 +7651,7 @@
       <c r="J159" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="K159" s="89"/>
+      <c r="K159" s="88"/>
       <c r="N159" s="3"/>
     </row>
     <row r="160" spans="1:14">
@@ -7443,7 +7681,7 @@
       <c r="J160" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="K160" s="89"/>
+      <c r="K160" s="88"/>
       <c r="N160" s="3"/>
     </row>
     <row r="161" spans="1:14">
@@ -7473,7 +7711,7 @@
       <c r="J161" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="K161" s="89"/>
+      <c r="K161" s="88"/>
       <c r="N161" s="3"/>
     </row>
     <row r="162" spans="1:14">
@@ -7498,7 +7736,7 @@
       <c r="I162" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J162" s="85" t="s">
+      <c r="J162" s="84" t="s">
         <v>41</v>
       </c>
       <c r="K162" s="56" t="s">
@@ -7507,10 +7745,10 @@
       <c r="N162" s="3"/>
     </row>
     <row r="163" spans="1:14">
-      <c r="A163" s="87" t="s">
+      <c r="A163" s="86" t="s">
         <v>197</v>
       </c>
-      <c r="B163" s="88" t="s">
+      <c r="B163" s="87" t="s">
         <v>124</v>
       </c>
       <c r="C163" s="15" t="s">
@@ -7519,2420 +7757,1919 @@
       <c r="D163" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="E163" s="88"/>
-      <c r="F163" s="88"/>
-      <c r="G163" s="88" t="s">
+      <c r="E163" s="87"/>
+      <c r="F163" s="87"/>
+      <c r="G163" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="H163" s="88" t="s">
+      <c r="H163" s="87" t="s">
         <v>124</v>
       </c>
-      <c r="I163" s="88" t="s">
+      <c r="I163" s="87" t="s">
         <v>124</v>
       </c>
       <c r="J163" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="K163" s="90"/>
+      <c r="K163" s="89"/>
     </row>
     <row r="164" spans="1:14">
       <c r="L164" s="3"/>
       <c r="M164" s="3"/>
       <c r="N164" s="3"/>
     </row>
+    <row r="165" spans="1:14">
+      <c r="A165" t="s">
+        <v>815</v>
+      </c>
+      <c r="L165" s="81"/>
+      <c r="M165" s="81"/>
+      <c r="N165" s="81"/>
+    </row>
+    <row r="166" spans="1:14">
+      <c r="B166" t="s">
+        <v>836</v>
+      </c>
+      <c r="C166" s="101" t="s">
+        <v>837</v>
+      </c>
+      <c r="D166" t="s">
+        <v>838</v>
+      </c>
+      <c r="E166" t="s">
+        <v>839</v>
+      </c>
+      <c r="L166" s="81"/>
+      <c r="M166" s="81"/>
+      <c r="N166" s="81"/>
+    </row>
     <row r="167" spans="1:14">
-      <c r="A167" s="54" t="s">
+      <c r="A167" t="s">
+        <v>816</v>
+      </c>
+      <c r="B167">
+        <v>3</v>
+      </c>
+      <c r="L167" s="81"/>
+      <c r="M167" s="81"/>
+      <c r="N167" s="81"/>
+    </row>
+    <row r="168" spans="1:14">
+      <c r="A168" t="s">
+        <v>817</v>
+      </c>
+      <c r="B168">
+        <v>10</v>
+      </c>
+      <c r="L168" s="81"/>
+      <c r="M168" s="81"/>
+      <c r="N168" s="81"/>
+    </row>
+    <row r="169" spans="1:14">
+      <c r="A169" t="s">
+        <v>818</v>
+      </c>
+      <c r="B169">
+        <v>12</v>
+      </c>
+      <c r="L169" s="81"/>
+      <c r="M169" s="81"/>
+      <c r="N169" s="81"/>
+    </row>
+    <row r="170" spans="1:14">
+      <c r="A170" t="s">
+        <v>819</v>
+      </c>
+      <c r="B170">
+        <v>7</v>
+      </c>
+      <c r="L170" s="81"/>
+      <c r="M170" s="81"/>
+      <c r="N170" s="81"/>
+    </row>
+    <row r="171" spans="1:14">
+      <c r="A171" t="s">
+        <v>820</v>
+      </c>
+      <c r="B171">
+        <v>7</v>
+      </c>
+      <c r="L171" s="81"/>
+      <c r="M171" s="81"/>
+      <c r="N171" s="81"/>
+    </row>
+    <row r="172" spans="1:14">
+      <c r="A172" t="s">
+        <v>821</v>
+      </c>
+      <c r="B172">
+        <v>17</v>
+      </c>
+      <c r="L172" s="81"/>
+      <c r="M172" s="81"/>
+      <c r="N172" s="81"/>
+    </row>
+    <row r="173" spans="1:14">
+      <c r="A173" t="s">
+        <v>822</v>
+      </c>
+      <c r="B173">
+        <v>8</v>
+      </c>
+      <c r="L173" s="81"/>
+      <c r="M173" s="81"/>
+      <c r="N173" s="81"/>
+    </row>
+    <row r="174" spans="1:14">
+      <c r="A174" t="s">
+        <v>823</v>
+      </c>
+      <c r="B174">
+        <v>4</v>
+      </c>
+      <c r="L174" s="81"/>
+      <c r="M174" s="81"/>
+      <c r="N174" s="81"/>
+    </row>
+    <row r="175" spans="1:14">
+      <c r="A175" t="s">
+        <v>824</v>
+      </c>
+      <c r="B175">
+        <v>4</v>
+      </c>
+      <c r="L175" s="81"/>
+      <c r="M175" s="81"/>
+      <c r="N175" s="81"/>
+    </row>
+    <row r="176" spans="1:14">
+      <c r="A176" t="s">
+        <v>825</v>
+      </c>
+      <c r="B176">
+        <v>14</v>
+      </c>
+      <c r="L176" s="81"/>
+      <c r="M176" s="81"/>
+      <c r="N176" s="81"/>
+    </row>
+    <row r="177" spans="1:14">
+      <c r="A177" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B177">
+        <v>4</v>
+      </c>
+      <c r="L177" s="81"/>
+      <c r="M177" s="81"/>
+      <c r="N177" s="81"/>
+    </row>
+    <row r="178" spans="1:14">
+      <c r="A178" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B178">
+        <v>4</v>
+      </c>
+      <c r="L178" s="81"/>
+      <c r="M178" s="81"/>
+      <c r="N178" s="81"/>
+    </row>
+    <row r="179" spans="1:14">
+      <c r="A179" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B179">
+        <v>4</v>
+      </c>
+      <c r="L179" s="81"/>
+      <c r="M179" s="81"/>
+      <c r="N179" s="81"/>
+    </row>
+    <row r="180" spans="1:14">
+      <c r="A180" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B180">
+        <v>3</v>
+      </c>
+      <c r="L180" s="81"/>
+      <c r="M180" s="81"/>
+      <c r="N180" s="81"/>
+    </row>
+    <row r="181" spans="1:14">
+      <c r="A181" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="B181">
+        <v>2</v>
+      </c>
+      <c r="L181" s="81"/>
+      <c r="M181" s="81"/>
+      <c r="N181" s="81"/>
+    </row>
+    <row r="182" spans="1:14">
+      <c r="A182" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="B182">
+        <v>2</v>
+      </c>
+      <c r="L182" s="81"/>
+      <c r="M182" s="81"/>
+      <c r="N182" s="81"/>
+    </row>
+    <row r="183" spans="1:14">
+      <c r="A183" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="B183">
+        <v>6</v>
+      </c>
+      <c r="L183" s="81"/>
+      <c r="M183" s="81"/>
+      <c r="N183" s="81"/>
+    </row>
+    <row r="184" spans="1:14">
+      <c r="A184" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="B184">
+        <v>2</v>
+      </c>
+      <c r="L184" s="81"/>
+      <c r="M184" s="81"/>
+      <c r="N184" s="81"/>
+    </row>
+    <row r="185" spans="1:14">
+      <c r="A185" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="B185">
+        <v>7</v>
+      </c>
+      <c r="L185" s="81"/>
+      <c r="M185" s="81"/>
+      <c r="N185" s="81"/>
+    </row>
+    <row r="186" spans="1:14">
+      <c r="A186" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="B186">
+        <v>4</v>
+      </c>
+      <c r="L186" s="81"/>
+      <c r="M186" s="81"/>
+      <c r="N186" s="81"/>
+    </row>
+    <row r="187" spans="1:14">
+      <c r="A187" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="B187">
+        <v>6</v>
+      </c>
+      <c r="L187" s="81"/>
+      <c r="M187" s="81"/>
+      <c r="N187" s="81"/>
+    </row>
+    <row r="188" spans="1:14">
+      <c r="A188" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="B188">
+        <v>5</v>
+      </c>
+      <c r="L188" s="81"/>
+      <c r="M188" s="81"/>
+      <c r="N188" s="81"/>
+    </row>
+    <row r="189" spans="1:14">
+      <c r="A189" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="B189">
+        <v>3</v>
+      </c>
+      <c r="L189" s="81"/>
+      <c r="M189" s="81"/>
+      <c r="N189" s="81"/>
+    </row>
+    <row r="190" spans="1:14">
+      <c r="A190" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="B190">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14">
+      <c r="A192" s="54" t="s">
         <v>198</v>
       </c>
-      <c r="B167" s="21"/>
-      <c r="C167" s="21"/>
-      <c r="D167" s="20"/>
-      <c r="E167" s="21"/>
-      <c r="F167" s="27"/>
-      <c r="H167" s="6"/>
-    </row>
-    <row r="168" spans="1:14">
-      <c r="A168" s="22" t="s">
+      <c r="B192" s="21"/>
+      <c r="C192" s="21"/>
+      <c r="D192" s="20"/>
+      <c r="E192" s="21"/>
+      <c r="F192" s="27"/>
+      <c r="H192" s="6"/>
+    </row>
+    <row r="193" spans="1:9">
+      <c r="A193" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="B168" t="s">
-        <v>13</v>
-      </c>
-      <c r="D168" s="22" t="s">
+      <c r="B193" t="s">
+        <v>13</v>
+      </c>
+      <c r="D193" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E168" s="3" t="s">
+      <c r="E193" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="F168" s="30" t="s">
+      <c r="F193" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="G168" s="3"/>
-      <c r="H168" s="6"/>
-    </row>
-    <row r="169" spans="1:14">
-      <c r="A169" s="22" t="s">
+      <c r="G193" s="3"/>
+      <c r="H193" s="6"/>
+    </row>
+    <row r="194" spans="1:9">
+      <c r="A194" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B194" t="s">
         <v>8</v>
       </c>
-      <c r="D169" s="22" t="s">
+      <c r="D194" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="E169" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F169" s="30" t="s">
+      <c r="E194" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F194" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G169" s="3" t="s">
+      <c r="G194" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H169" s="6">
+      <c r="H194" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:14">
-      <c r="A170" s="22" t="s">
+    <row r="195" spans="1:9">
+      <c r="A195" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B195" t="s">
         <v>3</v>
       </c>
-      <c r="D170" s="22" t="s">
+      <c r="D195" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="E170" s="3" t="s">
+      <c r="E195" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F170" s="30" t="s">
+      <c r="F195" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="G170" s="6" t="s">
+      <c r="G195" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H170" s="6">
+      <c r="H195" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:14">
-      <c r="A171" s="22" t="s">
+    <row r="196" spans="1:9">
+      <c r="A196" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="B171" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C171" s="3"/>
-      <c r="D171" s="22" t="s">
+      <c r="B196" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C196" s="3"/>
+      <c r="D196" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E171" s="3" t="s">
+      <c r="E196" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F171" s="30" t="s">
+      <c r="F196" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G171" s="6"/>
-      <c r="H171" s="3"/>
-      <c r="I171" s="3"/>
-    </row>
-    <row r="172" spans="1:14">
-      <c r="A172" s="22" t="s">
+      <c r="G196" s="6"/>
+      <c r="H196" s="3"/>
+      <c r="I196" s="3"/>
+    </row>
+    <row r="197" spans="1:9">
+      <c r="A197" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="B172" s="3" t="s">
+      <c r="B197" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D172" s="22" t="s">
+      <c r="D197" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="E172" t="s">
-        <v>13</v>
-      </c>
-      <c r="F172" s="30" t="s">
+      <c r="E197" t="s">
+        <v>13</v>
+      </c>
+      <c r="F197" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="G172" s="6"/>
-    </row>
-    <row r="173" spans="1:14">
-      <c r="A173" s="22" t="s">
+      <c r="G197" s="6"/>
+    </row>
+    <row r="198" spans="1:9">
+      <c r="A198" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="B173" s="3" t="s">
+      <c r="B198" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D173" s="22" t="s">
+      <c r="D198" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="E173" t="s">
-        <v>13</v>
-      </c>
-      <c r="F173" s="30" t="s">
+      <c r="E198" t="s">
+        <v>13</v>
+      </c>
+      <c r="F198" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="G173" s="6"/>
-    </row>
-    <row r="174" spans="1:14">
-      <c r="A174" s="22" t="s">
+      <c r="G198" s="6"/>
+    </row>
+    <row r="199" spans="1:9">
+      <c r="A199" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B199" t="s">
         <v>65</v>
       </c>
-      <c r="D174" s="22" t="s">
+      <c r="D199" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="E174" s="3" t="s">
+      <c r="E199" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F174" s="30" t="s">
+      <c r="F199" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="G174" s="6"/>
-    </row>
-    <row r="175" spans="1:14">
-      <c r="A175" s="22" t="s">
+      <c r="G199" s="6"/>
+    </row>
+    <row r="200" spans="1:9">
+      <c r="A200" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="D175" s="22" t="s">
+      <c r="D200" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E175" s="3" t="s">
+      <c r="E200" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="F175" s="30" t="s">
+      <c r="F200" s="30" t="s">
         <v>201</v>
       </c>
-      <c r="G175" s="6"/>
-    </row>
-    <row r="176" spans="1:14">
-      <c r="A176" s="25" t="s">
+      <c r="G200" s="6"/>
+    </row>
+    <row r="201" spans="1:9">
+      <c r="A201" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="B176" s="16" t="s">
+      <c r="B201" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C176" s="16"/>
-      <c r="D176" s="25" t="s">
+      <c r="C201" s="16"/>
+      <c r="D201" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="E176" s="16" t="s">
+      <c r="E201" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F176" s="50" t="s">
+      <c r="F201" s="50" t="s">
         <v>201</v>
       </c>
-      <c r="G176" s="6"/>
-    </row>
-    <row r="177" spans="1:9">
-      <c r="A177" s="46" t="s">
+      <c r="G201" s="6"/>
+    </row>
+    <row r="202" spans="1:9">
+      <c r="A202" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="B177" s="3" t="s">
+      <c r="B202" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D177" s="46" t="s">
+      <c r="D202" s="46" t="s">
         <v>200</v>
       </c>
-      <c r="E177" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F177" s="45" t="s">
+      <c r="E202" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F202" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="G177" s="6"/>
-    </row>
-    <row r="178" spans="1:9">
-      <c r="A178" s="46"/>
-      <c r="G178" s="3"/>
-    </row>
-    <row r="179" spans="1:9">
-      <c r="G179" s="3"/>
-    </row>
-    <row r="180" spans="1:9">
-      <c r="A180" s="68" t="s">
+      <c r="G202" s="6"/>
+    </row>
+    <row r="203" spans="1:9">
+      <c r="A203" s="46"/>
+      <c r="G203" s="3"/>
+    </row>
+    <row r="204" spans="1:9">
+      <c r="G204" s="3"/>
+    </row>
+    <row r="205" spans="1:9">
+      <c r="A205" s="68" t="s">
         <v>202</v>
       </c>
-      <c r="B180" s="69"/>
-      <c r="C180" s="71"/>
-      <c r="D180" s="69"/>
-      <c r="E180" s="69"/>
-      <c r="F180" s="71"/>
-      <c r="G180" s="3"/>
-    </row>
-    <row r="181" spans="1:9">
-      <c r="A181" s="72" t="s">
+      <c r="B205" s="69"/>
+      <c r="C205" s="71"/>
+      <c r="D205" s="69"/>
+      <c r="E205" s="69"/>
+      <c r="F205" s="71"/>
+      <c r="G205" s="3"/>
+    </row>
+    <row r="206" spans="1:9">
+      <c r="A206" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="B181" s="7" t="s">
+      <c r="B206" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C181" s="73" t="s">
+      <c r="C206" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="D181" s="7" t="s">
+      <c r="D206" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E181" s="7" t="s">
+      <c r="E206" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F181" s="73" t="s">
-        <v>5</v>
-      </c>
-      <c r="G181" s="3"/>
-    </row>
-    <row r="182" spans="1:9">
-      <c r="A182" s="72" t="s">
+      <c r="F206" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="G206" s="3"/>
+    </row>
+    <row r="207" spans="1:9">
+      <c r="A207" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B182" s="7" t="s">
+      <c r="B207" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C182" s="73" t="s">
+      <c r="C207" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="D182" s="7" t="s">
+      <c r="D207" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E182" s="7" t="s">
+      <c r="E207" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F182" s="73" t="s">
+      <c r="F207" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="G182" s="3"/>
-    </row>
-    <row r="183" spans="1:9">
-      <c r="A183" s="72" t="s">
+      <c r="G207" s="3"/>
+    </row>
+    <row r="208" spans="1:9">
+      <c r="A208" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="B183" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C183" s="73" t="s">
-        <v>13</v>
-      </c>
-      <c r="D183" s="7" t="s">
+      <c r="B208" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C208" s="73" t="s">
+        <v>13</v>
+      </c>
+      <c r="D208" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E183" s="7" t="s">
+      <c r="E208" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F183" s="73" t="s">
+      <c r="F208" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="G183" s="7" t="s">
+      <c r="G208" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H183" s="4">
+      <c r="H208" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:9">
-      <c r="A184" s="72" t="s">
+    <row r="209" spans="1:9">
+      <c r="A209" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="B184" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C184" s="73" t="s">
-        <v>13</v>
-      </c>
-      <c r="D184" s="7" t="s">
+      <c r="B209" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C209" s="73" t="s">
+        <v>13</v>
+      </c>
+      <c r="D209" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E184" s="7" t="s">
+      <c r="E209" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F184" s="73" t="s">
+      <c r="F209" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="G184" s="7"/>
-      <c r="H184" s="4"/>
-    </row>
-    <row r="185" spans="1:9">
-      <c r="A185" s="72" t="s">
+      <c r="G209" s="7"/>
+      <c r="H209" s="4"/>
+    </row>
+    <row r="210" spans="1:9">
+      <c r="A210" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="B185" s="7" t="s">
+      <c r="B210" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C185" s="73" t="s">
+      <c r="C210" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="D185" s="7" t="s">
+      <c r="D210" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E185" s="7" t="s">
+      <c r="E210" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F185" s="73" t="s">
+      <c r="F210" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="G185" s="7" t="s">
+      <c r="G210" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="H185" s="4">
+      <c r="H210" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:9">
-      <c r="A186" s="72" t="s">
+    <row r="211" spans="1:9">
+      <c r="A211" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="B186" s="7" t="s">
+      <c r="B211" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C186" s="73" t="s">
+      <c r="C211" s="73" t="s">
         <v>113</v>
       </c>
-      <c r="D186" s="7" t="s">
+      <c r="D211" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E186" s="7" t="s">
+      <c r="E211" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F186" s="73" t="s">
+      <c r="F211" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="G186" s="3"/>
-    </row>
-    <row r="187" spans="1:9">
-      <c r="A187" s="72" t="s">
+      <c r="G211" s="3"/>
+    </row>
+    <row r="212" spans="1:9">
+      <c r="A212" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="B187" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C187" s="73" t="s">
+      <c r="B212" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C212" s="73" t="s">
         <v>113</v>
       </c>
-      <c r="D187" s="7" t="s">
+      <c r="D212" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E187" s="7" t="s">
+      <c r="E212" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F187" s="73" t="s">
+      <c r="F212" s="73" t="s">
         <v>113</v>
       </c>
-      <c r="G187" s="74"/>
-    </row>
-    <row r="188" spans="1:9">
-      <c r="A188" s="72" t="s">
+      <c r="G212" s="74"/>
+    </row>
+    <row r="213" spans="1:9">
+      <c r="A213" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="B188" s="7" t="s">
+      <c r="B213" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C188" s="73" t="s">
+      <c r="C213" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="D188" s="7" t="s">
+      <c r="D213" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E188" s="7" t="s">
+      <c r="E213" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F188" s="73" t="s">
+      <c r="F213" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="G188" s="74"/>
-    </row>
-    <row r="189" spans="1:9">
-      <c r="A189" s="72" t="s">
+      <c r="G213" s="74"/>
+    </row>
+    <row r="214" spans="1:9">
+      <c r="A214" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="B189" s="7" t="s">
+      <c r="B214" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C189" s="73" t="s">
+      <c r="C214" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="D189" s="7" t="s">
+      <c r="D214" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E189" s="7" t="s">
+      <c r="E214" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F189" s="73" t="s">
+      <c r="F214" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="G189" s="74"/>
-    </row>
-    <row r="190" spans="1:9">
-      <c r="A190" s="72" t="s">
+      <c r="G214" s="74"/>
+    </row>
+    <row r="215" spans="1:9">
+      <c r="A215" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="B190" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C190" s="73" t="s">
-        <v>5</v>
-      </c>
-      <c r="D190" s="7" t="s">
+      <c r="B215" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C215" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="D215" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E190" s="7" t="s">
+      <c r="E215" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F190" s="73" t="s">
+      <c r="F215" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="G190" s="74"/>
-    </row>
-    <row r="191" spans="1:9">
-      <c r="A191" s="72" t="s">
+      <c r="G215" s="74"/>
+    </row>
+    <row r="216" spans="1:9">
+      <c r="A216" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="B191" s="7" t="s">
+      <c r="B216" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C191" s="73" t="s">
+      <c r="C216" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="D191" s="7" t="s">
+      <c r="D216" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E191" s="7" t="s">
+      <c r="E216" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F191" s="73" t="s">
+      <c r="F216" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="G191" s="74"/>
-    </row>
-    <row r="192" spans="1:9">
-      <c r="A192" s="72" t="s">
+      <c r="G216" s="74"/>
+    </row>
+    <row r="217" spans="1:9">
+      <c r="A217" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="B192" s="7" t="s">
+      <c r="B217" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="C192" s="73" t="s">
+      <c r="C217" s="73" t="s">
         <v>203</v>
       </c>
-      <c r="D192" s="7" t="s">
+      <c r="D217" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E192" s="7" t="s">
+      <c r="E217" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F192" s="73"/>
-      <c r="G192" s="3"/>
-      <c r="H192" s="3"/>
-      <c r="I192" s="3"/>
-    </row>
-    <row r="193" spans="1:11">
-      <c r="A193" s="72" t="s">
+      <c r="F217" s="73"/>
+      <c r="G217" s="3"/>
+      <c r="H217" s="3"/>
+      <c r="I217" s="3"/>
+    </row>
+    <row r="218" spans="1:9">
+      <c r="A218" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="B193" s="7" t="s">
+      <c r="B218" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C193" s="73" t="s">
+      <c r="C218" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="D193" s="7" t="s">
+      <c r="D218" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E193" s="7" t="s">
+      <c r="E218" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F193" s="73" t="s">
+      <c r="F218" s="73" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="194" spans="1:11">
-      <c r="A194" s="72" t="s">
+    <row r="219" spans="1:9">
+      <c r="A219" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="B194" s="7" t="s">
+      <c r="B219" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C194" s="73" t="s">
+      <c r="C219" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="D194" s="7" t="s">
+      <c r="D219" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E194" s="7" t="s">
+      <c r="E219" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F194" s="73" t="s">
+      <c r="F219" s="73" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="195" spans="1:11">
-      <c r="A195" s="72" t="s">
+    <row r="220" spans="1:9">
+      <c r="A220" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="B195" s="7" t="s">
+      <c r="B220" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C195" s="73" t="s">
+      <c r="C220" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="D195" s="7" t="s">
+      <c r="D220" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E195" s="7" t="s">
+      <c r="E220" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F195" s="73" t="s">
+      <c r="F220" s="73" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="196" spans="1:11">
-      <c r="A196" s="72" t="s">
+    <row r="221" spans="1:9">
+      <c r="A221" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="B196" s="7" t="s">
+      <c r="B221" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C196" s="73" t="s">
+      <c r="C221" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="D196" s="7" t="s">
+      <c r="D221" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E196" s="7" t="s">
+      <c r="E221" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F196" s="73" t="s">
+      <c r="F221" s="73" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="197" spans="1:11">
-      <c r="A197" s="72" t="s">
+    <row r="222" spans="1:9">
+      <c r="A222" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="B197" s="7" t="s">
+      <c r="B222" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C197" s="73" t="s">
+      <c r="C222" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="D197" s="7" t="s">
+      <c r="D222" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E197" s="7" t="s">
+      <c r="E222" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F197" s="73"/>
-      <c r="G197" s="76" t="s">
+      <c r="F222" s="73"/>
+      <c r="G222" s="76" t="s">
         <v>80</v>
       </c>
-      <c r="H197" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="198" spans="1:11">
-      <c r="A198" s="77" t="s">
+      <c r="H222" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
+      <c r="A223" s="77" t="s">
         <v>80</v>
       </c>
-      <c r="B198" s="78"/>
-      <c r="C198" s="79"/>
-      <c r="D198" s="78" t="s">
+      <c r="B223" s="78"/>
+      <c r="C223" s="79"/>
+      <c r="D223" s="78" t="s">
         <v>81</v>
       </c>
-      <c r="E198" s="78" t="s">
+      <c r="E223" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="F198" s="79" t="s">
+      <c r="F223" s="79" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="200" spans="1:11">
-      <c r="A200" s="54" t="s">
+    <row r="225" spans="1:11">
+      <c r="A225" s="54" t="s">
         <v>204</v>
       </c>
-      <c r="B200" s="42"/>
-      <c r="C200" s="43"/>
-      <c r="D200" s="44"/>
-      <c r="E200" s="42"/>
-      <c r="F200" s="42"/>
-      <c r="G200" s="44"/>
-      <c r="H200" s="42"/>
-      <c r="I200" s="43"/>
-    </row>
-    <row r="201" spans="1:11">
-      <c r="A201" s="46" t="s">
+      <c r="B225" s="42"/>
+      <c r="C225" s="43"/>
+      <c r="D225" s="44"/>
+      <c r="E225" s="42"/>
+      <c r="F225" s="42"/>
+      <c r="G225" s="44"/>
+      <c r="H225" s="42"/>
+      <c r="I225" s="43"/>
+    </row>
+    <row r="226" spans="1:11">
+      <c r="A226" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="B201" s="3" t="s">
+      <c r="B226" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C201" s="45" t="s">
+      <c r="C226" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="D201" s="46" t="s">
+      <c r="D226" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="E201" s="3" t="s">
+      <c r="E226" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F201" s="3" t="s">
+      <c r="F226" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G201" s="46" t="s">
+      <c r="G226" s="46" t="s">
         <v>200</v>
       </c>
-      <c r="H201" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I201" s="45" t="s">
+      <c r="H226" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I226" s="45" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="202" spans="1:11">
-      <c r="A202" s="46" t="s">
+    <row r="227" spans="1:11">
+      <c r="A227" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="B202" s="3" t="s">
+      <c r="B227" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C202" s="45" t="s">
+      <c r="C227" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="D202" s="46" t="s">
+      <c r="D227" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="E202" s="3" t="s">
+      <c r="E227" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F202" s="3" t="s">
+      <c r="F227" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G202" s="46" t="s">
+      <c r="G227" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="H202" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I202" s="45" t="s">
+      <c r="H227" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I227" s="45" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="203" spans="1:11">
-      <c r="A203" s="46" t="s">
+    <row r="228" spans="1:11">
+      <c r="A228" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="B203" s="3" t="s">
+      <c r="B228" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C203" s="45" t="s">
+      <c r="C228" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="D203" s="46" t="s">
+      <c r="D228" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="E203" s="3" t="s">
+      <c r="E228" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F203" s="3" t="s">
+      <c r="F228" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G203" s="46" t="s">
+      <c r="G228" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="H203" s="3" t="s">
+      <c r="H228" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I203" s="45" t="s">
+      <c r="I228" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="J203" s="3" t="s">
+      <c r="J228" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K203">
+      <c r="K228">
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:11">
-      <c r="A204" s="46" t="s">
+    <row r="229" spans="1:11">
+      <c r="A229" s="46" t="s">
         <v>194</v>
       </c>
-      <c r="B204" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C204" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="D204" s="46" t="s">
+      <c r="B229" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C229" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D229" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="E204" s="3" t="s">
+      <c r="E229" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="F204" s="3" t="s">
+      <c r="F229" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="G204" s="46" t="s">
+      <c r="G229" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="H204" s="3" t="s">
+      <c r="H229" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="I204" s="45" t="s">
+      <c r="I229" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="J204" s="3" t="s">
+      <c r="J229" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K204">
+      <c r="K229">
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:11">
-      <c r="A205" s="46" t="s">
+    <row r="230" spans="1:11">
+      <c r="A230" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="B205" s="3" t="s">
+      <c r="B230" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C205" s="45" t="s">
+      <c r="C230" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="D205" s="46" t="s">
+      <c r="D230" s="46" t="s">
         <v>206</v>
       </c>
-      <c r="E205" s="3" t="s">
+      <c r="E230" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="F205" s="3" t="s">
+      <c r="F230" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="G205" s="46" t="s">
+      <c r="G230" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="H205" s="3" t="s">
+      <c r="H230" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I205" s="45" t="s">
+      <c r="I230" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="J205" s="3" t="s">
+      <c r="J230" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K205">
+      <c r="K230">
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:11">
-      <c r="A206" s="46" t="s">
+    <row r="231" spans="1:11">
+      <c r="A231" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="B206" s="3" t="s">
+      <c r="B231" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C206" s="45" t="s">
+      <c r="C231" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="D206" s="46" t="s">
+      <c r="D231" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E206" s="3" t="s">
+      <c r="E231" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="F206" s="3" t="s">
+      <c r="F231" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="G206" s="46" t="s">
+      <c r="G231" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="H206" s="3" t="s">
+      <c r="H231" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="I206" s="45" t="s">
+      <c r="I231" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="J206" s="3" t="s">
+      <c r="J231" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K206">
+      <c r="K231">
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:11">
-      <c r="A207" s="46" t="s">
+    <row r="232" spans="1:11">
+      <c r="A232" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="B207" s="3" t="s">
+      <c r="B232" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C207" s="45">
+      <c r="C232" s="45">
         <v>86</v>
       </c>
-      <c r="D207" s="46" t="s">
+      <c r="D232" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="E207" s="3" t="s">
+      <c r="E232" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F207" s="3" t="s">
+      <c r="F232" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G207" s="46" t="s">
+      <c r="G232" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="H207" s="3" t="s">
+      <c r="H232" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I207" s="45" t="s">
+      <c r="I232" s="45" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="208" spans="1:11">
-      <c r="A208" s="46" t="s">
+    <row r="233" spans="1:11">
+      <c r="A233" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B208" s="3" t="s">
+      <c r="B233" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C208" s="45" t="s">
+      <c r="C233" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="D208" s="46" t="s">
+      <c r="D233" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="E208" s="3" t="s">
+      <c r="E233" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F208" s="3" t="s">
+      <c r="F233" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G208" s="46" t="s">
+      <c r="G233" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="H208" s="3" t="s">
+      <c r="H233" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I208" s="45" t="s">
+      <c r="I233" s="45" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="209" spans="1:9">
-      <c r="A209" s="46" t="s">
+    <row r="234" spans="1:11">
+      <c r="A234" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="B209" s="3" t="s">
+      <c r="B234" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C209" s="45" t="s">
+      <c r="C234" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D209" s="46" t="s">
+      <c r="D234" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="E209" s="3" t="s">
+      <c r="E234" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F209" s="3"/>
-      <c r="G209" s="46" t="s">
+      <c r="F234" s="3"/>
+      <c r="G234" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="H209" s="3" t="s">
+      <c r="H234" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="I209" s="45" t="s">
+      <c r="I234" s="45" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="210" spans="1:9">
-      <c r="A210" s="46" t="s">
+    <row r="235" spans="1:11">
+      <c r="A235" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="B210" s="3" t="s">
+      <c r="B235" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C210" s="45" t="s">
+      <c r="C235" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="D210" s="46" t="s">
+      <c r="D235" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="E210" s="3" t="s">
+      <c r="E235" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F210" s="3" t="s">
+      <c r="F235" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="G210" s="46" t="s">
+      <c r="G235" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="H210" s="3" t="s">
+      <c r="H235" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I210" s="45" t="s">
+      <c r="I235" s="45" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="211" spans="1:9">
-      <c r="A211" s="46" t="s">
+    <row r="236" spans="1:11">
+      <c r="A236" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="B211" s="3"/>
-      <c r="C211" s="45"/>
-      <c r="D211" s="46" t="s">
+      <c r="B236" s="3"/>
+      <c r="C236" s="45"/>
+      <c r="D236" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="E211" s="3" t="s">
+      <c r="E236" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="F211" s="3"/>
-      <c r="G211" s="46" t="s">
+      <c r="F236" s="3"/>
+      <c r="G236" s="46" t="s">
         <v>195</v>
       </c>
-      <c r="H211" s="3" t="s">
+      <c r="H236" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I211" s="45" t="s">
+      <c r="I236" s="45" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="212" spans="1:9">
-      <c r="A212" s="49" t="s">
+    <row r="237" spans="1:11">
+      <c r="A237" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="B212" s="47" t="s">
+      <c r="B237" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="C212" s="48" t="s">
+      <c r="C237" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="D212" s="49" t="s">
+      <c r="D237" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="E212" s="47" t="s">
+      <c r="E237" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="F212" s="47" t="s">
+      <c r="F237" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="G212" s="49" t="s">
+      <c r="G237" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="H212" s="47" t="s">
+      <c r="H237" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="I212" s="48" t="s">
+      <c r="I237" s="48" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="213" spans="1:9">
-      <c r="A213">
+    <row r="238" spans="1:11">
+      <c r="A238">
         <v>2</v>
       </c>
-      <c r="D213">
+      <c r="D238">
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:9">
-      <c r="A215" s="52" t="s">
+    <row r="240" spans="1:11">
+      <c r="A240" s="52" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="216" spans="1:9">
-      <c r="A216" s="44" t="s">
+    <row r="241" spans="1:9">
+      <c r="A241" s="44" t="s">
         <v>210</v>
       </c>
-      <c r="B216" s="42" t="s">
+      <c r="B241" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="C216" s="42" t="s">
+      <c r="C241" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="D216" s="42" t="s">
+      <c r="D241" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="E216" s="42"/>
-      <c r="F216" s="42"/>
-      <c r="G216" s="43"/>
-    </row>
-    <row r="217" spans="1:9">
-      <c r="A217" s="46"/>
-      <c r="B217" s="5" t="s">
+      <c r="E241" s="42"/>
+      <c r="F241" s="42"/>
+      <c r="G241" s="43"/>
+    </row>
+    <row r="242" spans="1:9">
+      <c r="A242" s="46"/>
+      <c r="B242" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C217" s="3" t="s">
+      <c r="C242" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="D217" s="3" t="s">
+      <c r="D242" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="E217" s="3" t="s">
+      <c r="E242" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="F217" s="3" t="s">
+      <c r="F242" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G217" s="45"/>
-      <c r="H217" t="s">
+      <c r="G242" s="45"/>
+      <c r="H242" t="s">
         <v>59</v>
       </c>
-      <c r="I217" t="s">
+      <c r="I242" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="218" spans="1:9">
-      <c r="A218" s="46"/>
-      <c r="B218" s="5" t="s">
+    <row r="243" spans="1:9">
+      <c r="A243" s="46"/>
+      <c r="B243" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C218" s="5" t="s">
+      <c r="C243" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D218" s="5" t="s">
+      <c r="D243" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="E218" s="3" t="s">
+      <c r="E243" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="F218" s="3" t="s">
+      <c r="F243" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G218" s="45"/>
-    </row>
-    <row r="219" spans="1:9">
-      <c r="A219" s="46"/>
-      <c r="B219" s="5" t="s">
+      <c r="G243" s="45"/>
+    </row>
+    <row r="244" spans="1:9">
+      <c r="A244" s="46"/>
+      <c r="B244" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C219" s="3" t="s">
+      <c r="C244" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D219" s="3"/>
-      <c r="E219" s="3"/>
-      <c r="F219" s="3"/>
-      <c r="G219" s="45"/>
-    </row>
-    <row r="220" spans="1:9">
-      <c r="A220" s="61" t="s">
-        <v>125</v>
-      </c>
-      <c r="B220" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C220" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D220" s="3"/>
-      <c r="E220" s="3"/>
-      <c r="F220" s="3"/>
-      <c r="G220" s="45"/>
-      <c r="H220" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9">
-      <c r="A221" s="46"/>
-      <c r="B221" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C221" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D221" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E221" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F221" s="3"/>
-      <c r="G221" s="45"/>
-    </row>
-    <row r="222" spans="1:9">
-      <c r="A222" s="46"/>
-      <c r="B222" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C222" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D222" s="3"/>
-      <c r="E222" s="3"/>
-      <c r="F222" s="3"/>
-      <c r="G222" s="45"/>
-    </row>
-    <row r="223" spans="1:9">
-      <c r="A223" s="61" t="s">
-        <v>116</v>
-      </c>
-      <c r="B223" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C223" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D223" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E223" s="3"/>
-      <c r="F223" s="3"/>
-      <c r="G223" s="45"/>
-    </row>
-    <row r="224" spans="1:9">
-      <c r="A224" s="46"/>
-      <c r="B224" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C224" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D224" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E224" s="3"/>
-      <c r="F224" s="3"/>
-      <c r="G224" s="45"/>
-    </row>
-    <row r="225" spans="1:9">
-      <c r="A225" s="46"/>
-      <c r="B225" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C225" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D225" s="3"/>
-      <c r="E225" s="3"/>
-      <c r="F225" s="3"/>
-      <c r="G225" s="45"/>
-      <c r="H225" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9">
-      <c r="A226" s="46"/>
-      <c r="B226" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C226" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D226" s="3"/>
-      <c r="E226" s="3"/>
-      <c r="F226" s="3"/>
-      <c r="G226" s="45"/>
-    </row>
-    <row r="227" spans="1:9">
-      <c r="A227" s="46" t="s">
-        <v>98</v>
-      </c>
-      <c r="B227" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C227" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D227" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E227" s="3"/>
-      <c r="F227" s="3"/>
-      <c r="G227" s="45"/>
-    </row>
-    <row r="228" spans="1:9">
-      <c r="A228" s="46"/>
-      <c r="B228" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C228" s="3">
-        <v>86</v>
-      </c>
-      <c r="D228" s="3"/>
-      <c r="E228" s="3"/>
-      <c r="F228" s="3"/>
-      <c r="G228" s="45"/>
-    </row>
-    <row r="229" spans="1:9">
-      <c r="A229" s="46"/>
-      <c r="B229" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C229" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D229" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E229" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F229" s="3"/>
-      <c r="G229" s="45"/>
-      <c r="H229" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9">
-      <c r="A230" s="46"/>
-      <c r="B230" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C230" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="D230" s="3"/>
-      <c r="E230" s="3"/>
-      <c r="F230" s="3"/>
-      <c r="G230" s="45"/>
-      <c r="H230">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9">
-      <c r="A231" s="46" t="s">
-        <v>134</v>
-      </c>
-      <c r="B231" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C231" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D231" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="E231" s="3"/>
-      <c r="F231" s="3"/>
-      <c r="G231" s="45"/>
-    </row>
-    <row r="232" spans="1:9">
-      <c r="A232" s="46"/>
-      <c r="B232" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C232" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D232" s="3"/>
-      <c r="E232" s="3"/>
-      <c r="F232" s="3"/>
-      <c r="G232" s="45"/>
-      <c r="H232" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9">
-      <c r="A233" s="46" t="s">
-        <v>213</v>
-      </c>
-      <c r="B233" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C233" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D233" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E233" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="F233" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="G233" s="30"/>
-    </row>
-    <row r="234" spans="1:9">
-      <c r="A234" s="22"/>
-      <c r="B234" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C234" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D234" s="3"/>
-      <c r="E234" s="3"/>
-      <c r="F234" s="3"/>
-      <c r="G234" s="45"/>
-    </row>
-    <row r="235" spans="1:9">
-      <c r="A235" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="B235" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C235" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D235" s="3">
-        <v>86</v>
-      </c>
-      <c r="E235" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F235" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G235" s="45"/>
-      <c r="H235" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9">
-      <c r="A236" s="22"/>
-      <c r="B236" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C236" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D236" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E236" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F236" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G236" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="H236" t="s">
-        <v>5</v>
-      </c>
-      <c r="I236" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9">
-      <c r="A237" s="22"/>
-      <c r="B237" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C237" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D237" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E237" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F237" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G237" s="45" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9">
-      <c r="A238" s="22"/>
-      <c r="B238" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C238" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D238" s="3"/>
-      <c r="E238" s="3"/>
-      <c r="F238" s="3"/>
-      <c r="G238" s="45"/>
-      <c r="H238" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9">
-      <c r="A239" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="B239" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C239" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D239" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E239" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F239" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G239" s="45"/>
-      <c r="H239" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9">
-      <c r="A240" s="22"/>
-      <c r="B240" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="C240" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D240" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E240" s="3"/>
-      <c r="G240" s="30"/>
-    </row>
-    <row r="241" spans="1:9">
-      <c r="A241" s="22"/>
-      <c r="B241" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C241" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D241" s="3"/>
-      <c r="E241" s="3"/>
-      <c r="F241" s="3"/>
-      <c r="G241" s="45"/>
-    </row>
-    <row r="242" spans="1:9">
-      <c r="A242" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="B242" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C242" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D242" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="E242" s="3"/>
-      <c r="F242" s="3"/>
-      <c r="G242" s="45"/>
-    </row>
-    <row r="243" spans="1:9">
-      <c r="A243" s="22"/>
-      <c r="B243" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C243" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D243" s="3"/>
-      <c r="E243" s="3"/>
-      <c r="F243" s="3"/>
-      <c r="G243" s="45"/>
-    </row>
-    <row r="244" spans="1:9">
-      <c r="A244" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="B244" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C244" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D244" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E244" s="3" t="s">
-        <v>217</v>
-      </c>
+      <c r="D244" s="3"/>
+      <c r="E244" s="3"/>
       <c r="F244" s="3"/>
       <c r="G244" s="45"/>
-      <c r="H244">
-        <v>1</v>
-      </c>
     </row>
     <row r="245" spans="1:9">
-      <c r="A245" s="22"/>
+      <c r="A245" s="61" t="s">
+        <v>125</v>
+      </c>
       <c r="B245" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C245" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D245" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E245" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C245" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D245" s="3"/>
+      <c r="E245" s="3"/>
       <c r="F245" s="3"/>
       <c r="G245" s="45"/>
+      <c r="H245" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="246" spans="1:9">
-      <c r="A246" s="25"/>
-      <c r="B246" s="64" t="s">
+      <c r="A246" s="46"/>
+      <c r="B246" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C246" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D246" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E246" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F246" s="3"/>
+      <c r="G246" s="45"/>
+    </row>
+    <row r="247" spans="1:9">
+      <c r="A247" s="46"/>
+      <c r="B247" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D247" s="3"/>
+      <c r="E247" s="3"/>
+      <c r="F247" s="3"/>
+      <c r="G247" s="45"/>
+    </row>
+    <row r="248" spans="1:9">
+      <c r="A248" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="B248" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C248" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D248" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E248" s="3"/>
+      <c r="F248" s="3"/>
+      <c r="G248" s="45"/>
+    </row>
+    <row r="249" spans="1:9">
+      <c r="A249" s="46"/>
+      <c r="B249" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C249" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D249" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E249" s="3"/>
+      <c r="F249" s="3"/>
+      <c r="G249" s="45"/>
+    </row>
+    <row r="250" spans="1:9">
+      <c r="A250" s="46"/>
+      <c r="B250" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C250" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D250" s="3"/>
+      <c r="E250" s="3"/>
+      <c r="F250" s="3"/>
+      <c r="G250" s="45"/>
+      <c r="H250" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9">
+      <c r="A251" s="46"/>
+      <c r="B251" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C251" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D251" s="3"/>
+      <c r="E251" s="3"/>
+      <c r="F251" s="3"/>
+      <c r="G251" s="45"/>
+    </row>
+    <row r="252" spans="1:9">
+      <c r="A252" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="B252" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C252" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D252" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E252" s="3"/>
+      <c r="F252" s="3"/>
+      <c r="G252" s="45"/>
+    </row>
+    <row r="253" spans="1:9">
+      <c r="A253" s="46"/>
+      <c r="B253" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C253" s="3">
+        <v>86</v>
+      </c>
+      <c r="D253" s="3"/>
+      <c r="E253" s="3"/>
+      <c r="F253" s="3"/>
+      <c r="G253" s="45"/>
+    </row>
+    <row r="254" spans="1:9">
+      <c r="A254" s="46"/>
+      <c r="B254" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C254" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D254" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E254" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F254" s="3"/>
+      <c r="G254" s="45"/>
+      <c r="H254" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9">
+      <c r="A255" s="46"/>
+      <c r="B255" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D255" s="3"/>
+      <c r="E255" s="3"/>
+      <c r="F255" s="3"/>
+      <c r="G255" s="45"/>
+      <c r="H255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9">
+      <c r="A256" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="B256" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C256" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D256" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E256" s="3"/>
+      <c r="F256" s="3"/>
+      <c r="G256" s="45"/>
+    </row>
+    <row r="257" spans="1:9">
+      <c r="A257" s="46"/>
+      <c r="B257" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C257" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D257" s="3"/>
+      <c r="E257" s="3"/>
+      <c r="F257" s="3"/>
+      <c r="G257" s="45"/>
+      <c r="H257" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9">
+      <c r="A258" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="B258" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C258" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D258" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E258" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F258" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G258" s="30"/>
+    </row>
+    <row r="259" spans="1:9">
+      <c r="A259" s="22"/>
+      <c r="B259" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C259" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D259" s="3"/>
+      <c r="E259" s="3"/>
+      <c r="F259" s="3"/>
+      <c r="G259" s="45"/>
+    </row>
+    <row r="260" spans="1:9">
+      <c r="A260" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="B260" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C260" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D260" s="3">
+        <v>86</v>
+      </c>
+      <c r="E260" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F260" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G260" s="45"/>
+      <c r="H260" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9">
+      <c r="A261" s="22"/>
+      <c r="B261" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C261" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D261" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E261" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F261" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G261" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="H261" t="s">
+        <v>5</v>
+      </c>
+      <c r="I261" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9">
+      <c r="A262" s="22"/>
+      <c r="B262" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C262" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D262" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E262" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F262" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G262" s="45" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9">
+      <c r="A263" s="22"/>
+      <c r="B263" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D263" s="3"/>
+      <c r="E263" s="3"/>
+      <c r="F263" s="3"/>
+      <c r="G263" s="45"/>
+      <c r="H263" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9">
+      <c r="A264" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B264" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D264" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E264" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F264" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G264" s="45"/>
+      <c r="H264" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9">
+      <c r="A265" s="22"/>
+      <c r="B265" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D265" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E265" s="3"/>
+      <c r="G265" s="30"/>
+    </row>
+    <row r="266" spans="1:9">
+      <c r="A266" s="22"/>
+      <c r="B266" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C266" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D266" s="3"/>
+      <c r="E266" s="3"/>
+      <c r="F266" s="3"/>
+      <c r="G266" s="45"/>
+    </row>
+    <row r="267" spans="1:9">
+      <c r="A267" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B267" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D267" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E267" s="3"/>
+      <c r="F267" s="3"/>
+      <c r="G267" s="45"/>
+    </row>
+    <row r="268" spans="1:9">
+      <c r="A268" s="22"/>
+      <c r="B268" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D268" s="3"/>
+      <c r="E268" s="3"/>
+      <c r="F268" s="3"/>
+      <c r="G268" s="45"/>
+    </row>
+    <row r="269" spans="1:9">
+      <c r="A269" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B269" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C269" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D269" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E269" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F269" s="3"/>
+      <c r="G269" s="45"/>
+      <c r="H269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9">
+      <c r="A270" s="22"/>
+      <c r="B270" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C270" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D270" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E270" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F270" s="3"/>
+      <c r="G270" s="45"/>
+    </row>
+    <row r="271" spans="1:9">
+      <c r="A271" s="25"/>
+      <c r="B271" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="C246" s="47" t="s">
+      <c r="C271" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="D246" s="47" t="s">
+      <c r="D271" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="E246" s="16"/>
-      <c r="F246" s="16"/>
-      <c r="G246" s="50"/>
-      <c r="H246" t="s">
+      <c r="E271" s="16"/>
+      <c r="F271" s="16"/>
+      <c r="G271" s="50"/>
+      <c r="H271" t="s">
         <v>10</v>
       </c>
-      <c r="I246">
+      <c r="I271">
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:9">
-      <c r="A251" s="52" t="s">
+    <row r="276" spans="1:14">
+      <c r="A276" s="52" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="252" spans="1:9">
-      <c r="A252" s="91"/>
-      <c r="B252" s="92" t="s">
+    <row r="277" spans="1:14">
+      <c r="A277" s="90"/>
+      <c r="B277" s="91" t="s">
         <v>219</v>
       </c>
-      <c r="C252" s="92"/>
-      <c r="D252" s="92"/>
-      <c r="E252" s="92"/>
-      <c r="F252" s="91" t="s">
+      <c r="C277" s="91"/>
+      <c r="D277" s="91"/>
+      <c r="E277" s="91"/>
+      <c r="F277" s="90" t="s">
         <v>220</v>
       </c>
-      <c r="G252" s="92"/>
-      <c r="H252" s="92"/>
-      <c r="I252" s="93"/>
-    </row>
-    <row r="253" spans="1:9">
-      <c r="A253" s="82" t="s">
+      <c r="G277" s="91"/>
+      <c r="H277" s="91"/>
+      <c r="I277" s="92"/>
+    </row>
+    <row r="278" spans="1:14">
+      <c r="A278" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="B253" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C253" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D253" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E253" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F253" s="82" t="s">
-        <v>5</v>
-      </c>
-      <c r="G253" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H253" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I253" s="89" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="254" spans="1:9">
-      <c r="A254" s="82" t="s">
+      <c r="B278" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C278" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D278" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E278" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F278" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="G278" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H278" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I278" s="88" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="279" spans="1:14">
+      <c r="A279" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="B254" s="4" t="s">
+      <c r="B279" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C254" s="4" t="s">
+      <c r="C279" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D254" s="5" t="s">
+      <c r="D279" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E254" s="5" t="s">
+      <c r="E279" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F254" s="82" t="s">
+      <c r="F279" s="82" t="s">
         <v>36</v>
-      </c>
-      <c r="G254" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="H254" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="I254" s="56" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="255" spans="1:9">
-      <c r="A255" s="82" t="s">
-        <v>51</v>
-      </c>
-      <c r="B255" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C255" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="D255" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E255" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="F255" s="82" t="s">
-        <v>115</v>
-      </c>
-      <c r="G255" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="H255" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="I255" s="56" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9">
-      <c r="A256" s="82" t="s">
-        <v>57</v>
-      </c>
-      <c r="B256" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C256" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="D256" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="E256" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="F256" s="82" t="s">
-        <v>183</v>
-      </c>
-      <c r="G256" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="H256" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="I256" s="56" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="257" spans="1:14">
-      <c r="A257" s="82" t="s">
-        <v>34</v>
-      </c>
-      <c r="B257" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C257" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D257" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E257" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="F257" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="G257" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="H257" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="I257" s="56" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="258" spans="1:14">
-      <c r="A258" s="82" t="s">
-        <v>184</v>
-      </c>
-      <c r="B258" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C258" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D258" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E258" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="F258" s="82" t="s">
-        <v>113</v>
-      </c>
-      <c r="G258" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="H258" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I258" s="56" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="259" spans="1:14">
-      <c r="A259" s="82" t="s">
-        <v>29</v>
-      </c>
-      <c r="B259" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C259" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D259" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E259" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="F259" s="82" t="s">
-        <v>115</v>
-      </c>
-      <c r="G259" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="H259" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I259" s="89" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="260" spans="1:14">
-      <c r="A260" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="B260" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C260" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="D260" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="E260" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="F260" s="82" t="s">
-        <v>113</v>
-      </c>
-      <c r="G260" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="H260" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="I260" s="56" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="261" spans="1:14">
-      <c r="A261" s="82" t="s">
-        <v>23</v>
-      </c>
-      <c r="B261" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="C261" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="D261" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="E261" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="F261" s="82" t="s">
-        <v>113</v>
-      </c>
-      <c r="G261" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="H261" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="I261" s="56" t="s">
-        <v>221</v>
-      </c>
-      <c r="K261" s="76" t="s">
-        <v>19</v>
-      </c>
-      <c r="L261">
-        <v>2</v>
-      </c>
-      <c r="N261">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="262" spans="1:14">
-      <c r="A262" s="82" t="s">
-        <v>25</v>
-      </c>
-      <c r="B262" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C262" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="D262" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="E262" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="F262" s="82" t="s">
-        <v>26</v>
-      </c>
-      <c r="G262" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H262" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I262" s="89" t="s">
-        <v>26</v>
-      </c>
-      <c r="K262" t="s">
-        <v>10</v>
-      </c>
-      <c r="L262">
-        <v>4</v>
-      </c>
-      <c r="N262">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="263" spans="1:14">
-      <c r="A263" s="82" t="s">
-        <v>195</v>
-      </c>
-      <c r="B263" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C263" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D263" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="E263" s="56" t="s">
-        <v>221</v>
-      </c>
-      <c r="F263" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="G263" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="H263" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="I263" s="56" t="s">
-        <v>221</v>
-      </c>
-      <c r="K263" t="s">
-        <v>39</v>
-      </c>
-      <c r="L263">
-        <v>1</v>
-      </c>
-      <c r="N263">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="264" spans="1:14">
-      <c r="A264" s="82" t="s">
-        <v>35</v>
-      </c>
-      <c r="B264" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C264" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D264" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="E264" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="F264" s="82" t="s">
-        <v>730</v>
-      </c>
-      <c r="G264" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="H264" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="I264" s="89" t="s">
-        <v>201</v>
-      </c>
-      <c r="K264" t="s">
-        <v>5</v>
-      </c>
-      <c r="L264">
-        <v>10</v>
-      </c>
-      <c r="N264">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="265" spans="1:14">
-      <c r="A265" s="82" t="s">
-        <v>66</v>
-      </c>
-      <c r="B265" s="17" t="s">
-        <v>778</v>
-      </c>
-      <c r="C265" s="17" t="s">
-        <v>778</v>
-      </c>
-      <c r="D265" s="17" t="s">
-        <v>778</v>
-      </c>
-      <c r="E265" s="17" t="s">
-        <v>778</v>
-      </c>
-      <c r="F265" s="100" t="s">
-        <v>778</v>
-      </c>
-      <c r="G265" s="17" t="s">
-        <v>778</v>
-      </c>
-      <c r="H265" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="I265" s="56" t="s">
-        <v>221</v>
-      </c>
-      <c r="K265" s="76" t="s">
-        <v>15</v>
-      </c>
-      <c r="L265">
-        <v>6</v>
-      </c>
-      <c r="N265">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="266" spans="1:14">
-      <c r="A266" s="82" t="s">
-        <v>72</v>
-      </c>
-      <c r="B266" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="C266" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="D266" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="E266" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="F266" s="100" t="s">
-        <v>778</v>
-      </c>
-      <c r="G266" s="17" t="s">
-        <v>778</v>
-      </c>
-      <c r="H266" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="I266" s="56" t="s">
-        <v>221</v>
-      </c>
-      <c r="K266" t="s">
-        <v>113</v>
-      </c>
-      <c r="L266">
-        <v>7</v>
-      </c>
-      <c r="N266">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="267" spans="1:14">
-      <c r="A267" s="82" t="s">
-        <v>200</v>
-      </c>
-      <c r="B267" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C267" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D267" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E267" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F267" s="82" t="s">
-        <v>5</v>
-      </c>
-      <c r="G267" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H267" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="I267" s="56" t="s">
-        <v>221</v>
-      </c>
-      <c r="L267">
-        <f>SUM(L261:L266)</f>
-        <v>30</v>
-      </c>
-      <c r="N267">
-        <f>SUM(N261:N266)</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="268" spans="1:14">
-      <c r="A268" s="82" t="s">
-        <v>9</v>
-      </c>
-      <c r="B268" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C268" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D268" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E268" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F268" s="82" t="s">
-        <v>10</v>
-      </c>
-      <c r="G268" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H268" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I268" s="56" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="269" spans="1:14">
-      <c r="A269" s="82" t="s">
-        <v>14</v>
-      </c>
-      <c r="B269" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C269" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D269" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="E269" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="F269" s="82" t="s">
-        <v>15</v>
-      </c>
-      <c r="G269" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H269" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I269" s="89" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="270" spans="1:14">
-      <c r="A270" s="82" t="s">
-        <v>18</v>
-      </c>
-      <c r="B270" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C270" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D270" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E270" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="F270" s="82" t="s">
-        <v>21</v>
-      </c>
-      <c r="G270" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H270" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="I270" s="56" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="271" spans="1:14">
-      <c r="A271" s="82" t="s">
-        <v>40</v>
-      </c>
-      <c r="B271" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C271" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="D271" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="E271" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="F271" s="82" t="s">
-        <v>41</v>
-      </c>
-      <c r="G271" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H271" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="I271" s="56" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="272" spans="1:14">
-      <c r="A272" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="B272" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C272" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D272" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="E272" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="F272" s="82" t="s">
-        <v>45</v>
-      </c>
-      <c r="G272" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="H272" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="I272" s="56" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="273" spans="1:9">
-      <c r="A273" s="82" t="s">
-        <v>52</v>
-      </c>
-      <c r="B273" s="17" t="s">
-        <v>726</v>
-      </c>
-      <c r="C273" s="17" t="s">
-        <v>726</v>
-      </c>
-      <c r="D273" s="17" t="s">
-        <v>780</v>
-      </c>
-      <c r="E273" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="F273" s="98" t="s">
-        <v>780</v>
-      </c>
-      <c r="G273" s="17" t="s">
-        <v>746</v>
-      </c>
-      <c r="H273" s="17" t="s">
-        <v>746</v>
-      </c>
-      <c r="I273" s="56" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="274" spans="1:9">
-      <c r="A274" s="82" t="s">
-        <v>58</v>
-      </c>
-      <c r="B274" s="17" t="s">
-        <v>722</v>
-      </c>
-      <c r="C274" s="17" t="s">
-        <v>722</v>
-      </c>
-      <c r="D274" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="E274" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="F274" s="98" t="s">
-        <v>780</v>
-      </c>
-      <c r="G274" s="17" t="s">
-        <v>780</v>
-      </c>
-      <c r="H274" s="17" t="s">
-        <v>746</v>
-      </c>
-      <c r="I274" s="101" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="275" spans="1:9">
-      <c r="A275" s="82" t="s">
-        <v>48</v>
-      </c>
-      <c r="B275" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C275" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="D275" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="E275" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="F275" s="82" t="s">
-        <v>49</v>
-      </c>
-      <c r="G275" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="H275" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="I275" s="56" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9">
-      <c r="A276" s="82" t="s">
-        <v>191</v>
-      </c>
-      <c r="B276" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C276" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="D276" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="E276" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="F276" s="82" t="s">
-        <v>21</v>
-      </c>
-      <c r="G276" s="17" t="s">
-        <v>788</v>
-      </c>
-      <c r="H276" s="17" t="s">
-        <v>788</v>
-      </c>
-      <c r="I276" s="56" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="277" spans="1:9" ht="16.5">
-      <c r="A277" s="82" t="s">
-        <v>77</v>
-      </c>
-      <c r="B277" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C277" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D277" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="E277" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="F277" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="G277" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="H277" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="I277" s="56" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="278" spans="1:9">
-      <c r="A278" s="82" t="s">
-        <v>196</v>
-      </c>
-      <c r="B278" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C278" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D278" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="E278" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="F278" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="G278" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="H278" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="I278" s="56" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="279" spans="1:9">
-      <c r="A279" s="82" t="s">
-        <v>75</v>
-      </c>
-      <c r="B279" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C279" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D279" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="E279" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="F279" s="82" t="s">
-        <v>22</v>
       </c>
       <c r="G279" s="6" t="s">
         <v>221</v>
@@ -9944,27 +9681,27 @@
         <v>221</v>
       </c>
     </row>
-    <row r="280" spans="1:9">
+    <row r="280" spans="1:14">
       <c r="A280" s="82" t="s">
-        <v>186</v>
-      </c>
-      <c r="B280" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B280" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C280" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="C280" s="6" t="s">
+      <c r="D280" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="D280" s="6" t="s">
+      <c r="E280" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="E280" s="6" t="s">
-        <v>221</v>
-      </c>
       <c r="F280" s="82" t="s">
-        <v>13</v>
-      </c>
-      <c r="G280" s="6" t="s">
-        <v>221</v>
+        <v>115</v>
+      </c>
+      <c r="G280" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="H280" s="6" t="s">
         <v>221</v>
@@ -9973,47 +9710,47 @@
         <v>221</v>
       </c>
     </row>
-    <row r="281" spans="1:9">
+    <row r="281" spans="1:14">
       <c r="A281" s="82" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>8</v>
+        <v>183</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D281" s="6" t="s">
-        <v>221</v>
+        <v>183</v>
+      </c>
+      <c r="D281" s="4" t="s">
+        <v>183</v>
       </c>
       <c r="E281" s="6" t="s">
         <v>221</v>
       </c>
       <c r="F281" s="82" t="s">
-        <v>8</v>
-      </c>
-      <c r="G281" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H281" s="7" t="s">
-        <v>10</v>
+        <v>183</v>
+      </c>
+      <c r="G281" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H281" s="4" t="s">
+        <v>183</v>
       </c>
       <c r="I281" s="56" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="282" spans="1:9">
+    <row r="282" spans="1:14">
       <c r="A282" s="82" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C282" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="D282" s="6" t="s">
-        <v>221</v>
+        <v>19</v>
+      </c>
+      <c r="C282" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D282" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="E282" s="6" t="s">
         <v>221</v>
@@ -10031,70 +9768,70 @@
         <v>221</v>
       </c>
     </row>
-    <row r="283" spans="1:9">
+    <row r="283" spans="1:14">
       <c r="A283" s="82" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D283" s="6" t="s">
-        <v>221</v>
+        <v>113</v>
+      </c>
+      <c r="D283" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="E283" s="6" t="s">
         <v>221</v>
       </c>
       <c r="F283" s="82" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="G283" s="4" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="H283" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I283" s="89" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9">
+        <v>10</v>
+      </c>
+      <c r="I283" s="56" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="284" spans="1:14">
       <c r="A284" s="82" t="s">
-        <v>197</v>
-      </c>
-      <c r="B284" s="17" t="s">
-        <v>778</v>
-      </c>
-      <c r="C284" s="17" t="s">
-        <v>778</v>
-      </c>
-      <c r="D284" s="17" t="s">
-        <v>780</v>
-      </c>
-      <c r="E284" s="17" t="s">
-        <v>780</v>
-      </c>
-      <c r="F284" s="98" t="s">
-        <v>778</v>
-      </c>
-      <c r="G284" s="17" t="s">
-        <v>781</v>
-      </c>
-      <c r="H284" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B284" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C284" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D284" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E284" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="I284" s="56" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="285" spans="1:9">
+      <c r="F284" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="G284" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="H284" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I284" s="88" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14">
       <c r="A285" s="82" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C285" s="6" t="s">
         <v>221</v>
@@ -10106,10 +9843,10 @@
         <v>221</v>
       </c>
       <c r="F285" s="82" t="s">
-        <v>45</v>
-      </c>
-      <c r="G285" s="6" t="s">
-        <v>221</v>
+        <v>113</v>
+      </c>
+      <c r="G285" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="H285" s="6" t="s">
         <v>221</v>
@@ -10118,41 +9855,50 @@
         <v>221</v>
       </c>
     </row>
-    <row r="286" spans="1:9">
+    <row r="286" spans="1:14">
       <c r="A286" s="82" t="s">
-        <v>222</v>
-      </c>
-      <c r="B286" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C286" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D286" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="B286" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C286" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D286" s="6" t="s">
+        <v>221</v>
       </c>
       <c r="E286" s="6" t="s">
         <v>221</v>
       </c>
       <c r="F286" s="82" t="s">
-        <v>115</v>
-      </c>
-      <c r="G286" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="H286" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I286" s="89" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9" ht="16.5">
+        <v>113</v>
+      </c>
+      <c r="G286" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="H286" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="I286" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="K286" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="L286">
+        <v>2</v>
+      </c>
+      <c r="N286">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="287" spans="1:14">
       <c r="A287" s="82" t="s">
-        <v>64</v>
-      </c>
-      <c r="B287" s="6" t="s">
-        <v>221</v>
+        <v>25</v>
+      </c>
+      <c r="B287" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="C287" s="6" t="s">
         <v>221</v>
@@ -10164,520 +9910,1298 @@
         <v>221</v>
       </c>
       <c r="F287" s="82" t="s">
+        <v>26</v>
+      </c>
+      <c r="G287" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H287" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I287" s="88" t="s">
+        <v>26</v>
+      </c>
+      <c r="K287" t="s">
+        <v>10</v>
+      </c>
+      <c r="L287">
+        <v>4</v>
+      </c>
+      <c r="N287">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:14">
+      <c r="A288" s="82" t="s">
+        <v>195</v>
+      </c>
+      <c r="B288" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C288" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D288" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E288" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="F288" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="G288" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="H288" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="I288" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="K288" t="s">
+        <v>39</v>
+      </c>
+      <c r="L288">
+        <v>1</v>
+      </c>
+      <c r="N288">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="289" spans="1:14">
+      <c r="A289" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="B289" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C289" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D289" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="E289" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="F289" s="82" t="s">
+        <v>730</v>
+      </c>
+      <c r="G289" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H289" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I289" s="88" t="s">
+        <v>201</v>
+      </c>
+      <c r="K289" t="s">
+        <v>5</v>
+      </c>
+      <c r="L289">
+        <v>10</v>
+      </c>
+      <c r="N289">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="290" spans="1:14">
+      <c r="A290" s="82" t="s">
+        <v>66</v>
+      </c>
+      <c r="B290" s="17" t="s">
+        <v>778</v>
+      </c>
+      <c r="C290" s="17" t="s">
+        <v>778</v>
+      </c>
+      <c r="D290" s="17" t="s">
+        <v>778</v>
+      </c>
+      <c r="E290" s="17" t="s">
+        <v>778</v>
+      </c>
+      <c r="F290" s="99" t="s">
+        <v>778</v>
+      </c>
+      <c r="G290" s="17" t="s">
+        <v>778</v>
+      </c>
+      <c r="H290" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="I290" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="K290" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="L290">
+        <v>6</v>
+      </c>
+      <c r="N290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:14">
+      <c r="A291" s="82" t="s">
+        <v>72</v>
+      </c>
+      <c r="B291" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C291" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D291" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E291" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="F291" s="99" t="s">
+        <v>778</v>
+      </c>
+      <c r="G291" s="17" t="s">
+        <v>778</v>
+      </c>
+      <c r="H291" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="I291" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="K291" t="s">
+        <v>113</v>
+      </c>
+      <c r="L291">
+        <v>7</v>
+      </c>
+      <c r="N291">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="292" spans="1:14">
+      <c r="A292" s="82" t="s">
+        <v>200</v>
+      </c>
+      <c r="B292" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C292" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D292" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E292" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F292" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="G292" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H292" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="I292" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="L292">
+        <f>SUM(L286:L291)</f>
+        <v>30</v>
+      </c>
+      <c r="N292">
+        <f>SUM(N286:N291)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="293" spans="1:14">
+      <c r="A293" s="82" t="s">
+        <v>9</v>
+      </c>
+      <c r="B293" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C293" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D293" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E293" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F293" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="G293" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H293" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I293" s="56" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="294" spans="1:14">
+      <c r="A294" s="82" t="s">
+        <v>14</v>
+      </c>
+      <c r="B294" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C294" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D294" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E294" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="F294" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="G294" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H294" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I294" s="88" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="295" spans="1:14">
+      <c r="A295" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="B295" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C295" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D295" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E295" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="F295" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="G295" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H295" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="I295" s="56" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="296" spans="1:14">
+      <c r="A296" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="B296" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C296" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D296" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E296" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="F296" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="G296" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H296" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="I296" s="56" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="297" spans="1:14">
+      <c r="A297" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="B297" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C297" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D297" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="E297" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="F297" s="82" t="s">
+        <v>45</v>
+      </c>
+      <c r="G297" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="H297" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="I297" s="56" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="298" spans="1:14">
+      <c r="A298" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="B298" s="17" t="s">
+        <v>726</v>
+      </c>
+      <c r="C298" s="17" t="s">
+        <v>726</v>
+      </c>
+      <c r="D298" s="17" t="s">
+        <v>780</v>
+      </c>
+      <c r="E298" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="F298" s="97" t="s">
+        <v>780</v>
+      </c>
+      <c r="G298" s="17" t="s">
+        <v>746</v>
+      </c>
+      <c r="H298" s="17" t="s">
+        <v>746</v>
+      </c>
+      <c r="I298" s="56" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="299" spans="1:14">
+      <c r="A299" s="82" t="s">
+        <v>58</v>
+      </c>
+      <c r="B299" s="17" t="s">
+        <v>722</v>
+      </c>
+      <c r="C299" s="17" t="s">
+        <v>722</v>
+      </c>
+      <c r="D299" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E299" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="F299" s="97" t="s">
+        <v>780</v>
+      </c>
+      <c r="G299" s="17" t="s">
+        <v>780</v>
+      </c>
+      <c r="H299" s="17" t="s">
+        <v>746</v>
+      </c>
+      <c r="I299" s="100" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="300" spans="1:14">
+      <c r="A300" s="82" t="s">
+        <v>48</v>
+      </c>
+      <c r="B300" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C300" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D300" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E300" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="F300" s="82" t="s">
+        <v>49</v>
+      </c>
+      <c r="G300" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="H300" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="I300" s="56" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="301" spans="1:14">
+      <c r="A301" s="82" t="s">
+        <v>191</v>
+      </c>
+      <c r="B301" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C301" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D301" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E301" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="F301" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="G301" s="17" t="s">
+        <v>788</v>
+      </c>
+      <c r="H301" s="17" t="s">
+        <v>788</v>
+      </c>
+      <c r="I301" s="56" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="302" spans="1:14" ht="16.5">
+      <c r="A302" s="82" t="s">
+        <v>77</v>
+      </c>
+      <c r="B302" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C302" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D302" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E302" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F302" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="G302" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H302" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I302" s="56" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="303" spans="1:14">
+      <c r="A303" s="82" t="s">
+        <v>196</v>
+      </c>
+      <c r="B303" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C303" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D303" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E303" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="F303" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="G303" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="H303" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="I303" s="56" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="304" spans="1:14">
+      <c r="A304" s="82" t="s">
+        <v>75</v>
+      </c>
+      <c r="B304" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C304" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D304" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E304" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="F304" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="G304" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="H304" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="I304" s="56" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9">
+      <c r="A305" s="82" t="s">
+        <v>186</v>
+      </c>
+      <c r="B305" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C305" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D305" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E305" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="F305" s="82" t="s">
+        <v>13</v>
+      </c>
+      <c r="G305" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="H305" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="I305" s="56" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9">
+      <c r="A306" s="82" t="s">
+        <v>7</v>
+      </c>
+      <c r="B306" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C306" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D306" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E306" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="F306" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="G306" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H306" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I306" s="56" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9">
+      <c r="A307" s="82" t="s">
+        <v>2</v>
+      </c>
+      <c r="B307" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C307" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D307" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E307" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="F307" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="G307" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="H307" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="I307" s="56" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9">
+      <c r="A308" s="82" t="s">
+        <v>194</v>
+      </c>
+      <c r="B308" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C308" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D308" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E308" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="F308" s="82" t="s">
+        <v>13</v>
+      </c>
+      <c r="G308" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H308" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I308" s="88" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9">
+      <c r="A309" s="82" t="s">
+        <v>197</v>
+      </c>
+      <c r="B309" s="17" t="s">
+        <v>778</v>
+      </c>
+      <c r="C309" s="17" t="s">
+        <v>778</v>
+      </c>
+      <c r="D309" s="17" t="s">
+        <v>780</v>
+      </c>
+      <c r="E309" s="17" t="s">
+        <v>780</v>
+      </c>
+      <c r="F309" s="97" t="s">
+        <v>778</v>
+      </c>
+      <c r="G309" s="17" t="s">
+        <v>781</v>
+      </c>
+      <c r="H309" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="I309" s="56" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9">
+      <c r="A310" s="82" t="s">
+        <v>76</v>
+      </c>
+      <c r="B310" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C310" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D310" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E310" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="F310" s="82" t="s">
+        <v>45</v>
+      </c>
+      <c r="G310" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="H310" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="I310" s="56" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9">
+      <c r="A311" s="82" t="s">
+        <v>222</v>
+      </c>
+      <c r="B311" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C311" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D311" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E311" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="F311" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="G311" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="H311" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I311" s="88" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" ht="16.5">
+      <c r="A312" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="B312" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C312" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D312" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E312" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="F312" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="G287" s="4" t="s">
+      <c r="G312" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="H287" s="12" t="s">
+      <c r="H312" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="I287" s="89" t="s">
+      <c r="I312" s="88" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="288" spans="1:9">
-      <c r="A288" s="87" t="s">
+    <row r="313" spans="1:9">
+      <c r="A313" s="86" t="s">
         <v>80</v>
       </c>
-      <c r="B288" s="99" t="s">
+      <c r="B313" s="98" t="s">
         <v>742</v>
       </c>
-      <c r="C288" s="99" t="s">
+      <c r="C313" s="98" t="s">
         <v>722</v>
       </c>
-      <c r="D288" s="15" t="s">
+      <c r="D313" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="E288" s="15" t="s">
+      <c r="E313" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="F288" s="14" t="s">
+      <c r="F313" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="G288" s="15" t="s">
+      <c r="G313" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="H288" s="15" t="s">
+      <c r="H313" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="I288" s="94" t="s">
+      <c r="I313" s="93" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="290" spans="1:8">
-      <c r="A290" t="s">
+    <row r="315" spans="1:9">
+      <c r="A315" t="s">
         <v>720</v>
       </c>
-      <c r="B290" t="s">
+      <c r="B315" t="s">
         <v>798</v>
       </c>
-      <c r="G290" t="s">
+      <c r="G315" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="291" spans="1:8">
-      <c r="B291" t="s">
+    <row r="316" spans="1:9">
+      <c r="B316" t="s">
         <v>751</v>
       </c>
-      <c r="C291" t="s">
+      <c r="C316" t="s">
         <v>752</v>
       </c>
-      <c r="D291" s="102" t="s">
+      <c r="D316" s="101" t="s">
         <v>753</v>
       </c>
-      <c r="E291" s="102" t="s">
+      <c r="E316" s="101" t="s">
         <v>720</v>
       </c>
-      <c r="G291" t="s">
+      <c r="G316" t="s">
         <v>722</v>
       </c>
-      <c r="H291" t="s">
+      <c r="H316" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="292" spans="1:8">
-      <c r="A292" t="s">
+    <row r="317" spans="1:9">
+      <c r="A317" t="s">
         <v>782</v>
       </c>
-      <c r="B292">
+      <c r="B317">
         <v>3</v>
       </c>
-      <c r="C292">
+      <c r="C317">
         <v>2</v>
       </c>
-      <c r="D292">
+      <c r="D317">
         <v>1</v>
       </c>
-      <c r="E292">
+      <c r="E317">
         <v>4.5</v>
       </c>
-      <c r="G292" t="s">
+      <c r="G317" t="s">
         <v>726</v>
       </c>
-      <c r="H292" t="s">
+      <c r="H317" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="293" spans="1:8">
-      <c r="A293" t="s">
+    <row r="318" spans="1:9">
+      <c r="A318" t="s">
         <v>737</v>
       </c>
-      <c r="B293">
+      <c r="B318">
         <v>2</v>
       </c>
-      <c r="C293">
+      <c r="C318">
         <v>2</v>
       </c>
-      <c r="D293">
+      <c r="D318">
         <v>0</v>
       </c>
-      <c r="E293">
+      <c r="E318">
         <v>0</v>
       </c>
-      <c r="G293" t="s">
+      <c r="G318" t="s">
         <v>742</v>
       </c>
-      <c r="H293" t="s">
+      <c r="H318" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="294" spans="1:8">
-      <c r="A294" t="s">
+    <row r="319" spans="1:9">
+      <c r="A319" t="s">
         <v>730</v>
       </c>
-      <c r="B294">
+      <c r="B319">
         <v>15</v>
       </c>
-      <c r="C294">
+      <c r="C319">
         <v>11</v>
       </c>
-      <c r="D294">
+      <c r="D319">
         <v>3</v>
       </c>
-      <c r="E294">
+      <c r="E319">
         <v>13.5</v>
       </c>
-      <c r="G294" t="s">
+      <c r="G319" t="s">
         <v>785</v>
       </c>
-      <c r="H294" t="s">
+      <c r="H319" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="295" spans="1:8">
-      <c r="A295" t="s">
+    <row r="320" spans="1:9">
+      <c r="A320" t="s">
         <v>725</v>
       </c>
-      <c r="B295">
+      <c r="B320">
         <v>7</v>
       </c>
-      <c r="C295">
+      <c r="C320">
         <v>0</v>
       </c>
-      <c r="D295">
+      <c r="D320">
         <v>7</v>
       </c>
-      <c r="E295">
+      <c r="E320">
         <v>31.5</v>
       </c>
-      <c r="G295" t="s">
+      <c r="G320" t="s">
         <v>741</v>
       </c>
-      <c r="H295" t="s">
+      <c r="H320" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="296" spans="1:8">
-      <c r="A296" t="s">
+    <row r="321" spans="1:8">
+      <c r="A321" t="s">
         <v>726</v>
       </c>
-      <c r="B296">
+      <c r="B321">
         <v>4</v>
       </c>
-      <c r="C296">
+      <c r="C321">
         <v>4</v>
       </c>
-      <c r="D296">
+      <c r="D321">
         <v>0</v>
       </c>
-      <c r="E296">
+      <c r="E321">
         <v>0</v>
       </c>
-      <c r="G296" t="s">
+      <c r="G321" t="s">
         <v>794</v>
       </c>
-      <c r="H296" t="s">
+      <c r="H321" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="297" spans="1:8">
-      <c r="A297" t="s">
+    <row r="322" spans="1:8">
+      <c r="A322" t="s">
         <v>722</v>
       </c>
-      <c r="B297">
+      <c r="B322">
         <v>10</v>
       </c>
-      <c r="C297">
+      <c r="C322">
         <v>4</v>
       </c>
-      <c r="D297">
+      <c r="D322">
         <v>6</v>
       </c>
-      <c r="E297">
+      <c r="E322">
         <v>27</v>
       </c>
-      <c r="G297" t="s">
+      <c r="G322" t="s">
         <v>740</v>
       </c>
-      <c r="H297" t="s">
+      <c r="H322" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="298" spans="1:8">
-      <c r="A298" t="s">
+    <row r="323" spans="1:8">
+      <c r="A323" t="s">
         <v>780</v>
       </c>
-      <c r="B298">
+      <c r="B323">
         <v>14</v>
       </c>
-      <c r="C298">
+      <c r="C323">
         <v>12</v>
       </c>
-      <c r="D298">
+      <c r="D323">
         <v>2</v>
       </c>
-      <c r="E298">
+      <c r="E323">
         <v>9</v>
       </c>
-      <c r="G298" t="s">
+      <c r="G323" t="s">
         <v>739</v>
       </c>
-      <c r="H298" t="s">
+      <c r="H323" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="299" spans="1:8">
-      <c r="A299" t="s">
+    <row r="324" spans="1:8">
+      <c r="A324" t="s">
         <v>742</v>
       </c>
-      <c r="B299">
+      <c r="B324">
         <v>2</v>
       </c>
-      <c r="C299">
+      <c r="C324">
         <v>4</v>
       </c>
-      <c r="D299">
+      <c r="D324">
         <v>-2</v>
       </c>
-      <c r="E299">
+      <c r="E324">
         <v>-9</v>
       </c>
-      <c r="G299" t="s">
+      <c r="G324" t="s">
         <v>725</v>
       </c>
-      <c r="H299" t="s">
+      <c r="H324" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="300" spans="1:8">
-      <c r="A300" t="s">
+    <row r="325" spans="1:8">
+      <c r="A325" t="s">
         <v>783</v>
       </c>
-      <c r="B300">
+      <c r="B325">
         <v>7</v>
       </c>
-      <c r="C300">
+      <c r="C325">
         <v>8</v>
       </c>
-      <c r="D300">
+      <c r="D325">
         <v>-1</v>
       </c>
-      <c r="E300">
+      <c r="E325">
         <v>-4.5</v>
       </c>
     </row>
-    <row r="301" spans="1:8">
-      <c r="A301" t="s">
+    <row r="326" spans="1:8">
+      <c r="A326" t="s">
         <v>740</v>
       </c>
-      <c r="B301">
+      <c r="B326">
         <v>4</v>
       </c>
-      <c r="C301">
+      <c r="C326">
         <v>0</v>
       </c>
-      <c r="D301">
+      <c r="D326">
         <v>4</v>
       </c>
-      <c r="E301">
+      <c r="E326">
         <v>18</v>
       </c>
     </row>
-    <row r="302" spans="1:8">
-      <c r="A302" t="s">
+    <row r="327" spans="1:8">
+      <c r="A327" t="s">
         <v>784</v>
       </c>
-      <c r="B302">
-        <v>13</v>
-      </c>
-      <c r="C302">
+      <c r="B327">
+        <v>13</v>
+      </c>
+      <c r="C327">
         <v>8</v>
       </c>
-      <c r="D302">
-        <v>5</v>
-      </c>
-      <c r="E302">
+      <c r="D327">
+        <v>5</v>
+      </c>
+      <c r="E327">
         <v>22.5</v>
       </c>
     </row>
-    <row r="303" spans="1:8">
-      <c r="A303" t="s">
+    <row r="328" spans="1:8">
+      <c r="A328" t="s">
         <v>746</v>
       </c>
-      <c r="B303">
+      <c r="B328">
         <v>12</v>
       </c>
-      <c r="C303">
+      <c r="C328">
         <v>4</v>
       </c>
-      <c r="D303">
+      <c r="D328">
         <v>8</v>
       </c>
-      <c r="E303">
+      <c r="E328">
         <v>36</v>
       </c>
     </row>
-    <row r="304" spans="1:8">
-      <c r="A304" t="s">
+    <row r="329" spans="1:8">
+      <c r="A329" t="s">
         <v>785</v>
       </c>
-      <c r="B304">
+      <c r="B329">
         <v>2</v>
       </c>
-      <c r="C304">
+      <c r="C329">
         <v>2</v>
       </c>
-      <c r="D304">
+      <c r="D329">
         <v>0</v>
       </c>
-      <c r="E304">
+      <c r="E329">
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:5">
-      <c r="A305" t="s">
+    <row r="330" spans="1:8">
+      <c r="A330" t="s">
         <v>786</v>
       </c>
-      <c r="B305">
+      <c r="B330">
         <v>3</v>
       </c>
-      <c r="C305">
+      <c r="C330">
         <v>3</v>
       </c>
-      <c r="D305">
+      <c r="D330">
         <v>0</v>
       </c>
-      <c r="E305">
+      <c r="E330">
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:5">
-      <c r="A306" t="s">
+    <row r="331" spans="1:8">
+      <c r="A331" t="s">
         <v>724</v>
       </c>
-      <c r="B306">
-        <v>5</v>
-      </c>
-      <c r="C306">
+      <c r="B331">
+        <v>5</v>
+      </c>
+      <c r="C331">
         <v>7</v>
       </c>
-      <c r="D306">
+      <c r="D331">
         <v>-2</v>
       </c>
-      <c r="E306">
+      <c r="E331">
         <v>-9</v>
       </c>
     </row>
-    <row r="307" spans="1:5">
-      <c r="A307" t="s">
+    <row r="332" spans="1:8">
+      <c r="A332" t="s">
         <v>749</v>
       </c>
-      <c r="B307">
+      <c r="B332">
         <v>2</v>
       </c>
-      <c r="C307">
+      <c r="C332">
         <v>4</v>
       </c>
-      <c r="D307">
+      <c r="D332">
         <v>-2</v>
       </c>
-      <c r="E307">
+      <c r="E332">
         <v>-9</v>
       </c>
     </row>
-    <row r="308" spans="1:5">
-      <c r="A308" t="s">
+    <row r="333" spans="1:8">
+      <c r="A333" t="s">
         <v>739</v>
       </c>
-      <c r="B308">
+      <c r="B333">
         <v>6</v>
       </c>
-      <c r="C308">
+      <c r="C333">
         <v>0</v>
       </c>
-      <c r="D308">
+      <c r="D333">
         <v>6</v>
       </c>
-      <c r="E308">
+      <c r="E333">
         <v>27</v>
       </c>
     </row>
-    <row r="309" spans="1:5">
-      <c r="A309" t="s">
+    <row r="334" spans="1:8">
+      <c r="A334" t="s">
         <v>787</v>
       </c>
-      <c r="B309">
+      <c r="B334">
         <v>7</v>
       </c>
-      <c r="C309">
+      <c r="C334">
         <v>8</v>
       </c>
-      <c r="D309">
+      <c r="D334">
         <v>-1</v>
       </c>
-      <c r="E309">
+      <c r="E334">
         <v>-4.5</v>
       </c>
     </row>
-    <row r="310" spans="1:5">
-      <c r="A310" t="s">
+    <row r="335" spans="1:8">
+      <c r="A335" t="s">
         <v>723</v>
       </c>
-      <c r="B310">
+      <c r="B335">
         <v>7</v>
       </c>
-      <c r="C310">
+      <c r="C335">
         <v>10</v>
       </c>
-      <c r="D310">
+      <c r="D335">
         <v>-3</v>
       </c>
-      <c r="E310">
+      <c r="E335">
         <v>-13.5</v>
       </c>
     </row>
-    <row r="311" spans="1:5">
-      <c r="A311" t="s">
+    <row r="336" spans="1:8">
+      <c r="A336" t="s">
         <v>721</v>
       </c>
-      <c r="B311">
+      <c r="B336">
         <v>4</v>
       </c>
-      <c r="C311">
+      <c r="C336">
         <v>4</v>
       </c>
-      <c r="D311">
+      <c r="D336">
         <v>0</v>
       </c>
-      <c r="E311">
+      <c r="E336">
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:5">
-      <c r="A312" t="s">
+    <row r="337" spans="1:5">
+      <c r="A337" t="s">
         <v>728</v>
       </c>
-      <c r="B312">
+      <c r="B337">
         <v>1</v>
       </c>
-      <c r="C312">
+      <c r="C337">
         <v>4</v>
       </c>
-      <c r="D312">
+      <c r="D337">
         <v>-3</v>
       </c>
-      <c r="E312">
+      <c r="E337">
         <v>-13.5</v>
       </c>
     </row>
-    <row r="313" spans="1:5">
-      <c r="A313" t="s">
+    <row r="338" spans="1:5">
+      <c r="A338" t="s">
         <v>748</v>
       </c>
-      <c r="B313">
+      <c r="B338">
         <v>4</v>
       </c>
-      <c r="C313">
+      <c r="C338">
         <v>4</v>
       </c>
-      <c r="D313">
+      <c r="D338">
         <v>0</v>
       </c>
-      <c r="E313">
+      <c r="E338">
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:5">
-      <c r="A314" t="s">
+    <row r="339" spans="1:5">
+      <c r="A339" t="s">
         <v>745</v>
       </c>
-      <c r="B314">
+      <c r="B339">
         <v>0</v>
       </c>
-      <c r="C314">
+      <c r="C339">
         <v>2</v>
       </c>
-      <c r="D314">
+      <c r="D339">
         <v>-2</v>
       </c>
-      <c r="E314">
+      <c r="E339">
         <v>-9</v>
       </c>
     </row>
-    <row r="315" spans="1:5">
-      <c r="B315">
-        <f>SUM(B292:B314)</f>
+    <row r="340" spans="1:5">
+      <c r="B340">
+        <f>SUM(B317:B339)</f>
         <v>134</v>
       </c>
     </row>
@@ -13679,13 +14203,13 @@
       <c r="G158" t="s">
         <v>432</v>
       </c>
-      <c r="H158" s="107" t="s">
+      <c r="H158" s="106" t="s">
         <v>634</v>
       </c>
-      <c r="I158" s="107"/>
-      <c r="J158" s="107"/>
-      <c r="K158" s="107"/>
-      <c r="L158" s="107"/>
+      <c r="I158" s="106"/>
+      <c r="J158" s="106"/>
+      <c r="K158" s="106"/>
+      <c r="L158" s="106"/>
     </row>
     <row r="159" spans="1:12">
       <c r="B159" t="s">
@@ -13694,11 +14218,11 @@
       <c r="G159" t="s">
         <v>432</v>
       </c>
-      <c r="H159" s="107"/>
-      <c r="I159" s="107"/>
-      <c r="J159" s="107"/>
-      <c r="K159" s="107"/>
-      <c r="L159" s="107"/>
+      <c r="H159" s="106"/>
+      <c r="I159" s="106"/>
+      <c r="J159" s="106"/>
+      <c r="K159" s="106"/>
+      <c r="L159" s="106"/>
     </row>
     <row r="160" spans="1:12">
       <c r="B160" t="s">
@@ -15047,10 +15571,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:O22"/>
+  <dimension ref="A4:O47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.23046875" defaultRowHeight="15.5"/>
@@ -15524,6 +16048,470 @@
       <c r="G22" t="s">
         <v>669</v>
       </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="107" t="s">
+        <v>808</v>
+      </c>
+      <c r="B25" s="108"/>
+      <c r="C25" s="108"/>
+      <c r="D25" s="108"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="108"/>
+      <c r="H25" s="108"/>
+      <c r="I25" s="108"/>
+      <c r="J25" s="108"/>
+      <c r="K25" s="109"/>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="110" t="s">
+        <v>809</v>
+      </c>
+      <c r="K26" s="111"/>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="110" t="s">
+        <v>125</v>
+      </c>
+      <c r="G27" t="s">
+        <v>89</v>
+      </c>
+      <c r="H27" t="s">
+        <v>281</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="J27" t="s">
+        <v>307</v>
+      </c>
+      <c r="K27" s="111" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="110" t="s">
+        <v>140</v>
+      </c>
+      <c r="B28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" t="s">
+        <v>185</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28" t="s">
+        <v>10</v>
+      </c>
+      <c r="K28" s="111"/>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="110"/>
+      <c r="B29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" t="s">
+        <v>136</v>
+      </c>
+      <c r="G29" t="s">
+        <v>98</v>
+      </c>
+      <c r="H29" t="s">
+        <v>222</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29" t="s">
+        <v>553</v>
+      </c>
+      <c r="K29" s="111" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="110" t="s">
+        <v>134</v>
+      </c>
+      <c r="B30" t="s">
+        <v>195</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>137</v>
+      </c>
+      <c r="H30" t="s">
+        <v>286</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30" s="81" t="s">
+        <v>810</v>
+      </c>
+      <c r="K30" s="111"/>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="110" t="s">
+        <v>116</v>
+      </c>
+      <c r="B31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" s="81" t="s">
+        <v>811</v>
+      </c>
+      <c r="G31" t="s">
+        <v>270</v>
+      </c>
+      <c r="H31" t="s">
+        <v>58</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31" s="33"/>
+      <c r="K31" s="111"/>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="110"/>
+      <c r="B32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>137</v>
+      </c>
+      <c r="H32" t="s">
+        <v>61</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32" s="33"/>
+      <c r="K32" s="111"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="110" t="s">
+        <v>130</v>
+      </c>
+      <c r="B33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" s="33"/>
+      <c r="G33" t="s">
+        <v>111</v>
+      </c>
+      <c r="K33" s="111"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="110" t="s">
+        <v>536</v>
+      </c>
+      <c r="B34" t="s">
+        <v>289</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" t="s">
+        <v>107</v>
+      </c>
+      <c r="H34" t="s">
+        <v>75</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34" s="33"/>
+      <c r="K34" s="111"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="110"/>
+      <c r="H35" t="s">
+        <v>196</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35" t="s">
+        <v>22</v>
+      </c>
+      <c r="K35" s="111"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="110"/>
+      <c r="K36" s="111"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="110" t="s">
+        <v>812</v>
+      </c>
+      <c r="K37" s="111"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="110" t="s">
+        <v>125</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>124</v>
+      </c>
+      <c r="G38" t="s">
+        <v>89</v>
+      </c>
+      <c r="H38" t="s">
+        <v>281</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38" t="s">
+        <v>307</v>
+      </c>
+      <c r="K38" s="111"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="110"/>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" s="81" t="s">
+        <v>811</v>
+      </c>
+      <c r="G39" t="s">
+        <v>98</v>
+      </c>
+      <c r="H39" t="s">
+        <v>286</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39" s="17" t="s">
+        <v>813</v>
+      </c>
+      <c r="K39" s="111"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="110" t="s">
+        <v>140</v>
+      </c>
+      <c r="B40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>256</v>
+      </c>
+      <c r="H40" t="s">
+        <v>222</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40" t="s">
+        <v>553</v>
+      </c>
+      <c r="K40" s="111"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="110"/>
+      <c r="B41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>79</v>
+      </c>
+      <c r="H41" t="s">
+        <v>206</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
+      <c r="J41" t="s">
+        <v>212</v>
+      </c>
+      <c r="K41" s="111" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="110" t="s">
+        <v>134</v>
+      </c>
+      <c r="B42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>201</v>
+      </c>
+      <c r="H42" t="s">
+        <v>64</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42" t="s">
+        <v>65</v>
+      </c>
+      <c r="K42" s="111"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="110"/>
+      <c r="B43" t="s">
+        <v>195</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>137</v>
+      </c>
+      <c r="G43" t="s">
+        <v>270</v>
+      </c>
+      <c r="K43" s="111"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="110" t="s">
+        <v>116</v>
+      </c>
+      <c r="B44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>814</v>
+      </c>
+      <c r="G44" t="s">
+        <v>111</v>
+      </c>
+      <c r="H44" t="s">
+        <v>44</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44" t="s">
+        <v>431</v>
+      </c>
+      <c r="K44" s="111"/>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="110" t="s">
+        <v>130</v>
+      </c>
+      <c r="B45" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>67</v>
+      </c>
+      <c r="G45" t="s">
+        <v>107</v>
+      </c>
+      <c r="H45" t="s">
+        <v>196</v>
+      </c>
+      <c r="I45">
+        <v>2</v>
+      </c>
+      <c r="J45" t="s">
+        <v>22</v>
+      </c>
+      <c r="K45" s="111" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="110"/>
+      <c r="B46" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s">
+        <v>67</v>
+      </c>
+      <c r="E46" s="33"/>
+      <c r="H46" t="s">
+        <v>77</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46" s="33"/>
+      <c r="K46" s="111"/>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="112"/>
+      <c r="B47" s="113"/>
+      <c r="C47" s="113"/>
+      <c r="D47" s="113"/>
+      <c r="E47" s="113"/>
+      <c r="F47" s="113"/>
+      <c r="G47" s="113"/>
+      <c r="H47" s="113"/>
+      <c r="I47" s="113"/>
+      <c r="J47" s="113"/>
+      <c r="K47" s="114"/>
     </row>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
@@ -16773,7 +17761,7 @@
       </c>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="97" t="s">
+      <c r="A42" s="96" t="s">
         <v>772</v>
       </c>
       <c r="B42">
@@ -16794,7 +17782,7 @@
       </c>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="97" t="s">
+      <c r="A43" s="96" t="s">
         <v>723</v>
       </c>
       <c r="B43" s="7">
@@ -16840,7 +17828,7 @@
       </c>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="97" t="s">
+      <c r="A45" s="96" t="s">
         <v>771</v>
       </c>
       <c r="B45" s="7">
@@ -16884,7 +17872,7 @@
       </c>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="97" t="s">
+      <c r="A47" s="96" t="s">
         <v>773</v>
       </c>
       <c r="B47" s="7">
@@ -16964,7 +17952,7 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="97" t="s">
+      <c r="A51" s="96" t="s">
         <v>774</v>
       </c>
       <c r="B51" s="7">
@@ -17122,7 +18110,7 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="97" t="s">
+      <c r="A59" s="96" t="s">
         <v>776</v>
       </c>
       <c r="B59" s="7">
@@ -17144,7 +18132,7 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="97" t="s">
+      <c r="A60" s="96" t="s">
         <v>777</v>
       </c>
       <c r="B60" s="7">
@@ -17182,7 +18170,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="97" t="s">
+      <c r="A62" s="96" t="s">
         <v>775</v>
       </c>
       <c r="B62" s="7">
@@ -21387,7 +22375,7 @@
       <c r="K28" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="L28" s="105" t="s">
+      <c r="L28" s="104" t="s">
         <v>257</v>
       </c>
       <c r="M28" s="30">
@@ -21418,7 +22406,7 @@
       <c r="K29" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="L29" s="105"/>
+      <c r="L29" s="104"/>
       <c r="M29" s="30">
         <v>10</v>
       </c>
@@ -21451,7 +22439,7 @@
       <c r="K30" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="L30" s="105"/>
+      <c r="L30" s="104"/>
       <c r="M30" s="30">
         <v>10</v>
       </c>
@@ -21480,7 +22468,7 @@
       <c r="K31" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="L31" s="105"/>
+      <c r="L31" s="104"/>
       <c r="M31" s="30">
         <v>10</v>
       </c>
@@ -21515,7 +22503,7 @@
       <c r="K32" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="L32" s="105"/>
+      <c r="L32" s="104"/>
       <c r="M32" s="30">
         <v>10</v>
       </c>
@@ -21547,7 +22535,7 @@
       <c r="K33" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="L33" s="105"/>
+      <c r="L33" s="104"/>
       <c r="M33" s="30">
         <v>10</v>
       </c>
@@ -21578,7 +22566,7 @@
       <c r="K34" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="L34" s="105"/>
+      <c r="L34" s="104"/>
       <c r="M34" s="30">
         <v>10</v>
       </c>
@@ -21616,7 +22604,7 @@
       <c r="K35" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="L35" s="105"/>
+      <c r="L35" s="104"/>
       <c r="M35" s="30">
         <v>10</v>
       </c>
@@ -21650,7 +22638,7 @@
       <c r="K36" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="L36" s="105"/>
+      <c r="L36" s="104"/>
       <c r="M36" s="30">
         <v>10</v>
       </c>
@@ -21681,7 +22669,7 @@
       <c r="K37" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="L37" s="106"/>
+      <c r="L37" s="105"/>
       <c r="M37" s="50">
         <v>10</v>
       </c>
@@ -24200,8 +25188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O279"/>
   <sheetViews>
-    <sheetView topLeftCell="A271" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G83" sqref="G83"/>
+    <sheetView topLeftCell="A151" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H101" sqref="H101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.23046875" defaultRowHeight="15.5"/>
@@ -25551,7 +26539,9 @@
       <c r="E70" s="17" t="s">
         <v>806</v>
       </c>
-      <c r="F70" s="33"/>
+      <c r="F70" s="17" t="s">
+        <v>807</v>
+      </c>
       <c r="H70">
         <v>3</v>
       </c>
@@ -26256,8 +27246,12 @@
       <c r="D101" t="s">
         <v>67</v>
       </c>
-      <c r="E101" s="33"/>
-      <c r="F101" s="33"/>
+      <c r="E101" s="17" t="s">
+        <v>807</v>
+      </c>
+      <c r="F101" s="17" t="s">
+        <v>807</v>
+      </c>
       <c r="H101">
         <v>2</v>
       </c>
@@ -27311,10 +28305,10 @@
       <c r="I167" t="s">
         <v>765</v>
       </c>
-      <c r="J167" s="96" t="s">
+      <c r="J167" s="95" t="s">
         <v>67</v>
       </c>
-      <c r="K167" s="96" t="s">
+      <c r="K167" s="95" t="s">
         <v>67</v>
       </c>
       <c r="L167" t="s">
@@ -27349,10 +28343,10 @@
       <c r="I168" t="s">
         <v>15</v>
       </c>
-      <c r="J168" s="96" t="s">
+      <c r="J168" s="95" t="s">
         <v>67</v>
       </c>
-      <c r="K168" s="96" t="s">
+      <c r="K168" s="95" t="s">
         <v>67</v>
       </c>
       <c r="L168" t="s">
@@ -27387,7 +28381,7 @@
       <c r="I169" t="s">
         <v>15</v>
       </c>
-      <c r="J169" s="96" t="s">
+      <c r="J169" s="95" t="s">
         <v>67</v>
       </c>
       <c r="K169" s="6" t="s">
@@ -27410,7 +28404,7 @@
       <c r="C170" t="s">
         <v>5</v>
       </c>
-      <c r="D170" s="96" t="s">
+      <c r="D170" s="95" t="s">
         <v>36</v>
       </c>
       <c r="E170" t="s">
@@ -27428,7 +28422,7 @@
       <c r="I170" t="s">
         <v>15</v>
       </c>
-      <c r="J170" s="96" t="s">
+      <c r="J170" s="95" t="s">
         <v>67</v>
       </c>
       <c r="L170" t="s">
@@ -27454,7 +28448,7 @@
       <c r="E171" t="s">
         <v>183</v>
       </c>
-      <c r="F171" s="96" t="s">
+      <c r="F171" s="95" t="s">
         <v>201</v>
       </c>
       <c r="G171" t="s">
@@ -27477,7 +28471,7 @@
       </c>
     </row>
     <row r="172" spans="1:15">
-      <c r="B172" s="96" t="s">
+      <c r="B172" s="95" t="s">
         <v>20</v>
       </c>
       <c r="C172" t="s">
@@ -27486,10 +28480,10 @@
       <c r="D172" t="s">
         <v>256</v>
       </c>
-      <c r="E172" s="96" t="s">
+      <c r="E172" s="95" t="s">
         <v>183</v>
       </c>
-      <c r="F172" s="96" t="s">
+      <c r="F172" s="95" t="s">
         <v>20</v>
       </c>
       <c r="G172" t="s">
@@ -27512,19 +28506,19 @@
       <c r="A173">
         <v>6</v>
       </c>
-      <c r="B173" s="96" t="s">
+      <c r="B173" s="95" t="s">
         <v>79</v>
       </c>
-      <c r="C173" s="96" t="s">
+      <c r="C173" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="D173" s="96" t="s">
+      <c r="D173" s="95" t="s">
         <v>256</v>
       </c>
-      <c r="E173" s="96" t="s">
+      <c r="E173" s="95" t="s">
         <v>183</v>
       </c>
-      <c r="F173" s="96" t="s">
+      <c r="F173" s="95" t="s">
         <v>20</v>
       </c>
       <c r="G173" t="s">
@@ -27539,7 +28533,7 @@
       <c r="L173" t="s">
         <v>183</v>
       </c>
-      <c r="M173" s="96" t="s">
+      <c r="M173" s="95" t="s">
         <v>216</v>
       </c>
     </row>
@@ -27562,7 +28556,7 @@
       <c r="G174" t="s">
         <v>6</v>
       </c>
-      <c r="H174" s="96" t="s">
+      <c r="H174" s="95" t="s">
         <v>46</v>
       </c>
       <c r="I174" t="s">
@@ -27571,7 +28565,7 @@
       <c r="L174" t="s">
         <v>53</v>
       </c>
-      <c r="M174" s="96" t="s">
+      <c r="M174" s="95" t="s">
         <v>216</v>
       </c>
     </row>
@@ -27585,13 +28579,13 @@
       <c r="G175" t="s">
         <v>208</v>
       </c>
-      <c r="H175" s="96" t="s">
+      <c r="H175" s="95" t="s">
         <v>46</v>
       </c>
       <c r="I175" t="s">
         <v>15</v>
       </c>
-      <c r="M175" s="96" t="s">
+      <c r="M175" s="95" t="s">
         <v>216</v>
       </c>
     </row>
@@ -27602,7 +28596,7 @@
       <c r="G176" t="s">
         <v>208</v>
       </c>
-      <c r="H176" s="96" t="s">
+      <c r="H176" s="95" t="s">
         <v>46</v>
       </c>
       <c r="I176" t="s">
@@ -27619,13 +28613,13 @@
       <c r="F177" t="s">
         <v>21</v>
       </c>
-      <c r="G177" s="96" t="s">
+      <c r="G177" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="H177" s="96" t="s">
+      <c r="H177" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="I177" s="96" t="s">
+      <c r="I177" s="95" t="s">
         <v>20</v>
       </c>
     </row>
@@ -27633,35 +28627,35 @@
       <c r="F178" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="G178" s="96" t="s">
+      <c r="G178" s="95" t="s">
         <v>15</v>
       </c>
       <c r="H178" t="s">
         <v>49</v>
       </c>
-      <c r="I178" s="96" t="s">
+      <c r="I178" s="95" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="179" spans="1:14">
-      <c r="G179" s="96" t="s">
+      <c r="G179" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="H179" s="96" t="s">
+      <c r="H179" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="I179" s="96" t="s">
+      <c r="I179" s="95" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="180" spans="1:14">
-      <c r="G180" s="96" t="s">
+      <c r="G180" s="95" t="s">
         <v>10</v>
       </c>
       <c r="H180" t="s">
         <v>20</v>
       </c>
-      <c r="I180" s="96" t="s">
+      <c r="I180" s="95" t="s">
         <v>21</v>
       </c>
     </row>
@@ -27669,18 +28663,18 @@
       <c r="A181">
         <v>14</v>
       </c>
-      <c r="G181" s="96" t="s">
+      <c r="G181" s="95" t="s">
         <v>19</v>
       </c>
       <c r="H181" t="s">
         <v>20</v>
       </c>
-      <c r="I181" s="96" t="s">
+      <c r="I181" s="95" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="182" spans="1:14">
-      <c r="G182" s="96" t="s">
+      <c r="G182" s="95" t="s">
         <v>19</v>
       </c>
       <c r="H182">
@@ -29138,7 +30132,7 @@
       <c r="C272" t="s">
         <v>303</v>
       </c>
-      <c r="D272" s="95"/>
+      <c r="D272" s="94"/>
       <c r="E272" t="s">
         <v>18</v>
       </c>
@@ -29208,9 +30202,9 @@
       <c r="A275" t="s">
         <v>58</v>
       </c>
-      <c r="B275" s="95"/>
-      <c r="C275" s="95"/>
-      <c r="D275" s="95"/>
+      <c r="B275" s="94"/>
+      <c r="C275" s="94"/>
+      <c r="D275" s="94"/>
       <c r="E275" t="s">
         <v>25</v>
       </c>
@@ -38041,7 +39035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T122"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
+    <sheetView topLeftCell="A88" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -40722,8 +41716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="K99" sqref="K99"/>
+    <sheetView topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.23046875" defaultRowHeight="15.5"/>
@@ -43048,13 +44042,13 @@
         <v>64</v>
       </c>
       <c r="L91" s="17" t="s">
-        <v>807</v>
+        <v>841</v>
       </c>
       <c r="M91" s="17" t="s">
-        <v>807</v>
+        <v>841</v>
       </c>
       <c r="N91" s="17" t="s">
-        <v>807</v>
+        <v>841</v>
       </c>
       <c r="Q91" s="81"/>
       <c r="R91" s="81"/>
@@ -43117,9 +44111,15 @@
       <c r="F93" t="s">
         <v>12</v>
       </c>
-      <c r="G93" s="33"/>
-      <c r="H93" s="33"/>
-      <c r="I93" s="33"/>
+      <c r="G93" s="81" t="s">
+        <v>840</v>
+      </c>
+      <c r="H93" s="81" t="s">
+        <v>840</v>
+      </c>
+      <c r="I93" s="81" t="s">
+        <v>840</v>
+      </c>
       <c r="K93" t="s">
         <v>23</v>
       </c>
@@ -43418,7 +44418,7 @@
         <v>36</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>807</v>
+        <v>841</v>
       </c>
       <c r="D101" s="33"/>
       <c r="E101" s="81"/>

--- a/2017沉迷收肾-排谷-新.xlsx
+++ b/2017沉迷收肾-排谷-新.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="9520" tabRatio="500" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="9520" tabRatio="500" firstSheet="7" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="3月" sheetId="1" r:id="rId1"/>
@@ -22,14 +22,14 @@
     <sheet name="五六弹星挂" sheetId="12" r:id="rId13"/>
     <sheet name="浴衣吧唧" sheetId="13" r:id="rId14"/>
     <sheet name="欠国际" sheetId="16" r:id="rId15"/>
-    <sheet name="拍立得2" sheetId="17" r:id="rId16"/>
+    <sheet name="mafu" sheetId="18" r:id="rId16"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10237" uniqueCount="842">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10580" uniqueCount="907">
   <si>
     <t>3.8亚克力school days Vol3</t>
   </si>
@@ -2670,6 +2670,452 @@
   </si>
   <si>
     <t>二贝</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿染</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>小珠</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>花花</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>A 盒</t>
+  </si>
+  <si>
+    <t>真续4前</t>
+  </si>
+  <si>
+    <t xml:space="preserve">muri </t>
+  </si>
+  <si>
+    <t>零2前</t>
+  </si>
+  <si>
+    <t>泉4前</t>
+  </si>
+  <si>
+    <t>竿</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>纺3前</t>
+  </si>
+  <si>
+    <t>B组</t>
+  </si>
+  <si>
+    <t>楚晔</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>企鹅</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>leo4后</t>
+  </si>
+  <si>
+    <t>泉4后</t>
+  </si>
+  <si>
+    <t>LEO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">栗子 </t>
+  </si>
+  <si>
+    <t>竿</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>綺</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>滥觞</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>浅浅</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>眠眠</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿染</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>muri</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>夏目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>前</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>夏目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>夏目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>花花</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>firo</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>狗奈</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>流鸢</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>补款</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>退款</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>眠眠</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>花花</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>aimer</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>竿</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>滥觞</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>阿原</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>wonder</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>企鹅</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>綺</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>浅浅</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>狗奈</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>总补退款</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>仙蓓</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>流鸢</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>kuma</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>格子</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>徵言</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>贝贝</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>七海</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>楚晔</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>本体差</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>正补负退</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨头</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>leo英狗</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>涉斑mika</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>岚毛兔</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>北星</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小珠</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>总补退</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>京mafu</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>动动</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -2681,7 +3127,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21">
+  <fonts count="27">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2815,6 +3261,41 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -2873,12 +3354,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79989013336588644"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2893,6 +3368,12 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7B7B7"/>
+        <bgColor rgb="FFB7B7B7"/>
       </patternFill>
     </fill>
   </fills>
@@ -3068,7 +3549,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3158,7 +3639,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3169,9 +3649,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3179,6 +3659,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3188,14 +3676,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3470,8 +3964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y340"/>
   <sheetViews>
-    <sheetView topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L163" sqref="L163"/>
+    <sheetView topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D142" sqref="D142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.23046875" defaultRowHeight="15.5"/>
@@ -4471,7 +4965,7 @@
       <c r="A42" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B42" s="102" t="s">
+      <c r="B42" s="101" t="s">
         <v>801</v>
       </c>
       <c r="C42" s="7" t="s">
@@ -5694,7 +6188,7 @@
       <c r="A80" t="s">
         <v>152</v>
       </c>
-      <c r="B80" s="103" t="s">
+      <c r="B80" s="102" t="s">
         <v>802</v>
       </c>
       <c r="C80" t="s">
@@ -6738,7 +7232,7 @@
       <c r="H129" s="4"/>
       <c r="I129" s="4"/>
       <c r="J129" s="4"/>
-      <c r="K129" s="88"/>
+      <c r="K129" s="87"/>
       <c r="L129" t="s">
         <v>187</v>
       </c>
@@ -6774,7 +7268,7 @@
       <c r="J130" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="K130" s="88"/>
+      <c r="K130" s="87"/>
       <c r="M130" t="s">
         <v>80</v>
       </c>
@@ -6809,7 +7303,7 @@
       <c r="J131" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="K131" s="88"/>
+      <c r="K131" s="87"/>
       <c r="L131" t="s">
         <v>188</v>
       </c>
@@ -6847,7 +7341,7 @@
       <c r="J132" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="K132" s="88"/>
+      <c r="K132" s="87"/>
       <c r="M132" t="s">
         <v>52</v>
       </c>
@@ -6882,7 +7376,7 @@
       <c r="J133" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="K133" s="88"/>
+      <c r="K133" s="87"/>
       <c r="M133" t="s">
         <v>80</v>
       </c>
@@ -6915,7 +7409,7 @@
         <v>189</v>
       </c>
       <c r="J134" s="4"/>
-      <c r="K134" s="88"/>
+      <c r="K134" s="87"/>
     </row>
     <row r="135" spans="1:14">
       <c r="A135" s="82" t="s">
@@ -6942,7 +7436,7 @@
       <c r="J135" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="K135" s="88"/>
+      <c r="K135" s="87"/>
     </row>
     <row r="136" spans="1:14">
       <c r="A136" s="82" t="s">
@@ -6971,7 +7465,7 @@
       <c r="J136" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="K136" s="88"/>
+      <c r="K136" s="87"/>
     </row>
     <row r="137" spans="1:14">
       <c r="A137" s="82" t="s">
@@ -6998,7 +7492,7 @@
       <c r="J137" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="K137" s="88"/>
+      <c r="K137" s="87"/>
     </row>
     <row r="138" spans="1:14">
       <c r="A138" s="82" t="s">
@@ -7022,7 +7516,9 @@
       <c r="I138" s="17" t="s">
         <v>825</v>
       </c>
-      <c r="J138" s="83"/>
+      <c r="J138" s="17" t="s">
+        <v>842</v>
+      </c>
       <c r="K138" s="56" t="s">
         <v>189</v>
       </c>
@@ -7051,7 +7547,9 @@
       <c r="I139" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="J139" s="83"/>
+      <c r="J139" s="114" t="s">
+        <v>843</v>
+      </c>
       <c r="K139" s="56" t="s">
         <v>189</v>
       </c>
@@ -7083,7 +7581,7 @@
       <c r="J140" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="K140" s="88"/>
+      <c r="K140" s="87"/>
     </row>
     <row r="141" spans="1:14">
       <c r="A141" s="82" t="s">
@@ -7110,7 +7608,7 @@
         <v>189</v>
       </c>
       <c r="J141" s="4"/>
-      <c r="K141" s="88"/>
+      <c r="K141" s="87"/>
     </row>
     <row r="142" spans="1:14">
       <c r="A142" s="82" t="s">
@@ -7122,7 +7620,9 @@
       <c r="C142" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D142" s="83"/>
+      <c r="D142" s="7" t="s">
+        <v>843</v>
+      </c>
       <c r="E142" s="6" t="s">
         <v>189</v>
       </c>
@@ -7139,7 +7639,7 @@
       <c r="J142" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="K142" s="88"/>
+      <c r="K142" s="87"/>
     </row>
     <row r="143" spans="1:14">
       <c r="A143" s="82" t="s">
@@ -7168,7 +7668,7 @@
       <c r="J143" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="K143" s="88"/>
+      <c r="K143" s="87"/>
       <c r="L143" s="3"/>
       <c r="M143" s="3"/>
     </row>
@@ -7196,7 +7696,7 @@
       <c r="I144" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="J144" s="84" t="s">
+      <c r="J144" s="83" t="s">
         <v>45</v>
       </c>
       <c r="K144" s="56" t="s">
@@ -7228,7 +7728,7 @@
       <c r="I145" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J145" s="84" t="s">
+      <c r="J145" s="83" t="s">
         <v>41</v>
       </c>
       <c r="K145" s="56" t="s">
@@ -7263,7 +7763,7 @@
       <c r="J146" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="K146" s="88"/>
+      <c r="K146" s="87"/>
       <c r="N146" s="3"/>
     </row>
     <row r="147" spans="1:14">
@@ -7291,7 +7791,7 @@
       <c r="J147" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="K147" s="88"/>
+      <c r="K147" s="87"/>
       <c r="N147" s="3"/>
     </row>
     <row r="148" spans="1:14">
@@ -7304,7 +7804,7 @@
       <c r="C148" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="D148" s="84" t="s">
+      <c r="D148" s="83" t="s">
         <v>177</v>
       </c>
       <c r="E148" s="6" t="s">
@@ -7321,7 +7821,7 @@
         <v>189</v>
       </c>
       <c r="J148" s="4"/>
-      <c r="K148" s="88"/>
+      <c r="K148" s="87"/>
       <c r="N148" s="3"/>
     </row>
     <row r="149" spans="1:14">
@@ -7334,7 +7834,7 @@
       <c r="C149" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D149" s="84" t="s">
+      <c r="D149" s="83" t="s">
         <v>45</v>
       </c>
       <c r="E149" s="6" t="s">
@@ -7353,7 +7853,7 @@
       <c r="J149" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="K149" s="88"/>
+      <c r="K149" s="87"/>
       <c r="N149" s="3"/>
     </row>
     <row r="150" spans="1:14">
@@ -7381,7 +7881,7 @@
       <c r="J150" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="K150" s="88"/>
+      <c r="K150" s="87"/>
       <c r="N150" s="3"/>
     </row>
     <row r="151" spans="1:14">
@@ -7411,7 +7911,7 @@
       <c r="J151" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="K151" s="88"/>
+      <c r="K151" s="87"/>
       <c r="N151" s="3"/>
     </row>
     <row r="152" spans="1:14">
@@ -7434,7 +7934,7 @@
       <c r="G152" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H152" s="85" t="s">
+      <c r="H152" s="84" t="s">
         <v>21</v>
       </c>
       <c r="I152" s="4" t="s">
@@ -7443,7 +7943,7 @@
       <c r="J152" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="K152" s="88"/>
+      <c r="K152" s="87"/>
       <c r="N152" s="3"/>
     </row>
     <row r="153" spans="1:14">
@@ -7472,7 +7972,7 @@
       <c r="I153" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J153" s="84" t="s">
+      <c r="J153" s="83" t="s">
         <v>8</v>
       </c>
       <c r="K153" s="56" t="s">
@@ -7505,7 +8005,7 @@
         <v>189</v>
       </c>
       <c r="J154" s="4"/>
-      <c r="K154" s="88"/>
+      <c r="K154" s="87"/>
       <c r="N154" s="3"/>
     </row>
     <row r="155" spans="1:14">
@@ -7533,7 +8033,7 @@
         <v>189</v>
       </c>
       <c r="J155" s="4"/>
-      <c r="K155" s="88"/>
+      <c r="K155" s="87"/>
       <c r="N155" s="3"/>
     </row>
     <row r="156" spans="1:14">
@@ -7561,7 +8061,7 @@
       <c r="J156" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="K156" s="88"/>
+      <c r="K156" s="87"/>
       <c r="N156" s="3"/>
     </row>
     <row r="157" spans="1:14">
@@ -7621,7 +8121,7 @@
       <c r="J158" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="K158" s="88"/>
+      <c r="K158" s="87"/>
       <c r="N158" s="3"/>
     </row>
     <row r="159" spans="1:14">
@@ -7651,7 +8151,7 @@
       <c r="J159" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="K159" s="88"/>
+      <c r="K159" s="87"/>
       <c r="N159" s="3"/>
     </row>
     <row r="160" spans="1:14">
@@ -7681,7 +8181,7 @@
       <c r="J160" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="K160" s="88"/>
+      <c r="K160" s="87"/>
       <c r="N160" s="3"/>
     </row>
     <row r="161" spans="1:14">
@@ -7711,7 +8211,7 @@
       <c r="J161" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="K161" s="88"/>
+      <c r="K161" s="87"/>
       <c r="N161" s="3"/>
     </row>
     <row r="162" spans="1:14">
@@ -7736,7 +8236,7 @@
       <c r="I162" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J162" s="84" t="s">
+      <c r="J162" s="83" t="s">
         <v>41</v>
       </c>
       <c r="K162" s="56" t="s">
@@ -7745,10 +8245,10 @@
       <c r="N162" s="3"/>
     </row>
     <row r="163" spans="1:14">
-      <c r="A163" s="86" t="s">
+      <c r="A163" s="85" t="s">
         <v>197</v>
       </c>
-      <c r="B163" s="87" t="s">
+      <c r="B163" s="86" t="s">
         <v>124</v>
       </c>
       <c r="C163" s="15" t="s">
@@ -7757,21 +8257,21 @@
       <c r="D163" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="E163" s="87"/>
-      <c r="F163" s="87"/>
-      <c r="G163" s="87" t="s">
+      <c r="E163" s="86"/>
+      <c r="F163" s="86"/>
+      <c r="G163" s="86" t="s">
         <v>197</v>
       </c>
-      <c r="H163" s="87" t="s">
+      <c r="H163" s="86" t="s">
         <v>124</v>
       </c>
-      <c r="I163" s="87" t="s">
+      <c r="I163" s="86" t="s">
         <v>124</v>
       </c>
       <c r="J163" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="K163" s="89"/>
+      <c r="K163" s="88"/>
     </row>
     <row r="164" spans="1:14">
       <c r="L164" s="3"/>
@@ -7790,7 +8290,7 @@
       <c r="B166" t="s">
         <v>836</v>
       </c>
-      <c r="C166" s="101" t="s">
+      <c r="C166" s="100" t="s">
         <v>837</v>
       </c>
       <c r="D166" t="s">
@@ -9609,19 +10109,19 @@
       </c>
     </row>
     <row r="277" spans="1:14">
-      <c r="A277" s="90"/>
-      <c r="B277" s="91" t="s">
+      <c r="A277" s="89"/>
+      <c r="B277" s="90" t="s">
         <v>219</v>
       </c>
-      <c r="C277" s="91"/>
-      <c r="D277" s="91"/>
-      <c r="E277" s="91"/>
-      <c r="F277" s="90" t="s">
+      <c r="C277" s="90"/>
+      <c r="D277" s="90"/>
+      <c r="E277" s="90"/>
+      <c r="F277" s="89" t="s">
         <v>220</v>
       </c>
-      <c r="G277" s="91"/>
-      <c r="H277" s="91"/>
-      <c r="I277" s="92"/>
+      <c r="G277" s="90"/>
+      <c r="H277" s="90"/>
+      <c r="I277" s="91"/>
     </row>
     <row r="278" spans="1:14">
       <c r="A278" s="82" t="s">
@@ -9648,7 +10148,7 @@
       <c r="H278" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I278" s="88" t="s">
+      <c r="I278" s="87" t="s">
         <v>5</v>
       </c>
     </row>
@@ -9822,7 +10322,7 @@
       <c r="H284" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I284" s="88" t="s">
+      <c r="I284" s="87" t="s">
         <v>115</v>
       </c>
     </row>
@@ -9918,7 +10418,7 @@
       <c r="H287" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I287" s="88" t="s">
+      <c r="I287" s="87" t="s">
         <v>26</v>
       </c>
       <c r="K287" t="s">
@@ -9994,7 +10494,7 @@
       <c r="H289" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="I289" s="88" t="s">
+      <c r="I289" s="87" t="s">
         <v>201</v>
       </c>
       <c r="K289" t="s">
@@ -10023,7 +10523,7 @@
       <c r="E290" s="17" t="s">
         <v>778</v>
       </c>
-      <c r="F290" s="99" t="s">
+      <c r="F290" s="98" t="s">
         <v>778</v>
       </c>
       <c r="G290" s="17" t="s">
@@ -10061,7 +10561,7 @@
       <c r="E291" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="F291" s="99" t="s">
+      <c r="F291" s="98" t="s">
         <v>778</v>
       </c>
       <c r="G291" s="17" t="s">
@@ -10174,7 +10674,7 @@
       <c r="H294" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I294" s="88" t="s">
+      <c r="I294" s="87" t="s">
         <v>15</v>
       </c>
     </row>
@@ -10281,7 +10781,7 @@
       <c r="E298" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="F298" s="97" t="s">
+      <c r="F298" s="96" t="s">
         <v>780</v>
       </c>
       <c r="G298" s="17" t="s">
@@ -10310,7 +10810,7 @@
       <c r="E299" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="F299" s="97" t="s">
+      <c r="F299" s="96" t="s">
         <v>780</v>
       </c>
       <c r="G299" s="17" t="s">
@@ -10319,7 +10819,7 @@
       <c r="H299" s="17" t="s">
         <v>746</v>
       </c>
-      <c r="I299" s="100" t="s">
+      <c r="I299" s="99" t="s">
         <v>746</v>
       </c>
     </row>
@@ -10580,7 +11080,7 @@
       <c r="H308" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I308" s="88" t="s">
+      <c r="I308" s="87" t="s">
         <v>13</v>
       </c>
     </row>
@@ -10600,7 +11100,7 @@
       <c r="E309" s="17" t="s">
         <v>780</v>
       </c>
-      <c r="F309" s="97" t="s">
+      <c r="F309" s="96" t="s">
         <v>778</v>
       </c>
       <c r="G309" s="17" t="s">
@@ -10667,7 +11167,7 @@
       <c r="H311" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I311" s="88" t="s">
+      <c r="I311" s="87" t="s">
         <v>21</v>
       </c>
     </row>
@@ -10696,18 +11196,18 @@
       <c r="H312" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="I312" s="88" t="s">
+      <c r="I312" s="87" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="313" spans="1:9">
-      <c r="A313" s="86" t="s">
+      <c r="A313" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="B313" s="98" t="s">
+      <c r="B313" s="97" t="s">
         <v>742</v>
       </c>
-      <c r="C313" s="98" t="s">
+      <c r="C313" s="97" t="s">
         <v>722</v>
       </c>
       <c r="D313" s="15" t="s">
@@ -10725,7 +11225,7 @@
       <c r="H313" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="I313" s="93" t="s">
+      <c r="I313" s="92" t="s">
         <v>221</v>
       </c>
     </row>
@@ -10747,10 +11247,10 @@
       <c r="C316" t="s">
         <v>752</v>
       </c>
-      <c r="D316" s="101" t="s">
+      <c r="D316" s="100" t="s">
         <v>753</v>
       </c>
-      <c r="E316" s="101" t="s">
+      <c r="E316" s="100" t="s">
         <v>720</v>
       </c>
       <c r="G316" t="s">
@@ -11216,7 +11716,7 @@
   <dimension ref="A1:L180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I131" sqref="I131"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -14203,13 +14703,13 @@
       <c r="G158" t="s">
         <v>432</v>
       </c>
-      <c r="H158" s="106" t="s">
+      <c r="H158" s="113" t="s">
         <v>634</v>
       </c>
-      <c r="I158" s="106"/>
-      <c r="J158" s="106"/>
-      <c r="K158" s="106"/>
-      <c r="L158" s="106"/>
+      <c r="I158" s="113"/>
+      <c r="J158" s="113"/>
+      <c r="K158" s="113"/>
+      <c r="L158" s="113"/>
     </row>
     <row r="159" spans="1:12">
       <c r="B159" t="s">
@@ -14218,11 +14718,11 @@
       <c r="G159" t="s">
         <v>432</v>
       </c>
-      <c r="H159" s="106"/>
-      <c r="I159" s="106"/>
-      <c r="J159" s="106"/>
-      <c r="K159" s="106"/>
-      <c r="L159" s="106"/>
+      <c r="H159" s="113"/>
+      <c r="I159" s="113"/>
+      <c r="J159" s="113"/>
+      <c r="K159" s="113"/>
+      <c r="L159" s="113"/>
     </row>
     <row r="160" spans="1:12">
       <c r="B160" t="s">
@@ -15573,8 +16073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.23046875" defaultRowHeight="15.5"/>
@@ -16050,28 +16550,28 @@
       </c>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="107" t="s">
+      <c r="A25" s="103" t="s">
         <v>808</v>
       </c>
-      <c r="B25" s="108"/>
-      <c r="C25" s="108"/>
-      <c r="D25" s="108"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="108"/>
-      <c r="G25" s="108"/>
-      <c r="H25" s="108"/>
-      <c r="I25" s="108"/>
-      <c r="J25" s="108"/>
-      <c r="K25" s="109"/>
+      <c r="B25" s="104"/>
+      <c r="C25" s="104"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="104"/>
+      <c r="G25" s="104"/>
+      <c r="H25" s="104"/>
+      <c r="I25" s="104"/>
+      <c r="J25" s="104"/>
+      <c r="K25" s="105"/>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="110" t="s">
+      <c r="A26" s="106" t="s">
         <v>809</v>
       </c>
-      <c r="K26" s="111"/>
+      <c r="K26" s="107"/>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="110" t="s">
+      <c r="A27" s="106" t="s">
         <v>125</v>
       </c>
       <c r="G27" t="s">
@@ -16086,12 +16586,12 @@
       <c r="J27" t="s">
         <v>307</v>
       </c>
-      <c r="K27" s="111" t="s">
+      <c r="K27" s="107" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="110" t="s">
+      <c r="A28" s="106" t="s">
         <v>140</v>
       </c>
       <c r="B28" t="s">
@@ -16115,10 +16615,10 @@
       <c r="J28" t="s">
         <v>10</v>
       </c>
-      <c r="K28" s="111"/>
+      <c r="K28" s="107"/>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="110"/>
+      <c r="A29" s="106"/>
       <c r="B29" t="s">
         <v>51</v>
       </c>
@@ -16143,12 +16643,12 @@
       <c r="J29" t="s">
         <v>553</v>
       </c>
-      <c r="K29" s="111" t="s">
+      <c r="K29" s="107" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="110" t="s">
+      <c r="A30" s="106" t="s">
         <v>134</v>
       </c>
       <c r="B30" t="s">
@@ -16169,10 +16669,10 @@
       <c r="J30" s="81" t="s">
         <v>810</v>
       </c>
-      <c r="K30" s="111"/>
+      <c r="K30" s="107"/>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="110" t="s">
+      <c r="A31" s="106" t="s">
         <v>116</v>
       </c>
       <c r="B31" t="s">
@@ -16194,10 +16694,10 @@
         <v>1</v>
       </c>
       <c r="J31" s="33"/>
-      <c r="K31" s="111"/>
+      <c r="K31" s="107"/>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="110"/>
+      <c r="A32" s="106"/>
       <c r="B32" t="s">
         <v>29</v>
       </c>
@@ -16214,10 +16714,10 @@
         <v>1</v>
       </c>
       <c r="J32" s="33"/>
-      <c r="K32" s="111"/>
+      <c r="K32" s="107"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="110" t="s">
+      <c r="A33" s="106" t="s">
         <v>130</v>
       </c>
       <c r="B33" t="s">
@@ -16230,10 +16730,10 @@
       <c r="G33" t="s">
         <v>111</v>
       </c>
-      <c r="K33" s="111"/>
+      <c r="K33" s="107"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="110" t="s">
+      <c r="A34" s="106" t="s">
         <v>536</v>
       </c>
       <c r="B34" t="s">
@@ -16258,10 +16758,10 @@
         <v>1</v>
       </c>
       <c r="J34" s="33"/>
-      <c r="K34" s="111"/>
+      <c r="K34" s="107"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="110"/>
+      <c r="A35" s="106"/>
       <c r="H35" t="s">
         <v>196</v>
       </c>
@@ -16271,20 +16771,20 @@
       <c r="J35" t="s">
         <v>22</v>
       </c>
-      <c r="K35" s="111"/>
+      <c r="K35" s="107"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="110"/>
-      <c r="K36" s="111"/>
+      <c r="A36" s="106"/>
+      <c r="K36" s="107"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="110" t="s">
+      <c r="A37" s="106" t="s">
         <v>812</v>
       </c>
-      <c r="K37" s="111"/>
+      <c r="K37" s="107"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="110" t="s">
+      <c r="A38" s="106" t="s">
         <v>125</v>
       </c>
       <c r="B38" t="s">
@@ -16308,10 +16808,10 @@
       <c r="J38" t="s">
         <v>307</v>
       </c>
-      <c r="K38" s="111"/>
+      <c r="K38" s="107"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="110"/>
+      <c r="A39" s="106"/>
       <c r="B39" t="s">
         <v>7</v>
       </c>
@@ -16333,10 +16833,10 @@
       <c r="J39" s="17" t="s">
         <v>813</v>
       </c>
-      <c r="K39" s="111"/>
+      <c r="K39" s="107"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="110" t="s">
+      <c r="A40" s="106" t="s">
         <v>140</v>
       </c>
       <c r="B40" t="s">
@@ -16357,10 +16857,10 @@
       <c r="J40" t="s">
         <v>553</v>
       </c>
-      <c r="K40" s="111"/>
+      <c r="K40" s="107"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="110"/>
+      <c r="A41" s="106"/>
       <c r="B41" t="s">
         <v>51</v>
       </c>
@@ -16379,12 +16879,12 @@
       <c r="J41" t="s">
         <v>212</v>
       </c>
-      <c r="K41" s="111" t="s">
+      <c r="K41" s="107" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="110" t="s">
+      <c r="A42" s="106" t="s">
         <v>134</v>
       </c>
       <c r="B42" t="s">
@@ -16405,10 +16905,10 @@
       <c r="J42" t="s">
         <v>65</v>
       </c>
-      <c r="K42" s="111"/>
+      <c r="K42" s="107"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="110"/>
+      <c r="A43" s="106"/>
       <c r="B43" t="s">
         <v>195</v>
       </c>
@@ -16421,10 +16921,10 @@
       <c r="G43" t="s">
         <v>270</v>
       </c>
-      <c r="K43" s="111"/>
+      <c r="K43" s="107"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="110" t="s">
+      <c r="A44" s="106" t="s">
         <v>116</v>
       </c>
       <c r="B44" t="s">
@@ -16448,10 +16948,10 @@
       <c r="J44" t="s">
         <v>431</v>
       </c>
-      <c r="K44" s="111"/>
+      <c r="K44" s="107"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="110" t="s">
+      <c r="A45" s="106" t="s">
         <v>130</v>
       </c>
       <c r="B45" t="s">
@@ -16475,12 +16975,12 @@
       <c r="J45" t="s">
         <v>22</v>
       </c>
-      <c r="K45" s="111" t="s">
+      <c r="K45" s="107" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="110"/>
+      <c r="A46" s="106"/>
       <c r="B46" t="s">
         <v>72</v>
       </c>
@@ -16498,20 +16998,20 @@
         <v>1</v>
       </c>
       <c r="J46" s="33"/>
-      <c r="K46" s="111"/>
+      <c r="K46" s="107"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="112"/>
-      <c r="B47" s="113"/>
-      <c r="C47" s="113"/>
-      <c r="D47" s="113"/>
-      <c r="E47" s="113"/>
-      <c r="F47" s="113"/>
-      <c r="G47" s="113"/>
-      <c r="H47" s="113"/>
-      <c r="I47" s="113"/>
-      <c r="J47" s="113"/>
-      <c r="K47" s="114"/>
+      <c r="A47" s="108"/>
+      <c r="B47" s="109"/>
+      <c r="C47" s="109"/>
+      <c r="D47" s="109"/>
+      <c r="E47" s="109"/>
+      <c r="F47" s="109"/>
+      <c r="G47" s="109"/>
+      <c r="H47" s="109"/>
+      <c r="I47" s="109"/>
+      <c r="J47" s="109"/>
+      <c r="K47" s="110"/>
     </row>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
@@ -17761,7 +18261,7 @@
       </c>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="96" t="s">
+      <c r="A42" s="95" t="s">
         <v>772</v>
       </c>
       <c r="B42">
@@ -17782,7 +18282,7 @@
       </c>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="96" t="s">
+      <c r="A43" s="95" t="s">
         <v>723</v>
       </c>
       <c r="B43" s="7">
@@ -17828,7 +18328,7 @@
       </c>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="96" t="s">
+      <c r="A45" s="95" t="s">
         <v>771</v>
       </c>
       <c r="B45" s="7">
@@ -17872,7 +18372,7 @@
       </c>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="96" t="s">
+      <c r="A47" s="95" t="s">
         <v>773</v>
       </c>
       <c r="B47" s="7">
@@ -17952,7 +18452,7 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="96" t="s">
+      <c r="A51" s="95" t="s">
         <v>774</v>
       </c>
       <c r="B51" s="7">
@@ -18110,7 +18610,7 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="96" t="s">
+      <c r="A59" s="95" t="s">
         <v>776</v>
       </c>
       <c r="B59" s="7">
@@ -18132,7 +18632,7 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="96" t="s">
+      <c r="A60" s="95" t="s">
         <v>777</v>
       </c>
       <c r="B60" s="7">
@@ -18170,7 +18670,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="96" t="s">
+      <c r="A62" s="95" t="s">
         <v>775</v>
       </c>
       <c r="B62" s="7">
@@ -18925,10 +19425,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="15.5"/>
@@ -18967,7 +19467,7 @@
         <v>2.25</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" ref="E2:E19" si="0">SUM(B2:D2)</f>
+        <f t="shared" ref="E2:E18" si="0">SUM(B2:D2)</f>
         <v>9.84</v>
       </c>
     </row>
@@ -19015,127 +19515,127 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1">
         <v>1.5</v>
       </c>
+      <c r="D6" s="1">
+        <v>0.45</v>
+      </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B7" s="1">
         <v>1.5</v>
       </c>
-      <c r="D7" s="1">
-        <v>0.45</v>
-      </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>49</v>
+        <v>304</v>
       </c>
       <c r="B8" s="1">
         <v>1.5</v>
       </c>
+      <c r="C8" s="1">
+        <v>2.44</v>
+      </c>
       <c r="E8" s="1">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>3.94</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1.5</v>
+        <v>132</v>
       </c>
       <c r="C9" s="1">
         <v>2.44</v>
       </c>
+      <c r="D9" s="1">
+        <v>0.45</v>
+      </c>
       <c r="E9" s="1">
         <f t="shared" si="0"/>
-        <v>3.94</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1">
-        <v>2.44</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.45</v>
+        <v>1.83</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="0"/>
-        <v>2.89</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C11" s="1">
-        <v>1.83</v>
+        <v>3.66</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.45</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="0"/>
-        <v>1.83</v>
+        <v>4.1100000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="1">
-        <v>3.66</v>
+        <v>216</v>
       </c>
       <c r="D12" s="1">
-        <v>0.45</v>
+        <v>1.8</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="0"/>
-        <v>4.1100000000000003</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="D13" s="1">
-        <v>1.8</v>
+        <v>1.35</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="0"/>
-        <v>1.8</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>244</v>
+        <v>10</v>
       </c>
       <c r="D14" s="1">
-        <v>1.35</v>
+        <v>0.9</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="0"/>
-        <v>1.35</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D15" s="1">
         <v>0.9</v>
@@ -19147,7 +19647,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="D16" s="1">
         <v>0.9</v>
@@ -19159,36 +19659,24 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>100</v>
+        <v>660</v>
       </c>
       <c r="D17" s="1">
-        <v>0.9</v>
+        <v>0.45</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" si="0"/>
-        <v>0.9</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>660</v>
+        <v>122</v>
       </c>
       <c r="D18" s="1">
-        <v>0.45</v>
+        <v>4.08</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="0"/>
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D19" s="1">
-        <v>4.08</v>
-      </c>
-      <c r="E19" s="1">
         <f t="shared" si="0"/>
         <v>4.08</v>
       </c>
@@ -19202,14 +19690,1863 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M79"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="15.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="115" t="s">
+        <v>844</v>
+      </c>
+      <c r="B1" s="115">
+        <v>1</v>
+      </c>
+      <c r="C1" s="115">
+        <v>2</v>
+      </c>
+      <c r="D1" s="115">
+        <v>3</v>
+      </c>
+      <c r="E1" s="115">
+        <v>4</v>
+      </c>
+      <c r="F1" s="115">
+        <v>5</v>
+      </c>
+      <c r="G1" s="115">
+        <v>6</v>
+      </c>
+      <c r="H1" s="115">
+        <v>7</v>
+      </c>
+      <c r="I1" s="115">
+        <v>8</v>
+      </c>
+      <c r="J1" s="115">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="115" t="s">
+        <v>440</v>
+      </c>
+      <c r="B2" s="115" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="115" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="115" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="115" t="s">
+        <v>442</v>
+      </c>
+      <c r="B3" s="115" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="115" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="115" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="115" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="115" t="s">
+        <v>124</v>
+      </c>
+      <c r="G3" s="120" t="s">
+        <v>124</v>
+      </c>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="115" t="s">
+        <v>845</v>
+      </c>
+      <c r="B4" s="115" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="115" t="s">
+        <v>846</v>
+      </c>
+      <c r="D4" s="115" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="115" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="120"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="115" t="s">
+        <v>446</v>
+      </c>
+      <c r="B5" s="115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="115" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="116"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="115" t="s">
+        <v>448</v>
+      </c>
+      <c r="B6" s="115" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="115" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="115" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" s="115" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="115" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" s="122" t="s">
+        <v>864</v>
+      </c>
+      <c r="H6" s="122" t="s">
+        <v>864</v>
+      </c>
+      <c r="I6" s="122" t="s">
+        <v>864</v>
+      </c>
+      <c r="J6" s="116"/>
+      <c r="K6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="115" t="s">
+        <v>451</v>
+      </c>
+      <c r="B7" s="115" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="115" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" s="115" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" s="115" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="115" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="115" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="115" t="s">
+        <v>307</v>
+      </c>
+      <c r="I7" s="115" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="119" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="115" t="s">
+        <v>847</v>
+      </c>
+      <c r="B8" s="115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="115" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="115" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="115" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="116"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="115" t="s">
+        <v>848</v>
+      </c>
+      <c r="B9" s="115" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="115" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="115" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="115" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="120"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="116"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="115" t="s">
+        <v>457</v>
+      </c>
+      <c r="B10" s="115" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="120"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="116"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="116"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="115" t="s">
+        <v>459</v>
+      </c>
+      <c r="B11" s="115" t="s">
+        <v>418</v>
+      </c>
+      <c r="C11" s="115" t="s">
+        <v>418</v>
+      </c>
+      <c r="D11" s="115" t="s">
+        <v>418</v>
+      </c>
+      <c r="E11" s="115" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="120"/>
+      <c r="G11" s="116"/>
+      <c r="H11" s="116"/>
+      <c r="I11" s="116"/>
+      <c r="J11" s="116"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="115" t="s">
+        <v>461</v>
+      </c>
+      <c r="B12" s="115" t="s">
+        <v>418</v>
+      </c>
+      <c r="C12" s="115" t="s">
+        <v>418</v>
+      </c>
+      <c r="D12" s="115" t="s">
+        <v>418</v>
+      </c>
+      <c r="E12" s="115" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="115" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="116"/>
+      <c r="H12" s="116"/>
+      <c r="I12" s="116"/>
+      <c r="J12" s="116"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="115" t="s">
+        <v>463</v>
+      </c>
+      <c r="B13" s="118" t="s">
+        <v>849</v>
+      </c>
+      <c r="C13" s="118" t="s">
+        <v>849</v>
+      </c>
+      <c r="D13" s="118" t="s">
+        <v>849</v>
+      </c>
+      <c r="E13" s="118" t="s">
+        <v>849</v>
+      </c>
+      <c r="F13" s="118" t="s">
+        <v>849</v>
+      </c>
+      <c r="G13" s="116" t="s">
+        <v>849</v>
+      </c>
+      <c r="H13" s="116"/>
+      <c r="I13" s="116"/>
+      <c r="J13" s="116"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="115" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="115" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="115" t="s">
+        <v>419</v>
+      </c>
+      <c r="D14" s="115" t="s">
+        <v>177</v>
+      </c>
+      <c r="E14" s="122" t="s">
+        <v>864</v>
+      </c>
+      <c r="F14" s="122" t="s">
+        <v>864</v>
+      </c>
+      <c r="G14" s="117"/>
+      <c r="H14" s="116"/>
+      <c r="I14" s="116"/>
+      <c r="J14" s="116"/>
+      <c r="K14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="115" t="s">
+        <v>867</v>
+      </c>
+      <c r="B15" s="122" t="s">
+        <v>870</v>
+      </c>
+      <c r="C15" s="121" t="s">
+        <v>870</v>
+      </c>
+      <c r="D15" s="121" t="s">
+        <v>865</v>
+      </c>
+      <c r="E15" s="116"/>
+      <c r="F15" s="116"/>
+      <c r="G15" s="116"/>
+      <c r="H15" s="116"/>
+      <c r="I15" s="116"/>
+      <c r="J15" s="116"/>
+      <c r="K15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="115" t="s">
+        <v>850</v>
+      </c>
+      <c r="B16" s="115" t="s">
+        <v>304</v>
+      </c>
+      <c r="C16" s="115" t="s">
+        <v>304</v>
+      </c>
+      <c r="D16" s="115" t="s">
+        <v>304</v>
+      </c>
+      <c r="E16" s="115" t="s">
+        <v>304</v>
+      </c>
+      <c r="F16" s="115" t="s">
+        <v>304</v>
+      </c>
+      <c r="G16" s="115" t="s">
+        <v>304</v>
+      </c>
+      <c r="H16" s="116"/>
+      <c r="I16" s="116"/>
+      <c r="J16" s="116"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="115" t="s">
+        <v>468</v>
+      </c>
+      <c r="B17" s="115" t="s">
+        <v>431</v>
+      </c>
+      <c r="C17" s="115" t="s">
+        <v>431</v>
+      </c>
+      <c r="D17" s="115" t="s">
+        <v>183</v>
+      </c>
+      <c r="E17" s="115" t="s">
+        <v>183</v>
+      </c>
+      <c r="F17" s="115" t="s">
+        <v>183</v>
+      </c>
+      <c r="G17" s="118" t="s">
+        <v>861</v>
+      </c>
+      <c r="H17" s="118" t="s">
+        <v>861</v>
+      </c>
+      <c r="I17" s="118" t="s">
+        <v>861</v>
+      </c>
+      <c r="J17" s="118" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="116"/>
+      <c r="B18" s="116"/>
+      <c r="C18" s="116"/>
+      <c r="D18" s="116"/>
+      <c r="E18" s="116"/>
+      <c r="F18" s="116"/>
+      <c r="G18" s="116"/>
+      <c r="H18" s="116"/>
+      <c r="I18" s="116"/>
+      <c r="J18" s="116"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="115" t="s">
+        <v>851</v>
+      </c>
+      <c r="B19" s="115">
+        <v>1</v>
+      </c>
+      <c r="C19" s="115">
+        <v>2</v>
+      </c>
+      <c r="D19" s="115">
+        <v>3</v>
+      </c>
+      <c r="E19" s="115">
+        <v>4</v>
+      </c>
+      <c r="F19" s="115">
+        <v>5</v>
+      </c>
+      <c r="G19" s="115">
+        <v>6</v>
+      </c>
+      <c r="H19" s="115">
+        <v>7</v>
+      </c>
+      <c r="I19" s="116"/>
+      <c r="J19" s="116"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="115" t="s">
+        <v>441</v>
+      </c>
+      <c r="B20" s="115" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="115" t="s">
+        <v>124</v>
+      </c>
+      <c r="D20" s="115" t="s">
+        <v>124</v>
+      </c>
+      <c r="E20" s="115" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="115" t="s">
+        <v>124</v>
+      </c>
+      <c r="G20" s="115" t="s">
+        <v>124</v>
+      </c>
+      <c r="H20" s="116"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="116"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="115" t="s">
+        <v>443</v>
+      </c>
+      <c r="B21" s="115" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="115" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="115" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="115" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="115" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="115" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="116"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="115" t="s">
+        <v>447</v>
+      </c>
+      <c r="B22" s="115" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="115" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="115" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="115" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="115" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="115" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="115" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="116"/>
+      <c r="J22" s="116"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="115" t="s">
+        <v>445</v>
+      </c>
+      <c r="B23" s="115" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="115" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="115" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="120"/>
+      <c r="G23" s="115"/>
+      <c r="H23" s="116"/>
+      <c r="I23" s="116"/>
+      <c r="J23" s="116"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="115" t="s">
+        <v>449</v>
+      </c>
+      <c r="B24" s="115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="115" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="115" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="115" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="115" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="116"/>
+      <c r="H24" s="116"/>
+      <c r="I24" s="116"/>
+      <c r="J24" s="116"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="115" t="s">
+        <v>452</v>
+      </c>
+      <c r="B25" s="115" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" s="115" t="s">
+        <v>136</v>
+      </c>
+      <c r="D25" s="120" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" s="115" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" s="116"/>
+      <c r="H25" s="116"/>
+      <c r="I25" s="116"/>
+      <c r="J25" s="116"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="115" t="s">
+        <v>195</v>
+      </c>
+      <c r="B26" s="118" t="s">
+        <v>852</v>
+      </c>
+      <c r="C26" s="119" t="s">
+        <v>853</v>
+      </c>
+      <c r="D26" s="122" t="s">
+        <v>863</v>
+      </c>
+      <c r="E26" s="121" t="s">
+        <v>865</v>
+      </c>
+      <c r="F26" s="122" t="s">
+        <v>864</v>
+      </c>
+      <c r="G26" s="116"/>
+      <c r="H26" s="116"/>
+      <c r="I26" s="116"/>
+      <c r="J26" s="116"/>
+      <c r="K26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="115" t="s">
+        <v>455</v>
+      </c>
+      <c r="B27" s="115" t="s">
+        <v>307</v>
+      </c>
+      <c r="C27" s="115" t="s">
+        <v>307</v>
+      </c>
+      <c r="D27" s="115" t="s">
+        <v>307</v>
+      </c>
+      <c r="E27" s="115" t="s">
+        <v>307</v>
+      </c>
+      <c r="F27" s="115" t="s">
+        <v>307</v>
+      </c>
+      <c r="G27" s="115" t="s">
+        <v>307</v>
+      </c>
+      <c r="H27" s="115" t="s">
+        <v>307</v>
+      </c>
+      <c r="I27" s="116"/>
+      <c r="J27" s="116"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="115" t="s">
+        <v>854</v>
+      </c>
+      <c r="B28" s="115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="115" t="s">
+        <v>357</v>
+      </c>
+      <c r="D28" s="115" t="s">
+        <v>307</v>
+      </c>
+      <c r="E28" s="120"/>
+      <c r="F28" s="120"/>
+      <c r="G28" s="116"/>
+      <c r="H28" s="116"/>
+      <c r="I28" s="116"/>
+      <c r="J28" s="116"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="115" t="s">
+        <v>855</v>
+      </c>
+      <c r="B29" s="115" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="115" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="115" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="120"/>
+      <c r="F29" s="120"/>
+      <c r="G29" s="116"/>
+      <c r="H29" s="116"/>
+      <c r="I29" s="116"/>
+      <c r="J29" s="116"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="115" t="s">
+        <v>462</v>
+      </c>
+      <c r="B30" s="115" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="115" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="115" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="115" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="115" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="116"/>
+      <c r="H30" s="116"/>
+      <c r="I30" s="116"/>
+      <c r="J30" s="116"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="115" t="s">
+        <v>464</v>
+      </c>
+      <c r="B31" s="115" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="115" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="115" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="120"/>
+      <c r="G31" s="116"/>
+      <c r="H31" s="116"/>
+      <c r="I31" s="116"/>
+      <c r="J31" s="116"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="115" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="115" t="s">
+        <v>418</v>
+      </c>
+      <c r="C32" s="115" t="s">
+        <v>418</v>
+      </c>
+      <c r="D32" s="115" t="s">
+        <v>418</v>
+      </c>
+      <c r="E32" s="115" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="120"/>
+      <c r="G32" s="116"/>
+      <c r="H32" s="116"/>
+      <c r="I32" s="116"/>
+      <c r="J32" s="116"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="115" t="s">
+        <v>196</v>
+      </c>
+      <c r="B33" s="115" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="115" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="115" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="115" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="115" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="115" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" s="115" t="s">
+        <v>22</v>
+      </c>
+      <c r="I33" s="116"/>
+      <c r="J33" s="116"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="115" t="s">
+        <v>467</v>
+      </c>
+      <c r="B34" s="115" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="115" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="115" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="115" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="120"/>
+      <c r="G34" s="116"/>
+      <c r="H34" s="116"/>
+      <c r="I34" s="116"/>
+      <c r="J34" s="116"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="115" t="s">
+        <v>866</v>
+      </c>
+      <c r="B35" s="121" t="s">
+        <v>870</v>
+      </c>
+      <c r="C35" s="121" t="s">
+        <v>870</v>
+      </c>
+      <c r="D35" s="122" t="s">
+        <v>870</v>
+      </c>
+      <c r="E35" s="122" t="s">
+        <v>871</v>
+      </c>
+      <c r="F35" s="122" t="s">
+        <v>871</v>
+      </c>
+      <c r="G35" s="122" t="s">
+        <v>872</v>
+      </c>
+      <c r="H35" s="122" t="s">
+        <v>869</v>
+      </c>
+      <c r="I35" s="116"/>
+      <c r="J35" s="116"/>
+      <c r="K35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="116"/>
+      <c r="B36" s="116"/>
+      <c r="C36" s="116"/>
+      <c r="D36" s="116"/>
+      <c r="E36" s="116"/>
+      <c r="F36" s="116"/>
+      <c r="G36" s="116"/>
+      <c r="H36" s="116"/>
+      <c r="I36" s="116"/>
+      <c r="J36" s="116"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="115" t="s">
+        <v>291</v>
+      </c>
+      <c r="B37" s="115">
+        <v>1</v>
+      </c>
+      <c r="C37" s="115">
+        <v>2</v>
+      </c>
+      <c r="D37" s="115">
+        <v>3</v>
+      </c>
+      <c r="E37" s="115">
+        <v>4</v>
+      </c>
+      <c r="F37" s="115">
+        <v>5</v>
+      </c>
+      <c r="G37" s="115">
+        <v>6</v>
+      </c>
+      <c r="H37" s="115">
+        <v>7</v>
+      </c>
+      <c r="I37" s="115">
+        <v>8</v>
+      </c>
+      <c r="J37" s="116"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="115" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="115" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="115" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="115" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="115" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="115" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" s="115" t="s">
+        <v>307</v>
+      </c>
+      <c r="H38" s="115" t="s">
+        <v>357</v>
+      </c>
+      <c r="I38" s="123" t="s">
+        <v>864</v>
+      </c>
+      <c r="J38" s="116"/>
+      <c r="K38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="115" t="s">
+        <v>381</v>
+      </c>
+      <c r="B39" s="115" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="115" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="115" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="115" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="120"/>
+      <c r="G39" s="116"/>
+      <c r="H39" s="116"/>
+      <c r="I39" s="116"/>
+      <c r="J39" s="116"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="115" t="s">
+        <v>193</v>
+      </c>
+      <c r="B40" s="115" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="115" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="115" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="120"/>
+      <c r="G40" s="116"/>
+      <c r="H40" s="116"/>
+      <c r="I40" s="116"/>
+      <c r="J40" s="116"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="115" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="115" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="115" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="115" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="116"/>
+      <c r="G41" s="116"/>
+      <c r="H41" s="116"/>
+      <c r="I41" s="116"/>
+      <c r="J41" s="116"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="115" t="s">
+        <v>450</v>
+      </c>
+      <c r="B42" s="115" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42" s="115" t="s">
+        <v>79</v>
+      </c>
+      <c r="D42" s="115" t="s">
+        <v>79</v>
+      </c>
+      <c r="G42" s="116"/>
+      <c r="H42" s="116"/>
+      <c r="I42" s="116"/>
+      <c r="J42" s="116"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="115" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="115" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="115" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="115" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" s="115" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" s="116"/>
+      <c r="H43" s="116"/>
+      <c r="I43" s="116"/>
+      <c r="J43" s="116"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="115" t="s">
+        <v>281</v>
+      </c>
+      <c r="B44" s="115" t="s">
+        <v>307</v>
+      </c>
+      <c r="C44" s="115" t="s">
+        <v>307</v>
+      </c>
+      <c r="D44" s="115" t="s">
+        <v>307</v>
+      </c>
+      <c r="E44" s="115" t="s">
+        <v>307</v>
+      </c>
+      <c r="F44" s="115" t="s">
+        <v>307</v>
+      </c>
+      <c r="G44" s="115" t="s">
+        <v>307</v>
+      </c>
+      <c r="H44" s="116"/>
+      <c r="I44" s="116"/>
+      <c r="J44" s="116"/>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="115" t="s">
+        <v>856</v>
+      </c>
+      <c r="B45" s="115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="115" t="s">
+        <v>357</v>
+      </c>
+      <c r="D45" s="115" t="s">
+        <v>307</v>
+      </c>
+      <c r="E45" s="115" t="s">
+        <v>96</v>
+      </c>
+      <c r="F45" s="115" t="s">
+        <v>39</v>
+      </c>
+      <c r="G45" s="119" t="s">
+        <v>860</v>
+      </c>
+      <c r="H45" s="116"/>
+      <c r="I45" s="116"/>
+      <c r="J45" s="116"/>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="115" t="s">
+        <v>857</v>
+      </c>
+      <c r="B46" s="115" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="115" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="115" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="115" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="115" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="116"/>
+      <c r="H46" s="116"/>
+      <c r="I46" s="116"/>
+      <c r="J46" s="116"/>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="115" t="s">
+        <v>195</v>
+      </c>
+      <c r="B47" s="118" t="s">
+        <v>852</v>
+      </c>
+      <c r="C47" s="119" t="s">
+        <v>853</v>
+      </c>
+      <c r="D47" s="122" t="s">
+        <v>863</v>
+      </c>
+      <c r="E47" s="122" t="s">
+        <v>865</v>
+      </c>
+      <c r="F47" s="122" t="s">
+        <v>864</v>
+      </c>
+      <c r="G47" s="117"/>
+      <c r="H47" s="117"/>
+      <c r="I47" s="116"/>
+      <c r="J47" s="116"/>
+      <c r="K47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="115" t="s">
+        <v>265</v>
+      </c>
+      <c r="B48" s="115" t="s">
+        <v>418</v>
+      </c>
+      <c r="C48" s="115" t="s">
+        <v>418</v>
+      </c>
+      <c r="D48" s="115" t="s">
+        <v>418</v>
+      </c>
+      <c r="E48" s="115" t="s">
+        <v>39</v>
+      </c>
+      <c r="F48" s="115" t="s">
+        <v>39</v>
+      </c>
+      <c r="G48" s="116"/>
+      <c r="H48" s="116"/>
+      <c r="I48" s="116"/>
+      <c r="J48" s="116"/>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="115" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" s="115" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" s="115" t="s">
+        <v>419</v>
+      </c>
+      <c r="D49" s="115" t="s">
+        <v>177</v>
+      </c>
+      <c r="E49" s="122" t="s">
+        <v>864</v>
+      </c>
+      <c r="F49" s="122" t="s">
+        <v>864</v>
+      </c>
+      <c r="G49" s="116"/>
+      <c r="H49" s="116"/>
+      <c r="I49" s="116"/>
+      <c r="J49" s="116"/>
+      <c r="K49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="115" t="s">
+        <v>868</v>
+      </c>
+      <c r="B50" s="122" t="s">
+        <v>872</v>
+      </c>
+      <c r="C50" s="121" t="s">
+        <v>870</v>
+      </c>
+      <c r="D50" s="121" t="s">
+        <v>870</v>
+      </c>
+      <c r="E50" s="121" t="s">
+        <v>870</v>
+      </c>
+      <c r="F50" s="117"/>
+      <c r="G50" s="117"/>
+      <c r="H50" s="116"/>
+      <c r="I50" s="116"/>
+      <c r="J50" s="116"/>
+      <c r="K50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="115" t="s">
+        <v>196</v>
+      </c>
+      <c r="B51" s="115" t="s">
+        <v>304</v>
+      </c>
+      <c r="C51" s="115" t="s">
+        <v>304</v>
+      </c>
+      <c r="D51" s="120"/>
+      <c r="E51" s="120"/>
+      <c r="F51" s="120"/>
+      <c r="G51" s="116"/>
+      <c r="H51" s="116"/>
+      <c r="I51" s="116"/>
+      <c r="J51" s="116"/>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="115" t="s">
+        <v>467</v>
+      </c>
+      <c r="B52" s="115" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="115" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="115" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="115" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="115" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" s="116"/>
+      <c r="H52" s="116"/>
+      <c r="I52" s="116"/>
+      <c r="J52" s="116"/>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="115" t="s">
+        <v>48</v>
+      </c>
+      <c r="B53" s="118" t="s">
+        <v>858</v>
+      </c>
+      <c r="C53" s="118" t="s">
+        <v>858</v>
+      </c>
+      <c r="D53" s="118" t="s">
+        <v>858</v>
+      </c>
+      <c r="E53" s="118" t="s">
+        <v>858</v>
+      </c>
+      <c r="F53" s="118" t="s">
+        <v>858</v>
+      </c>
+      <c r="G53" s="116"/>
+      <c r="H53" s="116"/>
+      <c r="I53" s="116"/>
+      <c r="J53" s="116"/>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="115" t="s">
+        <v>40</v>
+      </c>
+      <c r="B54" s="115" t="s">
+        <v>431</v>
+      </c>
+      <c r="C54" s="115" t="s">
+        <v>431</v>
+      </c>
+      <c r="D54" s="115" t="s">
+        <v>431</v>
+      </c>
+      <c r="E54" s="115" t="s">
+        <v>431</v>
+      </c>
+      <c r="F54" s="115" t="s">
+        <v>431</v>
+      </c>
+      <c r="G54" s="115" t="s">
+        <v>431</v>
+      </c>
+      <c r="H54" s="116"/>
+      <c r="I54" s="116"/>
+      <c r="J54" s="116"/>
+    </row>
+    <row r="55" spans="1:13" ht="16" thickBot="1">
+      <c r="K55">
+        <f>SUM(K6:K54)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="115" t="s">
+        <v>873</v>
+      </c>
+      <c r="C56" s="115" t="s">
+        <v>874</v>
+      </c>
+      <c r="F56" s="124" t="s">
+        <v>886</v>
+      </c>
+      <c r="G56" s="21" t="s">
+        <v>896</v>
+      </c>
+      <c r="H56" s="21" t="s">
+        <v>904</v>
+      </c>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="21"/>
+      <c r="L56" s="21"/>
+      <c r="M56" s="27"/>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="115" t="s">
+        <v>877</v>
+      </c>
+      <c r="B57">
+        <v>64</v>
+      </c>
+      <c r="C57" s="115" t="s">
+        <v>875</v>
+      </c>
+      <c r="D57">
+        <v>32</v>
+      </c>
+      <c r="F57" s="22"/>
+      <c r="G57" s="23" t="s">
+        <v>895</v>
+      </c>
+      <c r="H57" s="23" t="s">
+        <v>897</v>
+      </c>
+      <c r="I57" s="23" t="s">
+        <v>898</v>
+      </c>
+      <c r="J57" s="23" t="s">
+        <v>899</v>
+      </c>
+      <c r="K57" s="23" t="s">
+        <v>900</v>
+      </c>
+      <c r="L57" s="23" t="s">
+        <v>901</v>
+      </c>
+      <c r="M57" s="30" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="115" t="s">
+        <v>870</v>
+      </c>
+      <c r="B58">
+        <v>64</v>
+      </c>
+      <c r="C58" s="115" t="s">
+        <v>865</v>
+      </c>
+      <c r="D58">
+        <v>64</v>
+      </c>
+      <c r="F58" s="125" t="s">
+        <v>877</v>
+      </c>
+      <c r="G58" s="23">
+        <v>64</v>
+      </c>
+      <c r="H58" s="23"/>
+      <c r="I58" s="23"/>
+      <c r="J58" s="23"/>
+      <c r="K58" s="23"/>
+      <c r="L58" s="23">
+        <v>5.4</v>
+      </c>
+      <c r="M58" s="30">
+        <f>SUM(G58:L58)</f>
+        <v>69.400000000000006</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="115" t="s">
+        <v>878</v>
+      </c>
+      <c r="B59">
+        <v>32</v>
+      </c>
+      <c r="C59" s="115" t="s">
+        <v>876</v>
+      </c>
+      <c r="D59">
+        <v>128</v>
+      </c>
+      <c r="F59" s="125" t="s">
+        <v>870</v>
+      </c>
+      <c r="G59" s="23">
+        <v>64</v>
+      </c>
+      <c r="H59" s="23">
+        <v>15.75</v>
+      </c>
+      <c r="I59" s="23">
+        <v>1.8</v>
+      </c>
+      <c r="J59" s="23"/>
+      <c r="K59" s="23">
+        <v>5.4</v>
+      </c>
+      <c r="L59" s="23"/>
+      <c r="M59" s="30">
+        <f t="shared" ref="M59:M79" si="0">SUM(G59:L59)</f>
+        <v>86.95</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="115" t="s">
+        <v>879</v>
+      </c>
+      <c r="B60">
+        <v>160</v>
+      </c>
+      <c r="F60" s="125" t="s">
+        <v>878</v>
+      </c>
+      <c r="G60" s="23">
+        <v>32</v>
+      </c>
+      <c r="H60" s="23"/>
+      <c r="I60" s="23"/>
+      <c r="J60" s="23"/>
+      <c r="K60" s="23">
+        <v>9.9</v>
+      </c>
+      <c r="L60" s="23"/>
+      <c r="M60" s="30">
+        <f t="shared" si="0"/>
+        <v>41.9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="115" t="s">
+        <v>880</v>
+      </c>
+      <c r="B61">
+        <v>192</v>
+      </c>
+      <c r="F61" s="125" t="s">
+        <v>879</v>
+      </c>
+      <c r="G61" s="23">
+        <v>160</v>
+      </c>
+      <c r="H61" s="23"/>
+      <c r="I61" s="23"/>
+      <c r="J61" s="23">
+        <v>8.1</v>
+      </c>
+      <c r="K61" s="23"/>
+      <c r="L61" s="23"/>
+      <c r="M61" s="30">
+        <f t="shared" si="0"/>
+        <v>168.1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="115" t="s">
+        <v>881</v>
+      </c>
+      <c r="B62">
+        <v>64</v>
+      </c>
+      <c r="F62" s="125" t="s">
+        <v>880</v>
+      </c>
+      <c r="G62" s="23">
+        <v>160</v>
+      </c>
+      <c r="H62" s="23"/>
+      <c r="I62" s="23">
+        <v>27</v>
+      </c>
+      <c r="J62" s="23">
+        <v>1.35</v>
+      </c>
+      <c r="K62" s="23"/>
+      <c r="L62" s="23">
+        <v>0.45</v>
+      </c>
+      <c r="M62" s="30">
+        <f t="shared" si="0"/>
+        <v>188.79999999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="115" t="s">
+        <v>882</v>
+      </c>
+      <c r="B63">
+        <v>64</v>
+      </c>
+      <c r="F63" s="125" t="s">
+        <v>881</v>
+      </c>
+      <c r="G63" s="23">
+        <v>64</v>
+      </c>
+      <c r="H63" s="23"/>
+      <c r="I63" s="23"/>
+      <c r="J63" s="23"/>
+      <c r="K63" s="23"/>
+      <c r="L63" s="23">
+        <v>3.6</v>
+      </c>
+      <c r="M63" s="30">
+        <f t="shared" si="0"/>
+        <v>67.599999999999994</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="115" t="s">
+        <v>883</v>
+      </c>
+      <c r="B64">
+        <v>64</v>
+      </c>
+      <c r="F64" s="125" t="s">
+        <v>882</v>
+      </c>
+      <c r="G64" s="23">
+        <v>64</v>
+      </c>
+      <c r="H64" s="23"/>
+      <c r="I64" s="23"/>
+      <c r="J64" s="23"/>
+      <c r="K64" s="23"/>
+      <c r="L64" s="23"/>
+      <c r="M64" s="30">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" s="115" t="s">
+        <v>884</v>
+      </c>
+      <c r="B65">
+        <v>32</v>
+      </c>
+      <c r="F65" s="125" t="s">
+        <v>883</v>
+      </c>
+      <c r="G65" s="23">
+        <v>64</v>
+      </c>
+      <c r="H65" s="23"/>
+      <c r="I65" s="23">
+        <v>1.8</v>
+      </c>
+      <c r="J65" s="23"/>
+      <c r="K65" s="23"/>
+      <c r="L65" s="23"/>
+      <c r="M65" s="30">
+        <f t="shared" si="0"/>
+        <v>65.8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" s="115" t="s">
+        <v>885</v>
+      </c>
+      <c r="B66">
+        <v>64</v>
+      </c>
+      <c r="F66" s="125" t="s">
+        <v>884</v>
+      </c>
+      <c r="G66" s="23">
+        <v>32</v>
+      </c>
+      <c r="H66" s="23"/>
+      <c r="I66" s="23"/>
+      <c r="J66" s="23">
+        <v>1.35</v>
+      </c>
+      <c r="K66" s="23"/>
+      <c r="L66" s="23"/>
+      <c r="M66" s="30">
+        <f t="shared" si="0"/>
+        <v>33.35</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67" s="115" t="s">
+        <v>888</v>
+      </c>
+      <c r="B67">
+        <v>64</v>
+      </c>
+      <c r="F67" s="125" t="s">
+        <v>885</v>
+      </c>
+      <c r="G67" s="23">
+        <v>32</v>
+      </c>
+      <c r="H67" s="23"/>
+      <c r="I67" s="23">
+        <v>3.6</v>
+      </c>
+      <c r="J67" s="23">
+        <v>1.35</v>
+      </c>
+      <c r="K67" s="23"/>
+      <c r="L67" s="23">
+        <v>0.45</v>
+      </c>
+      <c r="M67" s="30">
+        <f t="shared" si="0"/>
+        <v>37.400000000000006</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="F68" s="125" t="s">
+        <v>875</v>
+      </c>
+      <c r="G68" s="23">
+        <v>-32</v>
+      </c>
+      <c r="H68" s="23"/>
+      <c r="I68" s="23"/>
+      <c r="J68" s="23">
+        <v>12.15</v>
+      </c>
+      <c r="K68" s="23"/>
+      <c r="L68" s="23"/>
+      <c r="M68" s="30">
+        <f t="shared" si="0"/>
+        <v>-19.850000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="F69" s="125" t="s">
+        <v>865</v>
+      </c>
+      <c r="G69" s="23">
+        <v>-64</v>
+      </c>
+      <c r="H69" s="23">
+        <v>20.25</v>
+      </c>
+      <c r="I69" s="23"/>
+      <c r="J69" s="23"/>
+      <c r="K69" s="23">
+        <v>9</v>
+      </c>
+      <c r="L69" s="23"/>
+      <c r="M69" s="30">
+        <f t="shared" si="0"/>
+        <v>-34.75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="F70" s="125" t="s">
+        <v>876</v>
+      </c>
+      <c r="G70" s="23">
+        <v>-128</v>
+      </c>
+      <c r="H70" s="23">
+        <v>11.25</v>
+      </c>
+      <c r="I70" s="23"/>
+      <c r="J70" s="23">
+        <v>12.15</v>
+      </c>
+      <c r="K70" s="23">
+        <v>6.3</v>
+      </c>
+      <c r="L70" s="23"/>
+      <c r="M70" s="30">
+        <f t="shared" si="0"/>
+        <v>-98.3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="F71" s="125" t="s">
+        <v>887</v>
+      </c>
+      <c r="G71" s="23"/>
+      <c r="H71" s="23"/>
+      <c r="I71" s="23"/>
+      <c r="J71" s="23"/>
+      <c r="K71" s="23">
+        <v>10.8</v>
+      </c>
+      <c r="L71" s="23"/>
+      <c r="M71" s="30">
+        <f t="shared" si="0"/>
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="F72" s="126" t="s">
+        <v>872</v>
+      </c>
+      <c r="G72" s="23">
+        <v>64</v>
+      </c>
+      <c r="H72" s="23"/>
+      <c r="I72" s="23"/>
+      <c r="J72" s="23">
+        <v>10.8</v>
+      </c>
+      <c r="K72" s="23"/>
+      <c r="L72" s="23"/>
+      <c r="M72" s="30">
+        <f t="shared" si="0"/>
+        <v>74.8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="F73" s="125" t="s">
+        <v>889</v>
+      </c>
+      <c r="G73" s="23"/>
+      <c r="H73" s="23"/>
+      <c r="I73" s="23"/>
+      <c r="J73" s="23"/>
+      <c r="K73" s="23"/>
+      <c r="L73" s="23"/>
+      <c r="M73" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="F74" s="125" t="s">
+        <v>890</v>
+      </c>
+      <c r="G74" s="23"/>
+      <c r="H74" s="23"/>
+      <c r="I74" s="23"/>
+      <c r="J74" s="23"/>
+      <c r="K74" s="23"/>
+      <c r="L74" s="23"/>
+      <c r="M74" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="F75" s="125" t="s">
+        <v>891</v>
+      </c>
+      <c r="G75" s="23"/>
+      <c r="H75" s="23"/>
+      <c r="I75" s="23"/>
+      <c r="J75" s="23"/>
+      <c r="K75" s="23"/>
+      <c r="L75" s="23"/>
+      <c r="M75" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="F76" s="125" t="s">
+        <v>892</v>
+      </c>
+      <c r="G76" s="23"/>
+      <c r="H76" s="23"/>
+      <c r="I76" s="23"/>
+      <c r="J76" s="23"/>
+      <c r="K76" s="23"/>
+      <c r="L76" s="23"/>
+      <c r="M76" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="F77" s="125" t="s">
+        <v>893</v>
+      </c>
+      <c r="G77" s="23"/>
+      <c r="H77" s="23"/>
+      <c r="I77" s="23"/>
+      <c r="J77" s="23">
+        <v>4.05</v>
+      </c>
+      <c r="K77" s="23"/>
+      <c r="L77" s="23"/>
+      <c r="M77" s="30">
+        <f t="shared" si="0"/>
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="F78" s="125" t="s">
+        <v>894</v>
+      </c>
+      <c r="G78" s="23"/>
+      <c r="H78" s="23"/>
+      <c r="I78" s="23"/>
+      <c r="J78" s="23"/>
+      <c r="K78" s="23"/>
+      <c r="L78" s="23"/>
+      <c r="M78" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="16" thickBot="1">
+      <c r="F79" s="127" t="s">
+        <v>902</v>
+      </c>
+      <c r="G79" s="16"/>
+      <c r="H79" s="16"/>
+      <c r="I79" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="J79" s="16"/>
+      <c r="K79" s="16"/>
+      <c r="L79" s="16"/>
+      <c r="M79" s="50">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -22375,7 +24712,7 @@
       <c r="K28" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="L28" s="104" t="s">
+      <c r="L28" s="111" t="s">
         <v>257</v>
       </c>
       <c r="M28" s="30">
@@ -22406,7 +24743,7 @@
       <c r="K29" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="L29" s="104"/>
+      <c r="L29" s="111"/>
       <c r="M29" s="30">
         <v>10</v>
       </c>
@@ -22439,7 +24776,7 @@
       <c r="K30" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="L30" s="104"/>
+      <c r="L30" s="111"/>
       <c r="M30" s="30">
         <v>10</v>
       </c>
@@ -22468,7 +24805,7 @@
       <c r="K31" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="L31" s="104"/>
+      <c r="L31" s="111"/>
       <c r="M31" s="30">
         <v>10</v>
       </c>
@@ -22503,7 +24840,7 @@
       <c r="K32" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="L32" s="104"/>
+      <c r="L32" s="111"/>
       <c r="M32" s="30">
         <v>10</v>
       </c>
@@ -22535,7 +24872,7 @@
       <c r="K33" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="L33" s="104"/>
+      <c r="L33" s="111"/>
       <c r="M33" s="30">
         <v>10</v>
       </c>
@@ -22566,7 +24903,7 @@
       <c r="K34" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="L34" s="104"/>
+      <c r="L34" s="111"/>
       <c r="M34" s="30">
         <v>10</v>
       </c>
@@ -22604,7 +24941,7 @@
       <c r="K35" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="L35" s="104"/>
+      <c r="L35" s="111"/>
       <c r="M35" s="30">
         <v>10</v>
       </c>
@@ -22638,7 +24975,7 @@
       <c r="K36" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="L36" s="104"/>
+      <c r="L36" s="111"/>
       <c r="M36" s="30">
         <v>10</v>
       </c>
@@ -22669,7 +25006,7 @@
       <c r="K37" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="L37" s="105"/>
+      <c r="L37" s="112"/>
       <c r="M37" s="50">
         <v>10</v>
       </c>
@@ -28305,10 +30642,10 @@
       <c r="I167" t="s">
         <v>765</v>
       </c>
-      <c r="J167" s="95" t="s">
+      <c r="J167" s="94" t="s">
         <v>67</v>
       </c>
-      <c r="K167" s="95" t="s">
+      <c r="K167" s="94" t="s">
         <v>67</v>
       </c>
       <c r="L167" t="s">
@@ -28343,10 +30680,10 @@
       <c r="I168" t="s">
         <v>15</v>
       </c>
-      <c r="J168" s="95" t="s">
+      <c r="J168" s="94" t="s">
         <v>67</v>
       </c>
-      <c r="K168" s="95" t="s">
+      <c r="K168" s="94" t="s">
         <v>67</v>
       </c>
       <c r="L168" t="s">
@@ -28381,7 +30718,7 @@
       <c r="I169" t="s">
         <v>15</v>
       </c>
-      <c r="J169" s="95" t="s">
+      <c r="J169" s="94" t="s">
         <v>67</v>
       </c>
       <c r="K169" s="6" t="s">
@@ -28404,7 +30741,7 @@
       <c r="C170" t="s">
         <v>5</v>
       </c>
-      <c r="D170" s="95" t="s">
+      <c r="D170" s="94" t="s">
         <v>36</v>
       </c>
       <c r="E170" t="s">
@@ -28422,7 +30759,7 @@
       <c r="I170" t="s">
         <v>15</v>
       </c>
-      <c r="J170" s="95" t="s">
+      <c r="J170" s="94" t="s">
         <v>67</v>
       </c>
       <c r="L170" t="s">
@@ -28448,7 +30785,7 @@
       <c r="E171" t="s">
         <v>183</v>
       </c>
-      <c r="F171" s="95" t="s">
+      <c r="F171" s="94" t="s">
         <v>201</v>
       </c>
       <c r="G171" t="s">
@@ -28471,7 +30808,7 @@
       </c>
     </row>
     <row r="172" spans="1:15">
-      <c r="B172" s="95" t="s">
+      <c r="B172" s="94" t="s">
         <v>20</v>
       </c>
       <c r="C172" t="s">
@@ -28480,10 +30817,10 @@
       <c r="D172" t="s">
         <v>256</v>
       </c>
-      <c r="E172" s="95" t="s">
+      <c r="E172" s="94" t="s">
         <v>183</v>
       </c>
-      <c r="F172" s="95" t="s">
+      <c r="F172" s="94" t="s">
         <v>20</v>
       </c>
       <c r="G172" t="s">
@@ -28506,19 +30843,19 @@
       <c r="A173">
         <v>6</v>
       </c>
-      <c r="B173" s="95" t="s">
+      <c r="B173" s="94" t="s">
         <v>79</v>
       </c>
-      <c r="C173" s="95" t="s">
+      <c r="C173" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="D173" s="95" t="s">
+      <c r="D173" s="94" t="s">
         <v>256</v>
       </c>
-      <c r="E173" s="95" t="s">
+      <c r="E173" s="94" t="s">
         <v>183</v>
       </c>
-      <c r="F173" s="95" t="s">
+      <c r="F173" s="94" t="s">
         <v>20</v>
       </c>
       <c r="G173" t="s">
@@ -28533,7 +30870,7 @@
       <c r="L173" t="s">
         <v>183</v>
       </c>
-      <c r="M173" s="95" t="s">
+      <c r="M173" s="94" t="s">
         <v>216</v>
       </c>
     </row>
@@ -28556,7 +30893,7 @@
       <c r="G174" t="s">
         <v>6</v>
       </c>
-      <c r="H174" s="95" t="s">
+      <c r="H174" s="94" t="s">
         <v>46</v>
       </c>
       <c r="I174" t="s">
@@ -28565,7 +30902,7 @@
       <c r="L174" t="s">
         <v>53</v>
       </c>
-      <c r="M174" s="95" t="s">
+      <c r="M174" s="94" t="s">
         <v>216</v>
       </c>
     </row>
@@ -28579,13 +30916,13 @@
       <c r="G175" t="s">
         <v>208</v>
       </c>
-      <c r="H175" s="95" t="s">
+      <c r="H175" s="94" t="s">
         <v>46</v>
       </c>
       <c r="I175" t="s">
         <v>15</v>
       </c>
-      <c r="M175" s="95" t="s">
+      <c r="M175" s="94" t="s">
         <v>216</v>
       </c>
     </row>
@@ -28596,7 +30933,7 @@
       <c r="G176" t="s">
         <v>208</v>
       </c>
-      <c r="H176" s="95" t="s">
+      <c r="H176" s="94" t="s">
         <v>46</v>
       </c>
       <c r="I176" t="s">
@@ -28613,13 +30950,13 @@
       <c r="F177" t="s">
         <v>21</v>
       </c>
-      <c r="G177" s="95" t="s">
+      <c r="G177" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="H177" s="95" t="s">
+      <c r="H177" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="I177" s="95" t="s">
+      <c r="I177" s="94" t="s">
         <v>20</v>
       </c>
     </row>
@@ -28627,35 +30964,35 @@
       <c r="F178" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="G178" s="95" t="s">
+      <c r="G178" s="94" t="s">
         <v>15</v>
       </c>
       <c r="H178" t="s">
         <v>49</v>
       </c>
-      <c r="I178" s="95" t="s">
+      <c r="I178" s="94" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="179" spans="1:14">
-      <c r="G179" s="95" t="s">
+      <c r="G179" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="H179" s="95" t="s">
+      <c r="H179" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="I179" s="95" t="s">
+      <c r="I179" s="94" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="180" spans="1:14">
-      <c r="G180" s="95" t="s">
+      <c r="G180" s="94" t="s">
         <v>10</v>
       </c>
       <c r="H180" t="s">
         <v>20</v>
       </c>
-      <c r="I180" s="95" t="s">
+      <c r="I180" s="94" t="s">
         <v>21</v>
       </c>
     </row>
@@ -28663,18 +31000,18 @@
       <c r="A181">
         <v>14</v>
       </c>
-      <c r="G181" s="95" t="s">
+      <c r="G181" s="94" t="s">
         <v>19</v>
       </c>
       <c r="H181" t="s">
         <v>20</v>
       </c>
-      <c r="I181" s="95" t="s">
+      <c r="I181" s="94" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="182" spans="1:14">
-      <c r="G182" s="95" t="s">
+      <c r="G182" s="94" t="s">
         <v>19</v>
       </c>
       <c r="H182">
@@ -30132,7 +32469,7 @@
       <c r="C272" t="s">
         <v>303</v>
       </c>
-      <c r="D272" s="94"/>
+      <c r="D272" s="93"/>
       <c r="E272" t="s">
         <v>18</v>
       </c>
@@ -30202,9 +32539,9 @@
       <c r="A275" t="s">
         <v>58</v>
       </c>
-      <c r="B275" s="94"/>
-      <c r="C275" s="94"/>
-      <c r="D275" s="94"/>
+      <c r="B275" s="93"/>
+      <c r="C275" s="93"/>
+      <c r="D275" s="93"/>
       <c r="E275" t="s">
         <v>25</v>
       </c>
@@ -30278,8 +32615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Y194"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="G42" sqref="A42:XFD44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M17" sqref="M17:N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.23046875" defaultRowHeight="15.5"/>
@@ -31409,7 +33746,7 @@
       <c r="F24" s="38"/>
       <c r="G24" s="38"/>
       <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
+      <c r="I24" s="81"/>
       <c r="J24">
         <v>4</v>
       </c>
@@ -37122,7 +39459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L81"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
@@ -39035,8 +41372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T122"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.23046875" defaultRowHeight="15.5"/>
@@ -41716,8 +44053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U121"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="F98" sqref="F98"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="M91" sqref="M91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.23046875" defaultRowHeight="15.5"/>
@@ -44041,14 +46378,14 @@
       <c r="K91" t="s">
         <v>64</v>
       </c>
-      <c r="L91" s="17" t="s">
-        <v>841</v>
-      </c>
-      <c r="M91" s="17" t="s">
-        <v>841</v>
-      </c>
-      <c r="N91" s="17" t="s">
-        <v>841</v>
+      <c r="L91" s="114" t="s">
+        <v>905</v>
+      </c>
+      <c r="M91" s="114" t="s">
+        <v>905</v>
+      </c>
+      <c r="N91" s="114" t="s">
+        <v>905</v>
       </c>
       <c r="Q91" s="81"/>
       <c r="R91" s="81"/>
@@ -44392,7 +46729,9 @@
       <c r="F100" t="s">
         <v>286</v>
       </c>
-      <c r="G100" s="33"/>
+      <c r="G100" s="17" t="s">
+        <v>906</v>
+      </c>
       <c r="H100" s="33"/>
       <c r="I100" s="33"/>
       <c r="K100" t="s">

--- a/2017沉迷收肾-排谷-新.xlsx
+++ b/2017沉迷收肾-排谷-新.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="9520" tabRatio="500" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="9520" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="3月" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10590" uniqueCount="916">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10592" uniqueCount="900">
   <si>
     <t>3.8亚克力school days Vol3</t>
   </si>
@@ -2566,18 +2566,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>补退款</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>七海</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>yui</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>子晴</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -2586,14 +2574,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>玉</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>aimer</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>花花</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -2602,67 +2582,7 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>小珠</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>木慕</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>kuma</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>猞猁</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>徵言</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>竿</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>醋萄</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>夏亚</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>wonder</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>希</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>毛总</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>久瑟</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>总数</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>已肾</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>差</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>本体补退</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -3158,6 +3078,18 @@
   <si>
     <t>徵言</t>
     <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>已肾</t>
+  </si>
+  <si>
+    <t>本体补退</t>
+  </si>
+  <si>
+    <t>无法判断</t>
+  </si>
+  <si>
+    <t>貌似欠一堆肾</t>
   </si>
 </sst>
 </file>
@@ -4001,8 +3933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y340"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D142" sqref="D142"/>
+    <sheetView topLeftCell="A178" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H188" sqref="H188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.23046875" defaultRowHeight="15.5"/>
@@ -7548,13 +7480,13 @@
         <v>57</v>
       </c>
       <c r="H138" s="17" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="I138" s="17" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="J138" s="17" t="s">
-        <v>841</v>
+        <v>821</v>
       </c>
       <c r="K138" s="56" t="s">
         <v>189</v>
@@ -7585,7 +7517,7 @@
         <v>62</v>
       </c>
       <c r="J139" s="111" t="s">
-        <v>842</v>
+        <v>822</v>
       </c>
       <c r="K139" s="56" t="s">
         <v>189</v>
@@ -7658,7 +7590,7 @@
         <v>49</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>842</v>
+        <v>822</v>
       </c>
       <c r="E142" s="6" t="s">
         <v>189</v>
@@ -7683,10 +7615,10 @@
         <v>52</v>
       </c>
       <c r="B143" s="17" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C143" s="17" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="D143" s="6" t="s">
         <v>189</v>
@@ -7697,10 +7629,10 @@
         <v>52</v>
       </c>
       <c r="H143" s="17" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="I143" s="17" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="J143" s="6" t="s">
         <v>189</v>
@@ -7898,7 +7830,7 @@
         <v>80</v>
       </c>
       <c r="B150" s="17" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="C150" s="6" t="s">
         <v>189</v>
@@ -7910,10 +7842,10 @@
         <v>80</v>
       </c>
       <c r="H150" s="17" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="I150" s="17" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="J150" s="6" t="s">
         <v>189</v>
@@ -8317,7 +8249,7 @@
     </row>
     <row r="165" spans="1:14">
       <c r="A165" t="s">
-        <v>814</v>
+        <v>88</v>
       </c>
       <c r="L165" s="81"/>
       <c r="M165" s="81"/>
@@ -8325,16 +8257,16 @@
     </row>
     <row r="166" spans="1:14">
       <c r="B166" t="s">
-        <v>835</v>
+        <v>91</v>
       </c>
       <c r="C166" s="100" t="s">
-        <v>836</v>
+        <v>896</v>
       </c>
       <c r="D166" t="s">
-        <v>837</v>
+        <v>93</v>
       </c>
       <c r="E166" t="s">
-        <v>838</v>
+        <v>897</v>
       </c>
       <c r="L166" s="81"/>
       <c r="M166" s="81"/>
@@ -8342,9 +8274,12 @@
     </row>
     <row r="167" spans="1:14">
       <c r="A167" t="s">
-        <v>815</v>
+        <v>183</v>
       </c>
       <c r="B167">
+        <v>3</v>
+      </c>
+      <c r="C167">
         <v>3</v>
       </c>
       <c r="L167" s="81"/>
@@ -8353,10 +8288,13 @@
     </row>
     <row r="168" spans="1:14">
       <c r="A168" t="s">
-        <v>816</v>
+        <v>115</v>
       </c>
       <c r="B168">
         <v>10</v>
+      </c>
+      <c r="C168">
+        <v>8</v>
       </c>
       <c r="L168" s="81"/>
       <c r="M168" s="81"/>
@@ -8364,10 +8302,13 @@
     </row>
     <row r="169" spans="1:14">
       <c r="A169" t="s">
-        <v>817</v>
+        <v>43</v>
       </c>
       <c r="B169">
         <v>12</v>
+      </c>
+      <c r="C169">
+        <v>8</v>
       </c>
       <c r="L169" s="81"/>
       <c r="M169" s="81"/>
@@ -8375,10 +8316,13 @@
     </row>
     <row r="170" spans="1:14">
       <c r="A170" t="s">
-        <v>818</v>
+        <v>19</v>
       </c>
       <c r="B170">
         <v>7</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
       </c>
       <c r="L170" s="81"/>
       <c r="M170" s="81"/>
@@ -8386,10 +8330,13 @@
     </row>
     <row r="171" spans="1:14">
       <c r="A171" t="s">
-        <v>819</v>
+        <v>573</v>
       </c>
       <c r="B171">
         <v>7</v>
+      </c>
+      <c r="C171">
+        <v>0</v>
       </c>
       <c r="L171" s="81"/>
       <c r="M171" s="81"/>
@@ -8397,10 +8344,13 @@
     </row>
     <row r="172" spans="1:14">
       <c r="A172" t="s">
-        <v>820</v>
+        <v>124</v>
       </c>
       <c r="B172">
         <v>17</v>
+      </c>
+      <c r="C172">
+        <v>4</v>
       </c>
       <c r="L172" s="81"/>
       <c r="M172" s="81"/>
@@ -8408,10 +8358,13 @@
     </row>
     <row r="173" spans="1:14">
       <c r="A173" t="s">
-        <v>821</v>
+        <v>13</v>
       </c>
       <c r="B173">
         <v>8</v>
+      </c>
+      <c r="C173">
+        <v>12</v>
       </c>
       <c r="L173" s="81"/>
       <c r="M173" s="81"/>
@@ -8419,10 +8372,13 @@
     </row>
     <row r="174" spans="1:14">
       <c r="A174" t="s">
-        <v>822</v>
+        <v>10</v>
       </c>
       <c r="B174">
         <v>4</v>
+      </c>
+      <c r="C174">
+        <v>2</v>
       </c>
       <c r="L174" s="81"/>
       <c r="M174" s="81"/>
@@ -8430,10 +8386,13 @@
     </row>
     <row r="175" spans="1:14">
       <c r="A175" t="s">
-        <v>823</v>
+        <v>96</v>
       </c>
       <c r="B175">
         <v>4</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
       </c>
       <c r="L175" s="81"/>
       <c r="M175" s="81"/>
@@ -8441,10 +8400,13 @@
     </row>
     <row r="176" spans="1:14">
       <c r="A176" t="s">
-        <v>824</v>
+        <v>45</v>
       </c>
       <c r="B176">
         <v>14</v>
+      </c>
+      <c r="C176">
+        <v>8</v>
       </c>
       <c r="L176" s="81"/>
       <c r="M176" s="81"/>
@@ -8457,6 +8419,9 @@
       <c r="B177">
         <v>4</v>
       </c>
+      <c r="C177">
+        <v>4</v>
+      </c>
       <c r="L177" s="81"/>
       <c r="M177" s="81"/>
       <c r="N177" s="81"/>
@@ -8468,6 +8433,9 @@
       <c r="B178">
         <v>4</v>
       </c>
+      <c r="C178" t="s">
+        <v>898</v>
+      </c>
       <c r="L178" s="81"/>
       <c r="M178" s="81"/>
       <c r="N178" s="81"/>
@@ -8479,6 +8447,9 @@
       <c r="B179">
         <v>4</v>
       </c>
+      <c r="C179">
+        <v>4</v>
+      </c>
       <c r="L179" s="81"/>
       <c r="M179" s="81"/>
       <c r="N179" s="81"/>
@@ -8490,15 +8461,21 @@
       <c r="B180">
         <v>3</v>
       </c>
+      <c r="C180">
+        <v>4</v>
+      </c>
       <c r="L180" s="81"/>
       <c r="M180" s="81"/>
       <c r="N180" s="81"/>
     </row>
     <row r="181" spans="1:14">
       <c r="A181" s="4" t="s">
-        <v>825</v>
+        <v>36</v>
       </c>
       <c r="B181">
+        <v>2</v>
+      </c>
+      <c r="C181">
         <v>2</v>
       </c>
       <c r="L181" s="81"/>
@@ -8507,10 +8484,13 @@
     </row>
     <row r="182" spans="1:14">
       <c r="A182" s="4" t="s">
-        <v>826</v>
+        <v>62</v>
       </c>
       <c r="B182">
         <v>2</v>
+      </c>
+      <c r="C182">
+        <v>6</v>
       </c>
       <c r="L182" s="81"/>
       <c r="M182" s="81"/>
@@ -8518,10 +8498,13 @@
     </row>
     <row r="183" spans="1:14">
       <c r="A183" s="4" t="s">
-        <v>827</v>
+        <v>132</v>
       </c>
       <c r="B183">
         <v>6</v>
+      </c>
+      <c r="C183">
+        <v>2</v>
       </c>
       <c r="L183" s="81"/>
       <c r="M183" s="81"/>
@@ -8529,9 +8512,12 @@
     </row>
     <row r="184" spans="1:14">
       <c r="A184" s="4" t="s">
-        <v>828</v>
+        <v>49</v>
       </c>
       <c r="B184">
+        <v>2</v>
+      </c>
+      <c r="C184">
         <v>2</v>
       </c>
       <c r="L184" s="81"/>
@@ -8540,9 +8526,12 @@
     </row>
     <row r="185" spans="1:14">
       <c r="A185" s="4" t="s">
-        <v>829</v>
+        <v>67</v>
       </c>
       <c r="B185">
+        <v>7</v>
+      </c>
+      <c r="C185">
         <v>7</v>
       </c>
       <c r="L185" s="81"/>
@@ -8551,9 +8540,12 @@
     </row>
     <row r="186" spans="1:14">
       <c r="A186" s="4" t="s">
-        <v>830</v>
+        <v>65</v>
       </c>
       <c r="B186">
+        <v>4</v>
+      </c>
+      <c r="C186">
         <v>4</v>
       </c>
       <c r="L186" s="81"/>
@@ -8562,10 +8554,13 @@
     </row>
     <row r="187" spans="1:14">
       <c r="A187" s="4" t="s">
-        <v>831</v>
+        <v>8</v>
       </c>
       <c r="B187">
         <v>6</v>
+      </c>
+      <c r="C187">
+        <v>4</v>
       </c>
       <c r="L187" s="81"/>
       <c r="M187" s="81"/>
@@ -8573,10 +8568,13 @@
     </row>
     <row r="188" spans="1:14">
       <c r="A188" s="4" t="s">
-        <v>832</v>
+        <v>26</v>
       </c>
       <c r="B188">
         <v>5</v>
+      </c>
+      <c r="C188" t="s">
+        <v>899</v>
       </c>
       <c r="L188" s="81"/>
       <c r="M188" s="81"/>
@@ -8584,10 +8582,13 @@
     </row>
     <row r="189" spans="1:14">
       <c r="A189" s="4" t="s">
-        <v>833</v>
+        <v>32</v>
       </c>
       <c r="B189">
         <v>3</v>
+      </c>
+      <c r="C189">
+        <v>0</v>
       </c>
       <c r="L189" s="81"/>
       <c r="M189" s="81"/>
@@ -8595,9 +8596,12 @@
     </row>
     <row r="190" spans="1:14">
       <c r="A190" s="4" t="s">
-        <v>834</v>
+        <v>113</v>
       </c>
       <c r="B190">
+        <v>4</v>
+      </c>
+      <c r="C190">
         <v>4</v>
       </c>
     </row>
@@ -19737,7 +19741,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="112" t="s">
-        <v>843</v>
+        <v>823</v>
       </c>
       <c r="B1" s="112">
         <v>1</v>
@@ -19767,7 +19771,7 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>858</v>
+        <v>838</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -19818,13 +19822,13 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="112" t="s">
-        <v>844</v>
+        <v>824</v>
       </c>
       <c r="B4" s="112" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="112" t="s">
-        <v>845</v>
+        <v>825</v>
       </c>
       <c r="D4" s="112" t="s">
         <v>19</v>
@@ -19876,13 +19880,13 @@
         <v>79</v>
       </c>
       <c r="G6" s="119" t="s">
-        <v>863</v>
+        <v>843</v>
       </c>
       <c r="H6" s="119" t="s">
-        <v>863</v>
+        <v>843</v>
       </c>
       <c r="I6" s="119" t="s">
-        <v>863</v>
+        <v>843</v>
       </c>
       <c r="J6" s="113"/>
       <c r="K6">
@@ -19918,12 +19922,12 @@
         <v>5</v>
       </c>
       <c r="J7" s="116" t="s">
-        <v>861</v>
+        <v>841</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="112" t="s">
-        <v>846</v>
+        <v>826</v>
       </c>
       <c r="B8" s="112" t="s">
         <v>5</v>
@@ -19945,7 +19949,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="112" t="s">
-        <v>847</v>
+        <v>827</v>
       </c>
       <c r="B9" s="112" t="s">
         <v>39</v>
@@ -20032,22 +20036,22 @@
         <v>462</v>
       </c>
       <c r="B13" s="115" t="s">
-        <v>848</v>
+        <v>828</v>
       </c>
       <c r="C13" s="115" t="s">
-        <v>848</v>
+        <v>828</v>
       </c>
       <c r="D13" s="115" t="s">
-        <v>848</v>
+        <v>828</v>
       </c>
       <c r="E13" s="115" t="s">
-        <v>848</v>
+        <v>828</v>
       </c>
       <c r="F13" s="115" t="s">
-        <v>848</v>
+        <v>828</v>
       </c>
       <c r="G13" s="113" t="s">
-        <v>848</v>
+        <v>828</v>
       </c>
       <c r="H13" s="113"/>
       <c r="I13" s="113"/>
@@ -20067,10 +20071,10 @@
         <v>177</v>
       </c>
       <c r="E14" s="119" t="s">
-        <v>863</v>
+        <v>843</v>
       </c>
       <c r="F14" s="119" t="s">
-        <v>863</v>
+        <v>843</v>
       </c>
       <c r="G14" s="114"/>
       <c r="H14" s="113"/>
@@ -20082,16 +20086,16 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="112" t="s">
-        <v>866</v>
+        <v>846</v>
       </c>
       <c r="B15" s="119" t="s">
-        <v>869</v>
+        <v>849</v>
       </c>
       <c r="C15" s="118" t="s">
-        <v>869</v>
+        <v>849</v>
       </c>
       <c r="D15" s="118" t="s">
-        <v>864</v>
+        <v>844</v>
       </c>
       <c r="E15" s="113"/>
       <c r="F15" s="113"/>
@@ -20105,7 +20109,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="112" t="s">
-        <v>849</v>
+        <v>829</v>
       </c>
       <c r="B16" s="112" t="s">
         <v>303</v>
@@ -20149,16 +20153,16 @@
         <v>183</v>
       </c>
       <c r="G17" s="115" t="s">
-        <v>860</v>
+        <v>840</v>
       </c>
       <c r="H17" s="115" t="s">
-        <v>860</v>
+        <v>840</v>
       </c>
       <c r="I17" s="115" t="s">
-        <v>860</v>
+        <v>840</v>
       </c>
       <c r="J17" s="115" t="s">
-        <v>860</v>
+        <v>840</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -20175,7 +20179,7 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="112" t="s">
-        <v>850</v>
+        <v>830</v>
       </c>
       <c r="B19" s="112">
         <v>1</v>
@@ -20350,19 +20354,19 @@
         <v>195</v>
       </c>
       <c r="B26" s="115" t="s">
-        <v>851</v>
+        <v>831</v>
       </c>
       <c r="C26" s="116" t="s">
-        <v>852</v>
+        <v>832</v>
       </c>
       <c r="D26" s="119" t="s">
-        <v>862</v>
+        <v>842</v>
       </c>
       <c r="E26" s="118" t="s">
-        <v>864</v>
+        <v>844</v>
       </c>
       <c r="F26" s="119" t="s">
-        <v>863</v>
+        <v>843</v>
       </c>
       <c r="G26" s="113"/>
       <c r="H26" s="113"/>
@@ -20402,7 +20406,7 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="112" t="s">
-        <v>853</v>
+        <v>833</v>
       </c>
       <c r="B28" s="112" t="s">
         <v>5</v>
@@ -20422,7 +20426,7 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="112" t="s">
-        <v>854</v>
+        <v>834</v>
       </c>
       <c r="B29" s="112" t="s">
         <v>39</v>
@@ -20557,28 +20561,28 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="112" t="s">
-        <v>865</v>
+        <v>845</v>
       </c>
       <c r="B35" s="118" t="s">
-        <v>869</v>
+        <v>849</v>
       </c>
       <c r="C35" s="118" t="s">
-        <v>869</v>
+        <v>849</v>
       </c>
       <c r="D35" s="119" t="s">
-        <v>869</v>
+        <v>849</v>
       </c>
       <c r="E35" s="119" t="s">
-        <v>870</v>
+        <v>850</v>
       </c>
       <c r="F35" s="119" t="s">
-        <v>870</v>
+        <v>850</v>
       </c>
       <c r="G35" s="119" t="s">
-        <v>871</v>
+        <v>851</v>
       </c>
       <c r="H35" s="119" t="s">
-        <v>868</v>
+        <v>848</v>
       </c>
       <c r="I35" s="113"/>
       <c r="J35" s="113"/>
@@ -20654,7 +20658,7 @@
         <v>356</v>
       </c>
       <c r="I38" s="120" t="s">
-        <v>863</v>
+        <v>843</v>
       </c>
       <c r="J38" s="113"/>
       <c r="K38">
@@ -20794,7 +20798,7 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="112" t="s">
-        <v>855</v>
+        <v>835</v>
       </c>
       <c r="B45" s="112" t="s">
         <v>5</v>
@@ -20812,7 +20816,7 @@
         <v>39</v>
       </c>
       <c r="G45" s="116" t="s">
-        <v>859</v>
+        <v>839</v>
       </c>
       <c r="H45" s="113"/>
       <c r="I45" s="113"/>
@@ -20820,7 +20824,7 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="112" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="B46" s="112" t="s">
         <v>19</v>
@@ -20847,19 +20851,19 @@
         <v>195</v>
       </c>
       <c r="B47" s="115" t="s">
-        <v>851</v>
+        <v>831</v>
       </c>
       <c r="C47" s="116" t="s">
-        <v>852</v>
+        <v>832</v>
       </c>
       <c r="D47" s="119" t="s">
-        <v>862</v>
+        <v>842</v>
       </c>
       <c r="E47" s="119" t="s">
-        <v>864</v>
+        <v>844</v>
       </c>
       <c r="F47" s="119" t="s">
-        <v>863</v>
+        <v>843</v>
       </c>
       <c r="G47" s="114"/>
       <c r="H47" s="114"/>
@@ -20907,10 +20911,10 @@
         <v>177</v>
       </c>
       <c r="E49" s="119" t="s">
-        <v>863</v>
+        <v>843</v>
       </c>
       <c r="F49" s="119" t="s">
-        <v>863</v>
+        <v>843</v>
       </c>
       <c r="G49" s="113"/>
       <c r="H49" s="113"/>
@@ -20922,19 +20926,19 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="112" t="s">
-        <v>867</v>
+        <v>847</v>
       </c>
       <c r="B50" s="119" t="s">
-        <v>871</v>
+        <v>851</v>
       </c>
       <c r="C50" s="118" t="s">
-        <v>869</v>
+        <v>849</v>
       </c>
       <c r="D50" s="118" t="s">
-        <v>869</v>
+        <v>849</v>
       </c>
       <c r="E50" s="118" t="s">
-        <v>869</v>
+        <v>849</v>
       </c>
       <c r="F50" s="114"/>
       <c r="G50" s="114"/>
@@ -20992,19 +20996,19 @@
         <v>48</v>
       </c>
       <c r="B53" s="115" t="s">
-        <v>857</v>
+        <v>837</v>
       </c>
       <c r="C53" s="115" t="s">
-        <v>857</v>
+        <v>837</v>
       </c>
       <c r="D53" s="115" t="s">
-        <v>857</v>
+        <v>837</v>
       </c>
       <c r="E53" s="115" t="s">
-        <v>857</v>
+        <v>837</v>
       </c>
       <c r="F53" s="115" t="s">
-        <v>857</v>
+        <v>837</v>
       </c>
       <c r="G53" s="113"/>
       <c r="H53" s="113"/>
@@ -21045,19 +21049,19 @@
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="112" t="s">
-        <v>872</v>
+        <v>852</v>
       </c>
       <c r="C56" s="112" t="s">
-        <v>873</v>
+        <v>853</v>
       </c>
       <c r="F56" s="121" t="s">
-        <v>885</v>
+        <v>865</v>
       </c>
       <c r="G56" s="21" t="s">
-        <v>895</v>
+        <v>875</v>
       </c>
       <c r="H56" s="21" t="s">
-        <v>903</v>
+        <v>883</v>
       </c>
       <c r="I56" s="21"/>
       <c r="J56" s="21"/>
@@ -21067,55 +21071,55 @@
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="112" t="s">
-        <v>876</v>
+        <v>856</v>
       </c>
       <c r="B57">
         <v>64</v>
       </c>
       <c r="C57" s="112" t="s">
-        <v>874</v>
+        <v>854</v>
       </c>
       <c r="D57">
         <v>32</v>
       </c>
       <c r="F57" s="22"/>
       <c r="G57" s="23" t="s">
-        <v>894</v>
+        <v>874</v>
       </c>
       <c r="H57" s="23" t="s">
-        <v>896</v>
+        <v>876</v>
       </c>
       <c r="I57" s="23" t="s">
-        <v>897</v>
+        <v>877</v>
       </c>
       <c r="J57" s="23" t="s">
-        <v>898</v>
+        <v>878</v>
       </c>
       <c r="K57" s="23" t="s">
-        <v>899</v>
+        <v>879</v>
       </c>
       <c r="L57" s="23" t="s">
-        <v>900</v>
+        <v>880</v>
       </c>
       <c r="M57" s="30" t="s">
-        <v>902</v>
+        <v>882</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="112" t="s">
-        <v>869</v>
+        <v>849</v>
       </c>
       <c r="B58">
         <v>64</v>
       </c>
       <c r="C58" s="112" t="s">
-        <v>864</v>
+        <v>844</v>
       </c>
       <c r="D58">
         <v>64</v>
       </c>
       <c r="F58" s="122" t="s">
-        <v>876</v>
+        <v>856</v>
       </c>
       <c r="G58" s="23">
         <v>64</v>
@@ -21134,19 +21138,19 @@
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="112" t="s">
-        <v>877</v>
+        <v>857</v>
       </c>
       <c r="B59">
         <v>32</v>
       </c>
       <c r="C59" s="112" t="s">
-        <v>875</v>
+        <v>855</v>
       </c>
       <c r="D59">
         <v>128</v>
       </c>
       <c r="F59" s="122" t="s">
-        <v>869</v>
+        <v>849</v>
       </c>
       <c r="G59" s="23">
         <v>64</v>
@@ -21169,13 +21173,13 @@
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="112" t="s">
-        <v>878</v>
+        <v>858</v>
       </c>
       <c r="B60">
         <v>160</v>
       </c>
       <c r="F60" s="122" t="s">
-        <v>877</v>
+        <v>857</v>
       </c>
       <c r="G60" s="23">
         <v>32</v>
@@ -21194,13 +21198,13 @@
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="112" t="s">
-        <v>879</v>
+        <v>859</v>
       </c>
       <c r="B61">
         <v>192</v>
       </c>
       <c r="F61" s="122" t="s">
-        <v>878</v>
+        <v>858</v>
       </c>
       <c r="G61" s="23">
         <v>160</v>
@@ -21219,13 +21223,13 @@
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="112" t="s">
-        <v>880</v>
+        <v>860</v>
       </c>
       <c r="B62">
         <v>64</v>
       </c>
       <c r="F62" s="122" t="s">
-        <v>879</v>
+        <v>859</v>
       </c>
       <c r="G62" s="23">
         <v>160</v>
@@ -21248,13 +21252,13 @@
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="112" t="s">
-        <v>881</v>
+        <v>861</v>
       </c>
       <c r="B63">
         <v>64</v>
       </c>
       <c r="F63" s="122" t="s">
-        <v>880</v>
+        <v>860</v>
       </c>
       <c r="G63" s="23">
         <v>64</v>
@@ -21273,13 +21277,13 @@
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="112" t="s">
-        <v>882</v>
+        <v>862</v>
       </c>
       <c r="B64">
         <v>64</v>
       </c>
       <c r="F64" s="122" t="s">
-        <v>881</v>
+        <v>861</v>
       </c>
       <c r="G64" s="23">
         <v>64</v>
@@ -21296,13 +21300,13 @@
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="112" t="s">
-        <v>883</v>
+        <v>863</v>
       </c>
       <c r="B65">
         <v>32</v>
       </c>
       <c r="F65" s="122" t="s">
-        <v>882</v>
+        <v>862</v>
       </c>
       <c r="G65" s="23">
         <v>64</v>
@@ -21321,13 +21325,13 @@
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="112" t="s">
-        <v>884</v>
+        <v>864</v>
       </c>
       <c r="B66">
         <v>64</v>
       </c>
       <c r="F66" s="122" t="s">
-        <v>883</v>
+        <v>863</v>
       </c>
       <c r="G66" s="23">
         <v>32</v>
@@ -21346,13 +21350,13 @@
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="112" t="s">
-        <v>887</v>
+        <v>867</v>
       </c>
       <c r="B67">
         <v>64</v>
       </c>
       <c r="F67" s="122" t="s">
-        <v>884</v>
+        <v>864</v>
       </c>
       <c r="G67" s="23">
         <v>32</v>
@@ -21375,7 +21379,7 @@
     </row>
     <row r="68" spans="1:13">
       <c r="F68" s="122" t="s">
-        <v>874</v>
+        <v>854</v>
       </c>
       <c r="G68" s="23">
         <v>-32</v>
@@ -21394,7 +21398,7 @@
     </row>
     <row r="69" spans="1:13">
       <c r="F69" s="122" t="s">
-        <v>864</v>
+        <v>844</v>
       </c>
       <c r="G69" s="23">
         <v>-64</v>
@@ -21415,7 +21419,7 @@
     </row>
     <row r="70" spans="1:13">
       <c r="F70" s="122" t="s">
-        <v>875</v>
+        <v>855</v>
       </c>
       <c r="G70" s="23">
         <v>-128</v>
@@ -21438,7 +21442,7 @@
     </row>
     <row r="71" spans="1:13">
       <c r="F71" s="122" t="s">
-        <v>886</v>
+        <v>866</v>
       </c>
       <c r="G71" s="23"/>
       <c r="H71" s="23"/>
@@ -21455,7 +21459,7 @@
     </row>
     <row r="72" spans="1:13">
       <c r="F72" s="123" t="s">
-        <v>871</v>
+        <v>851</v>
       </c>
       <c r="G72" s="23">
         <v>64</v>
@@ -21474,7 +21478,7 @@
     </row>
     <row r="73" spans="1:13">
       <c r="F73" s="122" t="s">
-        <v>888</v>
+        <v>868</v>
       </c>
       <c r="G73" s="23"/>
       <c r="H73" s="23"/>
@@ -21489,7 +21493,7 @@
     </row>
     <row r="74" spans="1:13">
       <c r="F74" s="122" t="s">
-        <v>889</v>
+        <v>869</v>
       </c>
       <c r="G74" s="23"/>
       <c r="H74" s="23"/>
@@ -21504,7 +21508,7 @@
     </row>
     <row r="75" spans="1:13">
       <c r="F75" s="122" t="s">
-        <v>890</v>
+        <v>870</v>
       </c>
       <c r="G75" s="23"/>
       <c r="H75" s="23"/>
@@ -21519,7 +21523,7 @@
     </row>
     <row r="76" spans="1:13">
       <c r="F76" s="122" t="s">
-        <v>891</v>
+        <v>871</v>
       </c>
       <c r="G76" s="23"/>
       <c r="H76" s="23"/>
@@ -21534,7 +21538,7 @@
     </row>
     <row r="77" spans="1:13">
       <c r="F77" s="122" t="s">
-        <v>892</v>
+        <v>872</v>
       </c>
       <c r="G77" s="23"/>
       <c r="H77" s="23"/>
@@ -21551,7 +21555,7 @@
     </row>
     <row r="78" spans="1:13">
       <c r="F78" s="122" t="s">
-        <v>893</v>
+        <v>873</v>
       </c>
       <c r="G78" s="23"/>
       <c r="H78" s="23"/>
@@ -21566,7 +21570,7 @@
     </row>
     <row r="79" spans="1:13" ht="16" thickBot="1">
       <c r="F79" s="124" t="s">
-        <v>901</v>
+        <v>881</v>
       </c>
       <c r="G79" s="16"/>
       <c r="H79" s="16"/>
@@ -21584,6 +21588,7 @@
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -27562,7 +27567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O279"/>
   <sheetViews>
-    <sheetView topLeftCell="A235" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A187" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G254" sqref="G254"/>
     </sheetView>
   </sheetViews>
@@ -29001,7 +29006,7 @@
         <v>805</v>
       </c>
       <c r="F73" s="17" t="s">
-        <v>910</v>
+        <v>890</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -29191,7 +29196,7 @@
     </row>
     <row r="82" spans="1:11">
       <c r="A82" t="s">
-        <v>909</v>
+        <v>889</v>
       </c>
       <c r="B82" t="s">
         <v>19</v>
@@ -29200,7 +29205,7 @@
         <v>19</v>
       </c>
       <c r="D82" t="s">
-        <v>908</v>
+        <v>888</v>
       </c>
       <c r="E82" t="s">
         <v>13</v>
@@ -29217,19 +29222,19 @@
         <v>73</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>908</v>
+        <v>888</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>908</v>
+        <v>888</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>911</v>
+        <v>891</v>
       </c>
       <c r="E83" s="17" t="s">
-        <v>911</v>
+        <v>891</v>
       </c>
       <c r="F83" s="17" t="s">
-        <v>912</v>
+        <v>892</v>
       </c>
       <c r="H83">
         <v>5</v>
@@ -29255,7 +29260,7 @@
         <v>805</v>
       </c>
       <c r="F84" s="17" t="s">
-        <v>908</v>
+        <v>888</v>
       </c>
       <c r="H84">
         <v>2</v>
@@ -31939,7 +31944,7 @@
     </row>
     <row r="231" spans="1:10">
       <c r="A231" s="52" t="s">
-        <v>913</v>
+        <v>893</v>
       </c>
     </row>
     <row r="232" spans="1:10">
@@ -32125,7 +32130,7 @@
         <v>80</v>
       </c>
       <c r="B243" t="s">
-        <v>907</v>
+        <v>887</v>
       </c>
       <c r="F243">
         <v>4</v>
@@ -32201,7 +32206,7 @@
         <v>7</v>
       </c>
       <c r="B249" t="s">
-        <v>914</v>
+        <v>894</v>
       </c>
       <c r="D249">
         <v>2</v>
@@ -32226,7 +32231,7 @@
         <v>225</v>
       </c>
       <c r="B251" t="s">
-        <v>907</v>
+        <v>887</v>
       </c>
       <c r="D251">
         <v>2</v>
@@ -32665,7 +32670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Y194"/>
   <sheetViews>
-    <sheetView topLeftCell="A211" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
       <selection activeCell="M17" sqref="M17:N17"/>
     </sheetView>
   </sheetViews>
@@ -44103,7 +44108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+    <sheetView topLeftCell="A82" workbookViewId="0">
       <selection activeCell="G94" sqref="G94"/>
     </sheetView>
   </sheetViews>
@@ -46429,13 +46434,13 @@
         <v>64</v>
       </c>
       <c r="L91" s="111" t="s">
-        <v>904</v>
+        <v>884</v>
       </c>
       <c r="M91" s="111" t="s">
-        <v>904</v>
+        <v>884</v>
       </c>
       <c r="N91" s="111" t="s">
-        <v>904</v>
+        <v>884</v>
       </c>
       <c r="Q91" s="81"/>
       <c r="R91" s="81"/>
@@ -46499,13 +46504,13 @@
         <v>12</v>
       </c>
       <c r="G93" s="81" t="s">
-        <v>839</v>
+        <v>819</v>
       </c>
       <c r="H93" s="81" t="s">
-        <v>839</v>
+        <v>819</v>
       </c>
       <c r="I93" s="81" t="s">
-        <v>839</v>
+        <v>819</v>
       </c>
       <c r="K93" t="s">
         <v>23</v>
@@ -46540,7 +46545,7 @@
         <v>52</v>
       </c>
       <c r="G94" t="s">
-        <v>915</v>
+        <v>895</v>
       </c>
       <c r="H94" t="s">
         <v>56</v>
@@ -46729,7 +46734,7 @@
         <v>137</v>
       </c>
       <c r="C99" t="s">
-        <v>906</v>
+        <v>886</v>
       </c>
       <c r="D99" t="s">
         <v>397</v>
@@ -46780,7 +46785,7 @@
         <v>286</v>
       </c>
       <c r="G100" s="17" t="s">
-        <v>905</v>
+        <v>885</v>
       </c>
       <c r="H100" s="33"/>
       <c r="I100" s="33"/>
@@ -46807,7 +46812,7 @@
         <v>36</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>840</v>
+        <v>820</v>
       </c>
       <c r="D101" s="33"/>
       <c r="E101" s="81"/>
